--- a/InputData/io-model/BVAbIC/BAU Value Added by ISIC Code.xlsx
+++ b/InputData/io-model/BVAbIC/BAU Value Added by ISIC Code.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\io-model\BVAbIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{733E3815-90D2-4524-8CD1-99384A62FA53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87DB783-5978-4020-8AC4-3132A8642971}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4275" yWindow="705" windowWidth="24090" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="OECD TTL" sheetId="7" r:id="rId2"/>
-    <sheet name="BVAbIC" sheetId="2" r:id="rId3"/>
+    <sheet name="OECD Chem Pharma Split" sheetId="8" r:id="rId3"/>
+    <sheet name="BVAbIC" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -34,8 +35,616 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>MyOECD</author>
+  </authors>
+  <commentList>
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{762BC33E-20AC-4C13-82DB-DD97E5A2D245}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{A88865DB-7C06-45CD-8EAB-EE1D71F2D480}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{3B68736A-2120-4CD7-BEF8-F81A7D241C10}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F7" authorId="0" shapeId="0" xr:uid="{ED654037-59E8-43BB-9786-4CD0422F4EAB}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G7" authorId="0" shapeId="0" xr:uid="{D3D4DA3D-21AF-439D-B35D-1BA2E8688F3F}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H7" authorId="0" shapeId="0" xr:uid="{09C4F144-BF08-4730-9F80-AB17C1CAC51D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I7" authorId="0" shapeId="0" xr:uid="{04F23929-467C-4569-96C5-32DA12EA7857}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J7" authorId="0" shapeId="0" xr:uid="{B39FE5E5-E6E7-40DE-8DED-C373C8845386}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K7" authorId="0" shapeId="0" xr:uid="{9E01B16B-DA3B-4496-BD9E-5BF58BFD04B0}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L7" authorId="0" shapeId="0" xr:uid="{F54A3AF5-7F51-4B55-9525-E67A6214EBBB}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M7" authorId="0" shapeId="0" xr:uid="{D0CD451E-475E-4128-8FAA-33CC771B81AD}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N7" authorId="0" shapeId="0" xr:uid="{761E316D-3F29-40B1-9B30-1F571D8BE8CB}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{94CF7A5D-A2FB-420D-85BC-49AC26FD3011}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D10" authorId="0" shapeId="0" xr:uid="{343E43D0-E0F2-478B-875F-4A6E699EADA1}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{E35C0C50-DB43-411E-99D8-15C9E0A21A8C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F10" authorId="0" shapeId="0" xr:uid="{97B02DD6-6E0C-4CB0-A0FC-75C56BA4DE94}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{9AE07F11-3987-410E-8D13-3CADF844F254}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H10" authorId="0" shapeId="0" xr:uid="{A3DDEB6F-CC5B-4254-BDEB-A686A251BA59}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I10" authorId="0" shapeId="0" xr:uid="{ABFB604C-A184-414A-9D5B-4A0E1174A738}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J10" authorId="0" shapeId="0" xr:uid="{A45B92FC-1C75-4BBF-80EE-2B9D1F553895}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K10" authorId="0" shapeId="0" xr:uid="{FB220D00-805D-422D-9ED3-39B2016A0B26}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L10" authorId="0" shapeId="0" xr:uid="{A1384F3D-0E48-465C-851E-F6D96BA686F9}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C19" authorId="0" shapeId="0" xr:uid="{FA5A55EE-B723-4E05-9CEF-E2B22F76C01B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D19" authorId="0" shapeId="0" xr:uid="{5764BF3D-DBAF-4D7A-AC35-A5456026D611}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E19" authorId="0" shapeId="0" xr:uid="{8A762B11-ED88-45E8-96D9-742BDBA37B12}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F19" authorId="0" shapeId="0" xr:uid="{E316CF19-5F97-430F-B0C6-762192F8D725}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G19" authorId="0" shapeId="0" xr:uid="{6E264995-AFDE-4304-A1E0-27268C268101}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H19" authorId="0" shapeId="0" xr:uid="{F92A598C-FA6D-412C-BA77-05E76C8AF5C8}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M19" authorId="0" shapeId="0" xr:uid="{AC0D9D84-B657-4009-BB6C-E8BCB72FDF5E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N19" authorId="0" shapeId="0" xr:uid="{09296323-A4E5-42AD-BA40-F326AF94A804}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C20" authorId="0" shapeId="0" xr:uid="{BFA0E3C0-1663-4A2E-8CB1-04CE50D3E6ED}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D20" authorId="0" shapeId="0" xr:uid="{F25D62C1-2AB5-4014-A50D-4F764078FA49}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E20" authorId="0" shapeId="0" xr:uid="{38BE7162-9E69-4A2B-BDC4-B04F0ED7A13E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F20" authorId="0" shapeId="0" xr:uid="{7A4BDCA8-E3E4-4901-982D-033FF01404C3}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G20" authorId="0" shapeId="0" xr:uid="{7F61C2DF-0F85-45B7-BA9A-7487E21B865E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H20" authorId="0" shapeId="0" xr:uid="{E0AB967D-E1C5-4341-B73E-68DB753B94B2}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I20" authorId="0" shapeId="0" xr:uid="{DD0AE860-7013-44CD-8BFE-A835937F7B63}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J20" authorId="0" shapeId="0" xr:uid="{EA3307A7-38D4-4B95-8609-0C3E420D71EB}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K20" authorId="0" shapeId="0" xr:uid="{5A92BBEF-25A1-45CB-96F8-0DB8CABF48F7}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L20" authorId="0" shapeId="0" xr:uid="{2B5CF153-F4FA-42E7-8D99-8D294294E1C1}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M20" authorId="0" shapeId="0" xr:uid="{11845A38-96AA-41EC-8C60-67F387E62C13}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N20" authorId="0" shapeId="0" xr:uid="{438193BC-FC9B-46D8-9528-796D6A5962EF}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M29" authorId="0" shapeId="0" xr:uid="{D3CE4208-9E0C-4501-B334-ABC60F61B631}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N29" authorId="0" shapeId="0" xr:uid="{235C229C-7BED-4433-956A-CFFC47F60A38}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M31" authorId="0" shapeId="0" xr:uid="{DEA3DE8A-EC7B-4E20-A0BA-03E19523B2B1}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N31" authorId="0" shapeId="0" xr:uid="{4F961EF2-2DAA-470C-8878-5924BD67CAFF}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="200">
   <si>
     <t>Source:</t>
   </si>
@@ -94,9 +703,6 @@
     <t>ISIC 19</t>
   </si>
   <si>
-    <t>ISIC 20T21</t>
-  </si>
-  <si>
     <t>ISIC 22</t>
   </si>
   <si>
@@ -175,9 +781,6 @@
     <t>ISIC 97T98</t>
   </si>
   <si>
-    <t>https://stats.oecd.org/Index.aspx?DataSetCode=IOTS#</t>
-  </si>
-  <si>
     <t>Dataset: Input-Output Tables 2018 edition</t>
   </si>
   <si>
@@ -482,6 +1085,165 @@
   </si>
   <si>
     <t>BVAbIC BAU Value Added by ISIC Code</t>
+  </si>
+  <si>
+    <t>https://stats.oecd.org/Index.aspx?DataSetCode=IOTSI4_2018</t>
+  </si>
+  <si>
+    <t>Most Industries</t>
+  </si>
+  <si>
+    <t>Chemicals and Pharmaceuticals Industries</t>
+  </si>
+  <si>
+    <t>STAN Database for Structural Analysis</t>
+  </si>
+  <si>
+    <t>https://stats.oecd.org/Index.aspx?DataSetCode=STANI4_2020</t>
+  </si>
+  <si>
+    <t>Variable: VALU</t>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="utf-16"?&gt;&lt;WebTableParameter xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns="http://stats.oecd.org/OECDStatWS/2004/03/01/"&gt;&lt;DataTable Code="STANI4_2020" HasMetadata="true"&gt;&lt;Name LocaleIsoCode="en"&gt;STAN Industrial Analysis (2020 ed.)&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;STAN pour l'Analyse Structurelle (éd. 2020)&lt;/Name&gt;&lt;Dimension Code="LOCATION" HasMetadata="false" CommonCode="LOCATION" Display="labels"&gt;&lt;Name LocaleIsoCode="en"&gt;Country&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Pays&lt;/Name&gt;&lt;Member Code="AUS" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Australia&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Australie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="AUT" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Austria&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Autriche&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="BEL" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Belgium&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Belgique&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="CHL" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Chile&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Chili&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="CZE" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Czech Republic&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;République tchèque&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="DNK" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Denmark&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Danemark&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="EST" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Estonia&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Estonie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="FIN" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Finland&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Finlande&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="FRA" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;France&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;France&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="DEU" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Germany&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Allemagne&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="HUN" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Hungary&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Hongrie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="ITA" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Italy&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Italie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="JPN" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Japan&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Japon&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="KOR" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Korea&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Corée&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="LVA" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Latvia&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Lettonie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="LTU" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Lithuania&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Lituanie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="MEX" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Mexico&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Mexique&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="NLD" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Netherlands&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Pays-Bas&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="NOR" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Norway&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Norvège&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="PRT" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Portugal&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Portugal&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="SVK" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Slovak Republic&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;République slovaque&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="ESP" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Spain&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Espagne&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="CHE" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Switzerland&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Suisse&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="GBR" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;United Kingdom&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Royaume-Uni&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="USA" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;United States&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;États-Unis&lt;/Name&gt;&lt;/Member&gt;&lt;/Dimension&gt;&lt;Dimension Code="VAR" HasMetadata="false" Display="codesandlabels"&gt;&lt;Name LocaleIsoCode="en"&gt;Variable&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Variable&lt;/Name&gt;&lt;Member Code="PROD" HasMetadata="true" HasOnlyUnitMetadata="true" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Production (gross output), current prices&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Production (brute), prix courants&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="VALU" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Value added, current prices&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Valeur ajoutée, prix courants&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="LABR" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Labour costs (compensation of employees)&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Coût de la main-d'oeuvre (rémunération)&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="GOPS" HasMetadata="true" HasOnlyUnitMetadata="true" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Gross operating surplus and mixed income&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Excédent brut d'exploitation et revenu mixte&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="OTXS" HasMetadata="true" HasOnlyUnitMetadata="true" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Other taxes less subsidies on production&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Autres impôts moins subventions sur la production&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="EMPN" HasMetadata="true" HasOnlyUnitMetadata="true" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Number of persons engaged (total employment)&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Actifs occupés - emploi total&lt;/Name&gt;&lt;/Member&gt;&lt;/Dimension&gt;&lt;Dimension Code="IND" HasMetadata="false" Display="codesandlabels"&gt;&lt;Name LocaleIsoCode="en"&gt;Industry&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Activité&lt;/Name&gt;&lt;Member Code="D20" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt; Chemicals and chemical products [CE]&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Produits chimiques [CE]&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="D21" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt; Basic pharmaceutical products and pharmaceutical preparations [CF]&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Produits et préparations pharmaceutiques [CF]&lt;/Name&gt;&lt;/Member&gt;&lt;/Dimension&gt;&lt;Dimension Code="TIME" HasMetadata="false" CommonCode="TIME" Display="labels"&gt;&lt;Name LocaleIsoCode="en"&gt;Time&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Temps&lt;/Name&gt;&lt;Member Code="2015" HasMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;2015&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;2015&lt;/Name&gt;&lt;/Member&gt;&lt;/Dimension&gt;&lt;WBOSInformations&gt;&lt;TimeDimension WebTreeWasUsed="false"&gt;&lt;StartCodes Annual="2015" /&gt;&lt;EndCodes Annual="2015" /&gt;&lt;/TimeDimension&gt;&lt;/WBOSInformations&gt;&lt;Tabulation Axis="horizontal"&gt;&lt;Dimension Code="VAR" /&gt;&lt;Dimension Code="IND" /&gt;&lt;/Tabulation&gt;&lt;Tabulation Axis="vertical"&gt;&lt;Dimension Code="LOCATION" /&gt;&lt;/Tabulation&gt;&lt;Tabulation Axis="page"&gt;&lt;Dimension Code="TIME" /&gt;&lt;/Tabulation&gt;&lt;Formatting&gt;&lt;Labels LocaleIsoCode="en" /&gt;&lt;Power&gt;0&lt;/Power&gt;&lt;Decimals&gt;1&lt;/Decimals&gt;&lt;SkipEmptyLines&gt;true&lt;/SkipEmptyLines&gt;&lt;SkipEmptyCols&gt;false&lt;/SkipEmptyCols&gt;&lt;SkipLineHierarchy&gt;true&lt;/SkipLineHierarchy&gt;&lt;SkipColHierarchy&gt;false&lt;/SkipColHierarchy&gt;&lt;Page&gt;1&lt;/Page&gt;&lt;/Formatting&gt;&lt;/DataTable&gt;&lt;Format&gt;&lt;ShowEmptyAxes&gt;true&lt;/ShowEmptyAxes&gt;&lt;Page&gt;1&lt;/Page&gt;&lt;EnableSort&gt;true&lt;/EnableSort&gt;&lt;IncludeFlagColumn&gt;false&lt;/IncludeFlagColumn&gt;&lt;IncludeTimeSeriesId&gt;false&lt;/IncludeTimeSeriesId&gt;&lt;DoBarChart&gt;false&lt;/DoBarChart&gt;&lt;FreezePanes&gt;true&lt;/FreezePanes&gt;&lt;MaxBarChartLen&gt;65&lt;/MaxBarChartLen&gt;&lt;/Format&gt;&lt;Query&gt;&lt;AbsoluteUri&gt;http://stats.oecd.org//View.aspx?QueryId=&amp;amp;QueryType=Public&amp;amp;Lang=en&lt;/AbsoluteUri&gt;&lt;/Query&gt;&lt;/WebTableParameter&gt;</t>
+  </si>
+  <si>
+    <t>Dataset: STAN Industrial Analysis (2020 ed.)</t>
+  </si>
+  <si>
+    <t>PROD: Production (gross output), current prices</t>
+  </si>
+  <si>
+    <t>VALU: Value added, current prices</t>
+  </si>
+  <si>
+    <t>LABR: Labour costs (compensation of employees)</t>
+  </si>
+  <si>
+    <t>GOPS: Gross operating surplus and mixed income</t>
+  </si>
+  <si>
+    <t>OTXS: Other taxes less subsidies on production</t>
+  </si>
+  <si>
+    <t>EMPN: Number of persons engaged (total employment)</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>D20: Chemicals and chemical products [CE]</t>
+  </si>
+  <si>
+    <t>D21: Basic pharmaceutical products and pharmaceutical preparations [CF]</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>..</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Korea</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Slovak Republic</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Data extracted on 05 Oct 2020 23:14 UTC (GMT) from OECD.Stat</t>
+  </si>
+  <si>
+    <t>Legend:</t>
+  </si>
+  <si>
+    <t>c:</t>
+  </si>
+  <si>
+    <t>Estimates based on national Supply and Use tables (SUTs) or Input-Output tables</t>
+  </si>
+  <si>
+    <t>b:</t>
+  </si>
+  <si>
+    <t>Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4)</t>
+  </si>
+  <si>
+    <t>ISIC 20</t>
+  </si>
+  <si>
+    <t>ISIC 21</t>
+  </si>
+  <si>
+    <t>We divide up chemicals and pharmaceuticals (ISIC 20T21) into separate chemicals (ISIC 20)</t>
+  </si>
+  <si>
+    <t>and pharmaceuticals (ISIC 21) industries using data from a different OECD database.</t>
   </si>
 </sst>
 </file>
@@ -492,7 +1254,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0_ ;\-#,##0.0\ "/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -586,8 +1348,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -621,6 +1389,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF0F8FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -691,7 +1471,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -761,6 +1541,72 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1043,7 +1889,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1054,71 +1900,117 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="27" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>140</v>
-      </c>
-    </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>46</v>
+      <c r="B6" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="27" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="16">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="16">
         <v>0.9686815713640794</v>
       </c>
-      <c r="B14" t="s">
-        <v>144</v>
+      <c r="B25" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" display="https://stats.oecd.org/Index.aspx?DataSetCode=IOTS" xr:uid="{C06A9336-BC35-4B54-A51B-A07B7CB01714}"/>
+    <hyperlink ref="B14" r:id="rId1" xr:uid="{692E8648-BB97-4B8F-BE27-CD241B6CC8F7}"/>
+    <hyperlink ref="B7" r:id="rId2" xr:uid="{78047928-9A65-447B-AA35-A63260CA12DE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1159,16 +2051,16 @@
     </row>
     <row r="2" spans="1:47" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
@@ -1327,7 +2219,7 @@
       </c>
       <c r="B6" s="18"/>
       <c r="C6" s="19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
@@ -1376,148 +2268,148 @@
     </row>
     <row r="7" spans="1:47" ht="126" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B7" s="23"/>
       <c r="C7" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="F7" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="G7" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="H7" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="I7" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="J7" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="K7" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="L7" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="M7" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="N7" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="M7" s="8" t="s">
+      <c r="O7" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="N7" s="8" t="s">
+      <c r="P7" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="O7" s="8" t="s">
+      <c r="Q7" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P7" s="8" t="s">
+      <c r="R7" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="Q7" s="8" t="s">
+      <c r="S7" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="R7" s="8" t="s">
+      <c r="T7" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="S7" s="8" t="s">
+      <c r="U7" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="T7" s="8" t="s">
+      <c r="V7" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="U7" s="8" t="s">
+      <c r="W7" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="V7" s="8" t="s">
+      <c r="X7" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="W7" s="8" t="s">
+      <c r="Y7" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="X7" s="8" t="s">
+      <c r="Z7" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="Y7" s="8" t="s">
+      <c r="AA7" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="Z7" s="8" t="s">
+      <c r="AB7" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="AA7" s="8" t="s">
+      <c r="AC7" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="AB7" s="8" t="s">
+      <c r="AD7" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="AC7" s="8" t="s">
+      <c r="AE7" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AD7" s="8" t="s">
+      <c r="AF7" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="AE7" s="8" t="s">
+      <c r="AG7" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="AF7" s="8" t="s">
+      <c r="AH7" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="AG7" s="8" t="s">
+      <c r="AI7" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="AH7" s="8" t="s">
+      <c r="AJ7" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="AI7" s="8" t="s">
+      <c r="AK7" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="AJ7" s="8" t="s">
+      <c r="AL7" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="AK7" s="8" t="s">
+      <c r="AM7" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="AL7" s="8" t="s">
+      <c r="AN7" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="AM7" s="8" t="s">
+      <c r="AO7" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="AN7" s="8" t="s">
+      <c r="AP7" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="AO7" s="8" t="s">
+      <c r="AQ7" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AP7" s="8" t="s">
+      <c r="AR7" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="AQ7" s="8" t="s">
+      <c r="AS7" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="AR7" s="8" t="s">
+      <c r="AT7" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="AS7" s="8" t="s">
+      <c r="AU7" s="8" t="s">
         <v>94</v>
-      </c>
-      <c r="AT7" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="AU7" s="8" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:47" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>9</v>
@@ -1660,7 +2552,7 @@
     </row>
     <row r="9" spans="1:47" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>9</v>
@@ -1803,7 +2695,7 @@
     </row>
     <row r="10" spans="1:47" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>9</v>
@@ -1946,7 +2838,7 @@
     </row>
     <row r="11" spans="1:47" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>9</v>
@@ -2089,7 +2981,7 @@
     </row>
     <row r="12" spans="1:47" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>9</v>
@@ -2232,7 +3124,7 @@
     </row>
     <row r="13" spans="1:47" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>9</v>
@@ -2375,7 +3267,7 @@
     </row>
     <row r="14" spans="1:47" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>9</v>
@@ -2518,7 +3410,7 @@
     </row>
     <row r="15" spans="1:47" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>9</v>
@@ -2661,7 +3553,7 @@
     </row>
     <row r="16" spans="1:47" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>9</v>
@@ -2804,7 +3696,7 @@
     </row>
     <row r="17" spans="1:47" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>9</v>
@@ -2947,7 +3839,7 @@
     </row>
     <row r="18" spans="1:47" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>9</v>
@@ -3090,7 +3982,7 @@
     </row>
     <row r="19" spans="1:47" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>9</v>
@@ -3233,7 +4125,7 @@
     </row>
     <row r="20" spans="1:47" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>9</v>
@@ -3376,7 +4268,7 @@
     </row>
     <row r="21" spans="1:47" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>9</v>
@@ -3519,7 +4411,7 @@
     </row>
     <row r="22" spans="1:47" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>9</v>
@@ -3662,7 +4554,7 @@
     </row>
     <row r="23" spans="1:47" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>9</v>
@@ -3805,7 +4697,7 @@
     </row>
     <row r="24" spans="1:47" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>9</v>
@@ -3948,7 +4840,7 @@
     </row>
     <row r="25" spans="1:47" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>9</v>
@@ -4091,7 +4983,7 @@
     </row>
     <row r="26" spans="1:47" ht="21" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>9</v>
@@ -4234,7 +5126,7 @@
     </row>
     <row r="27" spans="1:47" ht="21" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>9</v>
@@ -4377,7 +5269,7 @@
     </row>
     <row r="28" spans="1:47" ht="42" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>9</v>
@@ -4520,7 +5412,7 @@
     </row>
     <row r="29" spans="1:47" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>9</v>
@@ -4663,7 +5555,7 @@
     </row>
     <row r="30" spans="1:47" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>9</v>
@@ -4806,7 +5698,7 @@
     </row>
     <row r="31" spans="1:47" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>9</v>
@@ -4949,7 +5841,7 @@
     </row>
     <row r="32" spans="1:47" ht="21" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>9</v>
@@ -5092,7 +5984,7 @@
     </row>
     <row r="33" spans="1:47" ht="21" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>9</v>
@@ -5235,7 +6127,7 @@
     </row>
     <row r="34" spans="1:47" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>9</v>
@@ -5378,7 +6270,7 @@
     </row>
     <row r="35" spans="1:47" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>9</v>
@@ -5521,7 +6413,7 @@
     </row>
     <row r="36" spans="1:47" ht="21" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>9</v>
@@ -5664,7 +6556,7 @@
     </row>
     <row r="37" spans="1:47" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>9</v>
@@ -5807,7 +6699,7 @@
     </row>
     <row r="38" spans="1:47" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>9</v>
@@ -5950,7 +6842,7 @@
     </row>
     <row r="39" spans="1:47" ht="21" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B39" s="10" t="s">
         <v>9</v>
@@ -6093,7 +6985,7 @@
     </row>
     <row r="40" spans="1:47" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>9</v>
@@ -6236,7 +7128,7 @@
     </row>
     <row r="41" spans="1:47" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B41" s="10" t="s">
         <v>9</v>
@@ -6379,7 +7271,7 @@
     </row>
     <row r="42" spans="1:47" ht="21" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B42" s="10" t="s">
         <v>9</v>
@@ -6522,7 +7414,7 @@
     </row>
     <row r="43" spans="1:47" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>9</v>
@@ -6665,7 +7557,7 @@
     </row>
     <row r="44" spans="1:47" ht="21" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B44" s="10" t="s">
         <v>9</v>
@@ -6808,7 +7700,7 @@
     </row>
     <row r="45" spans="1:47" ht="42" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B45" s="10" t="s">
         <v>9</v>
@@ -6951,7 +7843,7 @@
     </row>
     <row r="46" spans="1:47" ht="52.5" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B46" s="10" t="s">
         <v>9</v>
@@ -7094,7 +7986,7 @@
     </row>
     <row r="47" spans="1:47" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B47" s="10" t="s">
         <v>9</v>
@@ -7237,7 +8129,7 @@
     </row>
     <row r="48" spans="1:47" ht="21" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B48" s="10" t="s">
         <v>9</v>
@@ -7380,7 +8272,7 @@
     </row>
     <row r="49" spans="1:47" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B49" s="10" t="s">
         <v>9</v>
@@ -7523,7 +8415,7 @@
     </row>
     <row r="50" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A50" s="14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -7549,23 +8441,1366 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A505F6CD-2BEA-4996-A3D8-8939CC72A3B6}">
+  <dimension ref="A1:N35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="2.42578125" customWidth="1"/>
+    <col min="3" max="14" width="14.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="e">
+        <f ca="1">DotStatQuery(B1)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="24" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="31"/>
+      <c r="C3" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="34"/>
+    </row>
+    <row r="4" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="36"/>
+      <c r="C4" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="D4" s="38"/>
+      <c r="E4" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="F4" s="38"/>
+      <c r="G4" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="H4" s="38"/>
+      <c r="I4" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="J4" s="38"/>
+      <c r="K4" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="L4" s="38"/>
+      <c r="M4" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="N4" s="38"/>
+    </row>
+    <row r="5" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A5" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" s="36"/>
+      <c r="C5" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="G5" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="H5" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="I5" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="J5" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="K5" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="L5" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="M5" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="N5" s="39" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" s="41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="43">
+        <v>17390</v>
+      </c>
+      <c r="D7" s="43">
+        <v>10427</v>
+      </c>
+      <c r="E7" s="43">
+        <v>6061</v>
+      </c>
+      <c r="F7" s="43">
+        <v>3451</v>
+      </c>
+      <c r="G7" s="43">
+        <v>2949</v>
+      </c>
+      <c r="H7" s="43">
+        <v>1466</v>
+      </c>
+      <c r="I7" s="43">
+        <v>2957</v>
+      </c>
+      <c r="J7" s="43">
+        <v>1941</v>
+      </c>
+      <c r="K7" s="43">
+        <v>151</v>
+      </c>
+      <c r="L7" s="43">
+        <v>48</v>
+      </c>
+      <c r="M7" s="43">
+        <v>31.715</v>
+      </c>
+      <c r="N7" s="43">
+        <v>16.427</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="44">
+        <v>13142.207</v>
+      </c>
+      <c r="D8" s="44">
+        <v>4268.8580000000002</v>
+      </c>
+      <c r="E8" s="44">
+        <v>2750.683</v>
+      </c>
+      <c r="F8" s="44">
+        <v>2190.2440000000001</v>
+      </c>
+      <c r="G8" s="44">
+        <v>1169.6790000000001</v>
+      </c>
+      <c r="H8" s="44">
+        <v>999.32500000000005</v>
+      </c>
+      <c r="I8" s="44">
+        <v>1540.5920000000001</v>
+      </c>
+      <c r="J8" s="44">
+        <v>1143.9290000000001</v>
+      </c>
+      <c r="K8" s="44">
+        <v>40.411999999999999</v>
+      </c>
+      <c r="L8" s="44">
+        <v>46.99</v>
+      </c>
+      <c r="M8" s="44">
+        <v>17.47</v>
+      </c>
+      <c r="N8" s="44">
+        <v>15.18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="43">
+        <v>32184.7</v>
+      </c>
+      <c r="D9" s="43">
+        <v>15967.8</v>
+      </c>
+      <c r="E9" s="43">
+        <v>9208.1</v>
+      </c>
+      <c r="F9" s="43">
+        <v>5799.6</v>
+      </c>
+      <c r="G9" s="43">
+        <v>4169.7</v>
+      </c>
+      <c r="H9" s="43">
+        <v>2219.6999999999998</v>
+      </c>
+      <c r="I9" s="43">
+        <v>5127.8</v>
+      </c>
+      <c r="J9" s="43">
+        <v>3664</v>
+      </c>
+      <c r="K9" s="43">
+        <v>-89.4</v>
+      </c>
+      <c r="L9" s="43">
+        <v>-84.1</v>
+      </c>
+      <c r="M9" s="43">
+        <v>44</v>
+      </c>
+      <c r="N9" s="43">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="44">
+        <v>4296151.79</v>
+      </c>
+      <c r="D10" s="44">
+        <v>1176806.6969999999</v>
+      </c>
+      <c r="E10" s="44">
+        <v>1262313.6129999999</v>
+      </c>
+      <c r="F10" s="44">
+        <v>414529.82299999997</v>
+      </c>
+      <c r="G10" s="44">
+        <v>410617.86</v>
+      </c>
+      <c r="H10" s="44">
+        <v>197186.617</v>
+      </c>
+      <c r="I10" s="44">
+        <v>825702.42099999997</v>
+      </c>
+      <c r="J10" s="44">
+        <v>207059.06099999999</v>
+      </c>
+      <c r="K10" s="44">
+        <v>25993.348999999998</v>
+      </c>
+      <c r="L10" s="44">
+        <v>10284.14</v>
+      </c>
+      <c r="M10" s="44" t="s">
+        <v>168</v>
+      </c>
+      <c r="N10" s="44" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="43">
+        <v>155577</v>
+      </c>
+      <c r="D11" s="43">
+        <v>41847</v>
+      </c>
+      <c r="E11" s="43">
+        <v>40096</v>
+      </c>
+      <c r="F11" s="43">
+        <v>17707</v>
+      </c>
+      <c r="G11" s="43">
+        <v>14359</v>
+      </c>
+      <c r="H11" s="43">
+        <v>4980</v>
+      </c>
+      <c r="I11" s="43">
+        <v>25779</v>
+      </c>
+      <c r="J11" s="43">
+        <v>12717</v>
+      </c>
+      <c r="K11" s="43">
+        <v>-42</v>
+      </c>
+      <c r="L11" s="43">
+        <v>10</v>
+      </c>
+      <c r="M11" s="43">
+        <v>30.922000000000001</v>
+      </c>
+      <c r="N11" s="43">
+        <v>11.698</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="44">
+        <v>41360</v>
+      </c>
+      <c r="D12" s="44">
+        <v>92114</v>
+      </c>
+      <c r="E12" s="44">
+        <v>18022</v>
+      </c>
+      <c r="F12" s="44">
+        <v>60233</v>
+      </c>
+      <c r="G12" s="44">
+        <v>6417</v>
+      </c>
+      <c r="H12" s="44">
+        <v>16429</v>
+      </c>
+      <c r="I12" s="44">
+        <v>11520</v>
+      </c>
+      <c r="J12" s="44">
+        <v>43707</v>
+      </c>
+      <c r="K12" s="44">
+        <v>85</v>
+      </c>
+      <c r="L12" s="44">
+        <v>98</v>
+      </c>
+      <c r="M12" s="44">
+        <v>11.451000000000001</v>
+      </c>
+      <c r="N12" s="44">
+        <v>22.722000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="43">
+        <v>429.8</v>
+      </c>
+      <c r="D13" s="43">
+        <v>45.4</v>
+      </c>
+      <c r="E13" s="43">
+        <v>106.1</v>
+      </c>
+      <c r="F13" s="43">
+        <v>11</v>
+      </c>
+      <c r="G13" s="43">
+        <v>50.2</v>
+      </c>
+      <c r="H13" s="43">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I13" s="43">
+        <v>56</v>
+      </c>
+      <c r="J13" s="43">
+        <v>1.8</v>
+      </c>
+      <c r="K13" s="43">
+        <v>-0.1</v>
+      </c>
+      <c r="L13" s="43">
+        <v>0</v>
+      </c>
+      <c r="M13" s="43">
+        <v>3.1</v>
+      </c>
+      <c r="N13" s="43">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="44">
+        <v>7559</v>
+      </c>
+      <c r="D14" s="44">
+        <v>1835</v>
+      </c>
+      <c r="E14" s="44">
+        <v>2022</v>
+      </c>
+      <c r="F14" s="44">
+        <v>1315</v>
+      </c>
+      <c r="G14" s="44">
+        <v>775</v>
+      </c>
+      <c r="H14" s="44">
+        <v>264</v>
+      </c>
+      <c r="I14" s="44">
+        <v>1266</v>
+      </c>
+      <c r="J14" s="44">
+        <v>1056</v>
+      </c>
+      <c r="K14" s="44">
+        <v>-19</v>
+      </c>
+      <c r="L14" s="44">
+        <v>-5</v>
+      </c>
+      <c r="M14" s="44">
+        <v>12.8</v>
+      </c>
+      <c r="N14" s="44">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="43">
+        <v>64869</v>
+      </c>
+      <c r="D15" s="43">
+        <v>26029</v>
+      </c>
+      <c r="E15" s="43">
+        <v>19595</v>
+      </c>
+      <c r="F15" s="43">
+        <v>12412</v>
+      </c>
+      <c r="G15" s="43">
+        <v>8882</v>
+      </c>
+      <c r="H15" s="43">
+        <v>4218</v>
+      </c>
+      <c r="I15" s="43">
+        <v>9941</v>
+      </c>
+      <c r="J15" s="43">
+        <v>7853</v>
+      </c>
+      <c r="K15" s="43">
+        <v>772</v>
+      </c>
+      <c r="L15" s="43">
+        <v>341</v>
+      </c>
+      <c r="M15" s="43">
+        <v>111</v>
+      </c>
+      <c r="N15" s="43">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="44">
+        <v>137727</v>
+      </c>
+      <c r="D16" s="44">
+        <v>46535</v>
+      </c>
+      <c r="E16" s="44">
+        <v>45580</v>
+      </c>
+      <c r="F16" s="44">
+        <v>22858</v>
+      </c>
+      <c r="G16" s="44">
+        <v>24028</v>
+      </c>
+      <c r="H16" s="44">
+        <v>8909</v>
+      </c>
+      <c r="I16" s="44">
+        <v>21374</v>
+      </c>
+      <c r="J16" s="44">
+        <v>13883</v>
+      </c>
+      <c r="K16" s="44">
+        <v>178</v>
+      </c>
+      <c r="L16" s="44">
+        <v>66</v>
+      </c>
+      <c r="M16" s="44">
+        <v>348</v>
+      </c>
+      <c r="N16" s="44">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="42" t="s">
+        <v>175</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="43">
+        <v>1561214</v>
+      </c>
+      <c r="D17" s="43">
+        <v>950652</v>
+      </c>
+      <c r="E17" s="43">
+        <v>392029</v>
+      </c>
+      <c r="F17" s="43">
+        <v>450794</v>
+      </c>
+      <c r="G17" s="43">
+        <v>89594</v>
+      </c>
+      <c r="H17" s="43">
+        <v>149504</v>
+      </c>
+      <c r="I17" s="43">
+        <v>294084</v>
+      </c>
+      <c r="J17" s="43">
+        <v>298569</v>
+      </c>
+      <c r="K17" s="43">
+        <v>8351</v>
+      </c>
+      <c r="L17" s="43">
+        <v>2721</v>
+      </c>
+      <c r="M17" s="43">
+        <v>16.291</v>
+      </c>
+      <c r="N17" s="43">
+        <v>20.789000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="42" t="s">
+        <v>176</v>
+      </c>
+      <c r="B18" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="44">
+        <v>50506.5</v>
+      </c>
+      <c r="D18" s="44">
+        <v>25044.1</v>
+      </c>
+      <c r="E18" s="44">
+        <v>10896.2</v>
+      </c>
+      <c r="F18" s="44">
+        <v>8888.5</v>
+      </c>
+      <c r="G18" s="44">
+        <v>5723.3</v>
+      </c>
+      <c r="H18" s="44">
+        <v>4034.3</v>
+      </c>
+      <c r="I18" s="44">
+        <v>4864.1000000000004</v>
+      </c>
+      <c r="J18" s="44">
+        <v>4486.5</v>
+      </c>
+      <c r="K18" s="44">
+        <v>308.8</v>
+      </c>
+      <c r="L18" s="44">
+        <v>367.7</v>
+      </c>
+      <c r="M18" s="44">
+        <v>109.7</v>
+      </c>
+      <c r="N18" s="44">
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="B19" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="43">
+        <v>22424500</v>
+      </c>
+      <c r="D19" s="43">
+        <v>9255400</v>
+      </c>
+      <c r="E19" s="43">
+        <v>8516400</v>
+      </c>
+      <c r="F19" s="43">
+        <v>3015900</v>
+      </c>
+      <c r="G19" s="43">
+        <v>2266700</v>
+      </c>
+      <c r="H19" s="43">
+        <v>802700</v>
+      </c>
+      <c r="I19" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="J19" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="K19" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="L19" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="M19" s="43">
+        <v>328</v>
+      </c>
+      <c r="N19" s="43">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="42" t="s">
+        <v>178</v>
+      </c>
+      <c r="B20" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="44">
+        <v>144820316</v>
+      </c>
+      <c r="D20" s="44">
+        <v>17629352</v>
+      </c>
+      <c r="E20" s="44">
+        <v>38090317</v>
+      </c>
+      <c r="F20" s="44">
+        <v>6699394</v>
+      </c>
+      <c r="G20" s="44">
+        <v>9391789</v>
+      </c>
+      <c r="H20" s="44">
+        <v>1980796</v>
+      </c>
+      <c r="I20" s="44">
+        <v>28334763</v>
+      </c>
+      <c r="J20" s="44">
+        <v>4673860</v>
+      </c>
+      <c r="K20" s="44">
+        <v>363765</v>
+      </c>
+      <c r="L20" s="44">
+        <v>44738</v>
+      </c>
+      <c r="M20" s="44">
+        <v>175.2</v>
+      </c>
+      <c r="N20" s="44">
+        <v>44.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="42" t="s">
+        <v>179</v>
+      </c>
+      <c r="B21" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="43">
+        <v>245.93</v>
+      </c>
+      <c r="D21" s="43">
+        <v>156.44999999999999</v>
+      </c>
+      <c r="E21" s="43">
+        <v>61.082999999999998</v>
+      </c>
+      <c r="F21" s="43">
+        <v>78.703999999999994</v>
+      </c>
+      <c r="G21" s="43">
+        <v>33.743000000000002</v>
+      </c>
+      <c r="H21" s="43">
+        <v>41.521000000000001</v>
+      </c>
+      <c r="I21" s="43">
+        <v>26.463999999999999</v>
+      </c>
+      <c r="J21" s="43">
+        <v>36.499000000000002</v>
+      </c>
+      <c r="K21" s="43">
+        <v>0.876</v>
+      </c>
+      <c r="L21" s="43">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="M21" s="43">
+        <v>2.8730000000000002</v>
+      </c>
+      <c r="N21" s="43">
+        <v>2.351</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="45" t="s">
+        <v>180</v>
+      </c>
+      <c r="B22" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="44">
+        <v>2026.5</v>
+      </c>
+      <c r="D22" s="44">
+        <v>215.7</v>
+      </c>
+      <c r="E22" s="44">
+        <v>532.5</v>
+      </c>
+      <c r="F22" s="44">
+        <v>169.2</v>
+      </c>
+      <c r="G22" s="44">
+        <v>126.7</v>
+      </c>
+      <c r="H22" s="44">
+        <v>17.5</v>
+      </c>
+      <c r="I22" s="44">
+        <v>407.4</v>
+      </c>
+      <c r="J22" s="44">
+        <v>151.69999999999999</v>
+      </c>
+      <c r="K22" s="44">
+        <v>-1.5</v>
+      </c>
+      <c r="L22" s="44">
+        <v>0.1</v>
+      </c>
+      <c r="M22" s="44">
+        <v>6.6</v>
+      </c>
+      <c r="N22" s="44">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="B23" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="43">
+        <v>720647.26100000006</v>
+      </c>
+      <c r="D23" s="43">
+        <v>275739.48700000002</v>
+      </c>
+      <c r="E23" s="43">
+        <v>210925.78400000001</v>
+      </c>
+      <c r="F23" s="43">
+        <v>65884.478000000003</v>
+      </c>
+      <c r="G23" s="43">
+        <v>38561.97</v>
+      </c>
+      <c r="H23" s="43">
+        <v>25493.957999999999</v>
+      </c>
+      <c r="I23" s="43">
+        <v>170135.56</v>
+      </c>
+      <c r="J23" s="43">
+        <v>39511.928999999996</v>
+      </c>
+      <c r="K23" s="43">
+        <v>2228.2539999999999</v>
+      </c>
+      <c r="L23" s="43">
+        <v>878.59100000000001</v>
+      </c>
+      <c r="M23" s="43">
+        <v>155.35499999999999</v>
+      </c>
+      <c r="N23" s="43">
+        <v>118.422</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="42" t="s">
+        <v>182</v>
+      </c>
+      <c r="B24" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="44">
+        <v>41782</v>
+      </c>
+      <c r="D24" s="44">
+        <v>5784</v>
+      </c>
+      <c r="E24" s="44">
+        <v>9497</v>
+      </c>
+      <c r="F24" s="44">
+        <v>2423</v>
+      </c>
+      <c r="G24" s="44">
+        <v>3475</v>
+      </c>
+      <c r="H24" s="44">
+        <v>902</v>
+      </c>
+      <c r="I24" s="44">
+        <v>6007</v>
+      </c>
+      <c r="J24" s="44">
+        <v>1552</v>
+      </c>
+      <c r="K24" s="44">
+        <v>15</v>
+      </c>
+      <c r="L24" s="44">
+        <v>-31</v>
+      </c>
+      <c r="M24" s="44">
+        <v>43</v>
+      </c>
+      <c r="N24" s="44">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="42" t="s">
+        <v>183</v>
+      </c>
+      <c r="B25" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="43">
+        <v>56741</v>
+      </c>
+      <c r="D25" s="43">
+        <v>12448</v>
+      </c>
+      <c r="E25" s="43">
+        <v>15300</v>
+      </c>
+      <c r="F25" s="43">
+        <v>6492</v>
+      </c>
+      <c r="G25" s="43">
+        <v>7609</v>
+      </c>
+      <c r="H25" s="43">
+        <v>2019</v>
+      </c>
+      <c r="I25" s="43">
+        <v>7709</v>
+      </c>
+      <c r="J25" s="43">
+        <v>4473</v>
+      </c>
+      <c r="K25" s="43">
+        <v>-18</v>
+      </c>
+      <c r="L25" s="43">
+        <v>0</v>
+      </c>
+      <c r="M25" s="43">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="N25" s="43">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="B26" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="44">
+        <v>4356.4840000000004</v>
+      </c>
+      <c r="D26" s="44">
+        <v>1175.9290000000001</v>
+      </c>
+      <c r="E26" s="44">
+        <v>878.67700000000002</v>
+      </c>
+      <c r="F26" s="44">
+        <v>505.16399999999999</v>
+      </c>
+      <c r="G26" s="44">
+        <v>356.76100000000002</v>
+      </c>
+      <c r="H26" s="44">
+        <v>204.215</v>
+      </c>
+      <c r="I26" s="44">
+        <v>503.59199999999998</v>
+      </c>
+      <c r="J26" s="44">
+        <v>225.114</v>
+      </c>
+      <c r="K26" s="44">
+        <v>18.324000000000002</v>
+      </c>
+      <c r="L26" s="44">
+        <v>75.834999999999994</v>
+      </c>
+      <c r="M26" s="44">
+        <v>12.057</v>
+      </c>
+      <c r="N26" s="44">
+        <v>6.2270000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="B27" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="43">
+        <v>1907.855</v>
+      </c>
+      <c r="D27" s="43">
+        <v>209.029</v>
+      </c>
+      <c r="E27" s="43">
+        <v>646.14</v>
+      </c>
+      <c r="F27" s="43">
+        <v>55.09</v>
+      </c>
+      <c r="G27" s="43">
+        <v>156.30000000000001</v>
+      </c>
+      <c r="H27" s="43">
+        <v>45.83</v>
+      </c>
+      <c r="I27" s="43">
+        <v>492.09699999999998</v>
+      </c>
+      <c r="J27" s="43">
+        <v>9.3350000000000009</v>
+      </c>
+      <c r="K27" s="43">
+        <v>-2.2650000000000001</v>
+      </c>
+      <c r="L27" s="43">
+        <v>-7.2999999999999995E-2</v>
+      </c>
+      <c r="M27" s="43">
+        <v>8.5920000000000005</v>
+      </c>
+      <c r="N27" s="43">
+        <v>2.2280000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="42" t="s">
+        <v>186</v>
+      </c>
+      <c r="B28" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="44">
+        <v>36741</v>
+      </c>
+      <c r="D28" s="44">
+        <v>15161</v>
+      </c>
+      <c r="E28" s="44">
+        <v>8061</v>
+      </c>
+      <c r="F28" s="44">
+        <v>6833</v>
+      </c>
+      <c r="G28" s="44">
+        <v>3954</v>
+      </c>
+      <c r="H28" s="44">
+        <v>2115</v>
+      </c>
+      <c r="I28" s="44">
+        <v>4057</v>
+      </c>
+      <c r="J28" s="44">
+        <v>4711</v>
+      </c>
+      <c r="K28" s="44">
+        <v>50</v>
+      </c>
+      <c r="L28" s="44">
+        <v>7</v>
+      </c>
+      <c r="M28" s="44">
+        <v>83.8</v>
+      </c>
+      <c r="N28" s="44">
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="42" t="s">
+        <v>187</v>
+      </c>
+      <c r="B29" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="43">
+        <v>23031.416700000002</v>
+      </c>
+      <c r="D29" s="43">
+        <v>80032.204400000002</v>
+      </c>
+      <c r="E29" s="43">
+        <v>7470.1342000000004</v>
+      </c>
+      <c r="F29" s="43">
+        <v>28686.775900000001</v>
+      </c>
+      <c r="G29" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="H29" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="I29" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="J29" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="K29" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="L29" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="M29" s="43">
+        <v>29.100999999999999</v>
+      </c>
+      <c r="N29" s="43">
+        <v>46.713000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="42" t="s">
+        <v>188</v>
+      </c>
+      <c r="B30" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="44">
+        <v>32794</v>
+      </c>
+      <c r="D30" s="44">
+        <v>21282</v>
+      </c>
+      <c r="E30" s="44">
+        <v>12217</v>
+      </c>
+      <c r="F30" s="44">
+        <v>11848</v>
+      </c>
+      <c r="G30" s="44">
+        <v>6748</v>
+      </c>
+      <c r="H30" s="44">
+        <v>4114</v>
+      </c>
+      <c r="I30" s="44">
+        <v>5410</v>
+      </c>
+      <c r="J30" s="44">
+        <v>7721</v>
+      </c>
+      <c r="K30" s="44">
+        <v>59</v>
+      </c>
+      <c r="L30" s="44">
+        <v>13</v>
+      </c>
+      <c r="M30" s="44">
+        <v>96.19</v>
+      </c>
+      <c r="N30" s="44">
+        <v>40.64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="B31" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="43">
+        <v>515221</v>
+      </c>
+      <c r="D31" s="43">
+        <v>266206</v>
+      </c>
+      <c r="E31" s="43">
+        <v>184192</v>
+      </c>
+      <c r="F31" s="43">
+        <v>143569</v>
+      </c>
+      <c r="G31" s="43">
+        <v>54606</v>
+      </c>
+      <c r="H31" s="43">
+        <v>45877</v>
+      </c>
+      <c r="I31" s="43">
+        <v>120465</v>
+      </c>
+      <c r="J31" s="43">
+        <v>94460</v>
+      </c>
+      <c r="K31" s="43">
+        <v>9121</v>
+      </c>
+      <c r="L31" s="43">
+        <v>3232</v>
+      </c>
+      <c r="M31" s="43">
+        <v>534</v>
+      </c>
+      <c r="N31" s="43">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="46" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="47" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="48" t="s">
+        <v>192</v>
+      </c>
+      <c r="B34" s="47" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="48" t="s">
+        <v>194</v>
+      </c>
+      <c r="B35" s="47" t="s">
+        <v>195</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:N3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{260662DE-C458-4FED-BFFD-EF43152A84A4}"/>
+    <hyperlink ref="C4" r:id="rId2" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[VAR].[PROD]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{3A9CDE5F-8E78-4341-9659-C12F6D1EEE8D}"/>
+    <hyperlink ref="E4" r:id="rId3" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[VAR].[VALU]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{C0410866-A07B-4B15-A38C-06C1972E8D66}"/>
+    <hyperlink ref="G4" r:id="rId4" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[VAR].[LABR]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{6A643AFC-753C-4352-A743-E6551A09C2B0}"/>
+    <hyperlink ref="I4" r:id="rId5" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[VAR].[GOPS]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{3BF6C53B-32A8-428D-82DA-237BDC1E3B2B}"/>
+    <hyperlink ref="K4" r:id="rId6" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[VAR].[OTXS]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{F1ADD8BB-7D5B-4FB9-A8F7-587D039E3C57}"/>
+    <hyperlink ref="M4" r:id="rId7" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[VAR].[EMPN]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{AA66CE23-82FA-4271-904B-5527D4547A79}"/>
+    <hyperlink ref="A7" r:id="rId8" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[AUS]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{43997194-3544-4E88-9BBD-03F2CB13EA8C}"/>
+    <hyperlink ref="A8" r:id="rId9" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[AUT]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{48BD7D88-1D75-415F-9AFC-B2A7B383D37A}"/>
+    <hyperlink ref="A9" r:id="rId10" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[BEL]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{8F40D43D-A769-418F-B91A-C8843B4F8467}"/>
+    <hyperlink ref="A10" r:id="rId11" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[CHL]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{C1363B86-33D0-4553-93CA-39580DA672C0}"/>
+    <hyperlink ref="A11" r:id="rId12" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[CZE]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{D6046DFA-EBB9-4200-A655-59033D827DD1}"/>
+    <hyperlink ref="A12" r:id="rId13" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[DNK]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{C02EB043-77B6-4744-BA42-E6B182E58BAF}"/>
+    <hyperlink ref="A13" r:id="rId14" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[EST]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{D5BF66F7-E39E-42BA-9B60-606DE4C0807F}"/>
+    <hyperlink ref="A14" r:id="rId15" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[FIN]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{98084F8F-2024-4E9C-A9B6-EBC147D7407F}"/>
+    <hyperlink ref="A15" r:id="rId16" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[FRA]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{1825F33D-65F4-44D0-8F4C-B69F210F4AB4}"/>
+    <hyperlink ref="A16" r:id="rId17" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[DEU]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{42369195-592E-433B-9451-8450B14DDF3B}"/>
+    <hyperlink ref="A17" r:id="rId18" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[HUN]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{3E7C2A60-0111-4FD0-95A1-304411406DB9}"/>
+    <hyperlink ref="A18" r:id="rId19" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[ITA]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{F9B2F708-BDDD-46C7-9532-A1861AA886E5}"/>
+    <hyperlink ref="A19" r:id="rId20" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[JPN]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{ABC71291-21FF-437C-89FF-F336BDFCE573}"/>
+    <hyperlink ref="A20" r:id="rId21" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[KOR]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{BA3FAE89-3115-4AE8-94A9-F26AA35BE86D}"/>
+    <hyperlink ref="A21" r:id="rId22" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[LVA]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{EA25B13F-DF8B-4A58-9C68-F84CF297E1AC}"/>
+    <hyperlink ref="A23" r:id="rId23" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[MEX]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{88853B92-F58D-4A5C-B391-641A0DD232B2}"/>
+    <hyperlink ref="A24" r:id="rId24" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[NLD]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{4A73D3E1-9B68-481A-BAC6-94DF0D5CB27F}"/>
+    <hyperlink ref="A25" r:id="rId25" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[NOR]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{4EF8D5CB-8BAE-4388-800F-DD30E2F4DE2B}"/>
+    <hyperlink ref="A26" r:id="rId26" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[PRT]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{A97B5DE1-ADCF-46ED-BFAC-220B053DCC41}"/>
+    <hyperlink ref="A27" r:id="rId27" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=%5bLOCATION%5d.%5bSVK%5d&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{CF82ACC0-5732-42DD-832D-5E5BA6E6AD78}"/>
+    <hyperlink ref="A28" r:id="rId28" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[ESP]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{96D899FB-7681-4EEF-8C76-22085B0EE88E}"/>
+    <hyperlink ref="A29" r:id="rId29" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[CHE]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{674FC465-0FA2-46BC-AD6A-8D1D9B30D142}"/>
+    <hyperlink ref="A30" r:id="rId30" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[GBR]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{248B0CC7-863A-4396-A91C-636F7B232469}"/>
+    <hyperlink ref="A31" r:id="rId31" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[USA]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{D8BE861C-9582-4E6F-802E-69D7365E0117}"/>
+    <hyperlink ref="A32" r:id="rId32" display="https://stats-2.oecd.org/index.aspx?DatasetCode=STANI4_2020" xr:uid="{0693C314-2652-4577-B161-48A73ADB5E17}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId33"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AK2"/>
+  <dimension ref="A1:AL2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.140625" customWidth="1"/>
-    <col min="2" max="37" width="10.140625" customWidth="1"/>
+    <col min="2" max="38" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>10</v>
@@ -7594,234 +9829,241 @@
       <c r="J1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="49" t="s">
+        <v>196</v>
+      </c>
+      <c r="L1" s="49" t="s">
+        <v>197</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AI1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AK1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AL1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AK1" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B2">
-        <f>'OECD TTL'!C48*10^6*About!$A$14</f>
+        <f>'OECD TTL'!C48*10^6*About!$A$25</f>
         <v>187808079924.22485</v>
       </c>
       <c r="C2">
-        <f>'OECD TTL'!D48*10^6*About!$A$14</f>
+        <f>'OECD TTL'!D48*10^6*About!$A$25</f>
         <v>217428134408.92426</v>
       </c>
       <c r="D2">
-        <f>'OECD TTL'!E48*10^6*About!$A$14</f>
+        <f>'OECD TTL'!E48*10^6*About!$A$25</f>
         <v>39890016504.301384</v>
       </c>
       <c r="E2">
-        <f>'OECD TTL'!F48*10^6*About!$A$14</f>
+        <f>'OECD TTL'!F48*10^6*About!$A$25</f>
         <v>50276704653.252724</v>
       </c>
       <c r="F2">
-        <f>'OECD TTL'!G48*10^6*About!$A$14</f>
+        <f>'OECD TTL'!G48*10^6*About!$A$25</f>
         <v>240666320965.16284</v>
       </c>
       <c r="G2">
-        <f>'OECD TTL'!H48*10^6*About!$A$14</f>
+        <f>'OECD TTL'!H48*10^6*About!$A$25</f>
         <v>26767287257.032196</v>
       </c>
       <c r="H2">
-        <f>'OECD TTL'!I48*10^6*About!$A$14</f>
+        <f>'OECD TTL'!I48*10^6*About!$A$25</f>
         <v>28192508452.980167</v>
       </c>
       <c r="I2">
-        <f>'OECD TTL'!J48*10^6*About!$A$14</f>
+        <f>'OECD TTL'!J48*10^6*About!$A$25</f>
         <v>93611546561.639038</v>
       </c>
       <c r="J2">
-        <f>'OECD TTL'!K48*10^6*About!$A$14</f>
+        <f>'OECD TTL'!K48*10^6*About!$A$25</f>
         <v>153507743559.32275</v>
       </c>
-      <c r="K2">
-        <f>'OECD TTL'!L48*10^6*About!$A$14</f>
-        <v>364209159400.38055</v>
-      </c>
-      <c r="L2">
-        <f>'OECD TTL'!M48*10^6*About!$A$14</f>
+      <c r="K2" s="50">
+        <f>'OECD TTL'!L48*10^6*About!$A$25*('OECD Chem Pharma Split'!E$31/SUM('OECD Chem Pharma Split'!$E$31:$F$31))</f>
+        <v>204674788911.05069</v>
+      </c>
+      <c r="L2" s="50">
+        <f>'OECD TTL'!L48*10^6*About!$A$25*('OECD Chem Pharma Split'!F$31/SUM('OECD Chem Pharma Split'!$E$31:$F$31))</f>
+        <v>159534370489.32983</v>
+      </c>
+      <c r="M2">
+        <f>'OECD TTL'!M48*10^6*About!$A$25</f>
         <v>77354066881.278564</v>
       </c>
-      <c r="M2">
-        <f>'OECD TTL'!N48*10^6*About!$A$14</f>
+      <c r="N2">
+        <f>'OECD TTL'!N48*10^6*About!$A$25</f>
         <v>49795366780.44191</v>
       </c>
-      <c r="N2">
-        <f>'OECD TTL'!O48*10^6*About!$A$14</f>
+      <c r="O2">
+        <f>'OECD TTL'!O48*10^6*About!$A$25</f>
         <v>53900251807.254333</v>
       </c>
-      <c r="O2">
-        <f>'OECD TTL'!P48*10^6*About!$A$14</f>
+      <c r="P2">
+        <f>'OECD TTL'!P48*10^6*About!$A$25</f>
         <v>142184049726.39093</v>
       </c>
-      <c r="P2">
-        <f>'OECD TTL'!Q48*10^6*About!$A$14</f>
+      <c r="Q2">
+        <f>'OECD TTL'!Q48*10^6*About!$A$25</f>
         <v>269789441803.75247</v>
       </c>
-      <c r="Q2">
-        <f>'OECD TTL'!R48*10^6*About!$A$14</f>
+      <c r="R2">
+        <f>'OECD TTL'!R48*10^6*About!$A$25</f>
         <v>54554596208.71077</v>
       </c>
-      <c r="R2">
-        <f>'OECD TTL'!S48*10^6*About!$A$14</f>
+      <c r="S2">
+        <f>'OECD TTL'!S48*10^6*About!$A$25</f>
         <v>142599614120.50613</v>
       </c>
-      <c r="S2">
-        <f>'OECD TTL'!T48*10^6*About!$A$14</f>
+      <c r="T2">
+        <f>'OECD TTL'!T48*10^6*About!$A$25</f>
         <v>155492087758.26208</v>
       </c>
-      <c r="T2">
-        <f>'OECD TTL'!U48*10^6*About!$A$14</f>
+      <c r="U2">
+        <f>'OECD TTL'!U48*10^6*About!$A$25</f>
         <v>129947470380.60561</v>
       </c>
-      <c r="U2">
-        <f>'OECD TTL'!V48*10^6*About!$A$14</f>
+      <c r="V2">
+        <f>'OECD TTL'!V48*10^6*About!$A$25</f>
         <v>109595276829.93204</v>
       </c>
-      <c r="V2">
-        <f>'OECD TTL'!W48*10^6*About!$A$14</f>
+      <c r="W2">
+        <f>'OECD TTL'!W48*10^6*About!$A$25</f>
         <v>296165769178.58215</v>
       </c>
-      <c r="W2">
-        <f>'OECD TTL'!X48*10^6*About!$A$14</f>
+      <c r="X2">
+        <f>'OECD TTL'!X48*10^6*About!$A$25</f>
         <v>716740765589.81006</v>
       </c>
-      <c r="X2">
-        <f>'OECD TTL'!Y48*10^6*About!$A$14</f>
+      <c r="Y2">
+        <f>'OECD TTL'!Y48*10^6*About!$A$25</f>
         <v>1787046914342.0093</v>
       </c>
-      <c r="Y2">
-        <f>'OECD TTL'!Z48*10^6*About!$A$14</f>
+      <c r="Z2">
+        <f>'OECD TTL'!Z48*10^6*About!$A$25</f>
         <v>559984354644.60352</v>
       </c>
-      <c r="Z2">
-        <f>'OECD TTL'!AA48*10^6*About!$A$14</f>
+      <c r="AA2">
+        <f>'OECD TTL'!AA48*10^6*About!$A$25</f>
         <v>469674946691.58752</v>
       </c>
-      <c r="AA2">
-        <f>'OECD TTL'!AB48*10^6*About!$A$14</f>
+      <c r="AB2">
+        <f>'OECD TTL'!AB48*10^6*About!$A$25</f>
         <v>421477904503.89636</v>
       </c>
-      <c r="AB2">
-        <f>'OECD TTL'!AC48*10^6*About!$A$14</f>
+      <c r="AC2">
+        <f>'OECD TTL'!AC48*10^6*About!$A$25</f>
         <v>272421059028.67728</v>
       </c>
-      <c r="AC2">
-        <f>'OECD TTL'!AD48*10^6*About!$A$14</f>
+      <c r="AD2">
+        <f>'OECD TTL'!AD48*10^6*About!$A$25</f>
         <v>362447611962.85498</v>
       </c>
-      <c r="AD2">
-        <f>'OECD TTL'!AE48*10^6*About!$A$14</f>
+      <c r="AE2">
+        <f>'OECD TTL'!AE48*10^6*About!$A$25</f>
         <v>1288879555382.9473</v>
       </c>
-      <c r="AE2">
-        <f>'OECD TTL'!AF48*10^6*About!$A$14</f>
+      <c r="AF2">
+        <f>'OECD TTL'!AF48*10^6*About!$A$25</f>
         <v>2108227238342.3972</v>
       </c>
-      <c r="AF2">
-        <f>'OECD TTL'!AG48*10^6*About!$A$14</f>
+      <c r="AG2">
+        <f>'OECD TTL'!AG48*10^6*About!$A$25</f>
         <v>1972988054273.7441</v>
       </c>
-      <c r="AG2">
-        <f>'OECD TTL'!AH48*10^6*About!$A$14</f>
+      <c r="AH2">
+        <f>'OECD TTL'!AH48*10^6*About!$A$25</f>
         <v>1502139065517.6633</v>
       </c>
-      <c r="AH2">
-        <f>'OECD TTL'!AI48*10^6*About!$A$14</f>
+      <c r="AI2">
+        <f>'OECD TTL'!AI48*10^6*About!$A$25</f>
         <v>937194286282.41858</v>
       </c>
-      <c r="AI2">
-        <f>'OECD TTL'!AJ48*10^6*About!$A$14</f>
+      <c r="AJ2">
+        <f>'OECD TTL'!AJ48*10^6*About!$A$25</f>
         <v>1243976514878.6797</v>
       </c>
-      <c r="AJ2">
-        <f>'OECD TTL'!AK48*10^6*About!$A$14</f>
+      <c r="AK2">
+        <f>'OECD TTL'!AK48*10^6*About!$A$25</f>
         <v>452986694316.44147</v>
       </c>
-      <c r="AK2">
-        <f>'OECD TTL'!AL48*10^6*About!$A$14</f>
+      <c r="AL2">
+        <f>'OECD TTL'!AL48*10^6*About!$A$25</f>
         <v>20682998307.294415</v>
       </c>
     </row>

--- a/InputData/io-model/BVAbIC/BAU Value Added by ISIC Code.xlsx
+++ b/InputData/io-model/BVAbIC/BAU Value Added by ISIC Code.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\io-model\BVAbIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79EE4CFE-F42C-4066-BFE4-CE08C5409815}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6394094-0D28-4442-B71E-8F0DB803C46B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11280" yWindow="555" windowWidth="31395" windowHeight="22020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="1160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="1162">
   <si>
     <t>Source:</t>
   </si>
@@ -3516,6 +3516,12 @@
   </si>
   <si>
     <t>can be found in the OECD's "STAN Database for Structural Analysis," variable EMPN, at:</t>
+  </si>
+  <si>
+    <t>chemicals</t>
+  </si>
+  <si>
+    <t>pharmaceuticals</t>
   </si>
 </sst>
 </file>
@@ -3921,36 +3927,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="11" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4022,6 +3998,36 @@
     <xf numFmtId="11" fontId="0" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4307,7 +4313,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4403,17 +4409,17 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="66" t="s">
+      <c r="B21" s="56" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="66" t="s">
+      <c r="B22" s="56" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="66" t="s">
+      <c r="B23" s="56" t="s">
         <v>157</v>
       </c>
     </row>
@@ -4522,222 +4528,222 @@
       </c>
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="30" t="s">
+      <c r="B3" s="58"/>
+      <c r="C3" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="31"/>
-      <c r="V3" s="31"/>
-      <c r="W3" s="31"/>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="31"/>
-      <c r="AA3" s="31"/>
-      <c r="AB3" s="31"/>
-      <c r="AC3" s="31"/>
-      <c r="AD3" s="31"/>
-      <c r="AE3" s="31"/>
-      <c r="AF3" s="31"/>
-      <c r="AG3" s="31"/>
-      <c r="AH3" s="31"/>
-      <c r="AI3" s="31"/>
-      <c r="AJ3" s="31"/>
-      <c r="AK3" s="31"/>
-      <c r="AL3" s="31"/>
-      <c r="AM3" s="31"/>
-      <c r="AN3" s="31"/>
-      <c r="AO3" s="31"/>
-      <c r="AP3" s="31"/>
-      <c r="AQ3" s="31"/>
-      <c r="AR3" s="31"/>
-      <c r="AS3" s="31"/>
-      <c r="AT3" s="31"/>
-      <c r="AU3" s="32"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
+      <c r="U3" s="65"/>
+      <c r="V3" s="65"/>
+      <c r="W3" s="65"/>
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="65"/>
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="65"/>
+      <c r="AL3" s="65"/>
+      <c r="AM3" s="65"/>
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="65"/>
+      <c r="AP3" s="65"/>
+      <c r="AQ3" s="65"/>
+      <c r="AR3" s="65"/>
+      <c r="AS3" s="65"/>
+      <c r="AT3" s="65"/>
+      <c r="AU3" s="66"/>
     </row>
     <row r="4" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="25" t="s">
+      <c r="B4" s="58"/>
+      <c r="C4" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
-      <c r="W4" s="26"/>
-      <c r="X4" s="26"/>
-      <c r="Y4" s="26"/>
-      <c r="Z4" s="26"/>
-      <c r="AA4" s="26"/>
-      <c r="AB4" s="26"/>
-      <c r="AC4" s="26"/>
-      <c r="AD4" s="26"/>
-      <c r="AE4" s="26"/>
-      <c r="AF4" s="26"/>
-      <c r="AG4" s="26"/>
-      <c r="AH4" s="26"/>
-      <c r="AI4" s="26"/>
-      <c r="AJ4" s="26"/>
-      <c r="AK4" s="26"/>
-      <c r="AL4" s="26"/>
-      <c r="AM4" s="26"/>
-      <c r="AN4" s="26"/>
-      <c r="AO4" s="26"/>
-      <c r="AP4" s="26"/>
-      <c r="AQ4" s="26"/>
-      <c r="AR4" s="26"/>
-      <c r="AS4" s="26"/>
-      <c r="AT4" s="26"/>
-      <c r="AU4" s="27"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="60"/>
+      <c r="S4" s="60"/>
+      <c r="T4" s="60"/>
+      <c r="U4" s="60"/>
+      <c r="V4" s="60"/>
+      <c r="W4" s="60"/>
+      <c r="X4" s="60"/>
+      <c r="Y4" s="60"/>
+      <c r="Z4" s="60"/>
+      <c r="AA4" s="60"/>
+      <c r="AB4" s="60"/>
+      <c r="AC4" s="60"/>
+      <c r="AD4" s="60"/>
+      <c r="AE4" s="60"/>
+      <c r="AF4" s="60"/>
+      <c r="AG4" s="60"/>
+      <c r="AH4" s="60"/>
+      <c r="AI4" s="60"/>
+      <c r="AJ4" s="60"/>
+      <c r="AK4" s="60"/>
+      <c r="AL4" s="60"/>
+      <c r="AM4" s="60"/>
+      <c r="AN4" s="60"/>
+      <c r="AO4" s="60"/>
+      <c r="AP4" s="60"/>
+      <c r="AQ4" s="60"/>
+      <c r="AR4" s="60"/>
+      <c r="AS4" s="60"/>
+      <c r="AT4" s="60"/>
+      <c r="AU4" s="61"/>
     </row>
     <row r="5" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="25" t="s">
+      <c r="B5" s="58"/>
+      <c r="C5" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
-      <c r="W5" s="26"/>
-      <c r="X5" s="26"/>
-      <c r="Y5" s="26"/>
-      <c r="Z5" s="26"/>
-      <c r="AA5" s="26"/>
-      <c r="AB5" s="26"/>
-      <c r="AC5" s="26"/>
-      <c r="AD5" s="26"/>
-      <c r="AE5" s="26"/>
-      <c r="AF5" s="26"/>
-      <c r="AG5" s="26"/>
-      <c r="AH5" s="26"/>
-      <c r="AI5" s="26"/>
-      <c r="AJ5" s="26"/>
-      <c r="AK5" s="26"/>
-      <c r="AL5" s="26"/>
-      <c r="AM5" s="26"/>
-      <c r="AN5" s="26"/>
-      <c r="AO5" s="26"/>
-      <c r="AP5" s="26"/>
-      <c r="AQ5" s="26"/>
-      <c r="AR5" s="26"/>
-      <c r="AS5" s="26"/>
-      <c r="AT5" s="26"/>
-      <c r="AU5" s="27"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="60"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="60"/>
+      <c r="R5" s="60"/>
+      <c r="S5" s="60"/>
+      <c r="T5" s="60"/>
+      <c r="U5" s="60"/>
+      <c r="V5" s="60"/>
+      <c r="W5" s="60"/>
+      <c r="X5" s="60"/>
+      <c r="Y5" s="60"/>
+      <c r="Z5" s="60"/>
+      <c r="AA5" s="60"/>
+      <c r="AB5" s="60"/>
+      <c r="AC5" s="60"/>
+      <c r="AD5" s="60"/>
+      <c r="AE5" s="60"/>
+      <c r="AF5" s="60"/>
+      <c r="AG5" s="60"/>
+      <c r="AH5" s="60"/>
+      <c r="AI5" s="60"/>
+      <c r="AJ5" s="60"/>
+      <c r="AK5" s="60"/>
+      <c r="AL5" s="60"/>
+      <c r="AM5" s="60"/>
+      <c r="AN5" s="60"/>
+      <c r="AO5" s="60"/>
+      <c r="AP5" s="60"/>
+      <c r="AQ5" s="60"/>
+      <c r="AR5" s="60"/>
+      <c r="AS5" s="60"/>
+      <c r="AT5" s="60"/>
+      <c r="AU5" s="61"/>
     </row>
     <row r="6" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="25" t="s">
+      <c r="B6" s="58"/>
+      <c r="C6" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="26"/>
-      <c r="W6" s="26"/>
-      <c r="X6" s="26"/>
-      <c r="Y6" s="26"/>
-      <c r="Z6" s="26"/>
-      <c r="AA6" s="26"/>
-      <c r="AB6" s="26"/>
-      <c r="AC6" s="26"/>
-      <c r="AD6" s="26"/>
-      <c r="AE6" s="26"/>
-      <c r="AF6" s="26"/>
-      <c r="AG6" s="26"/>
-      <c r="AH6" s="26"/>
-      <c r="AI6" s="26"/>
-      <c r="AJ6" s="26"/>
-      <c r="AK6" s="26"/>
-      <c r="AL6" s="26"/>
-      <c r="AM6" s="26"/>
-      <c r="AN6" s="26"/>
-      <c r="AO6" s="26"/>
-      <c r="AP6" s="26"/>
-      <c r="AQ6" s="26"/>
-      <c r="AR6" s="26"/>
-      <c r="AS6" s="26"/>
-      <c r="AT6" s="26"/>
-      <c r="AU6" s="27"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="60"/>
+      <c r="P6" s="60"/>
+      <c r="Q6" s="60"/>
+      <c r="R6" s="60"/>
+      <c r="S6" s="60"/>
+      <c r="T6" s="60"/>
+      <c r="U6" s="60"/>
+      <c r="V6" s="60"/>
+      <c r="W6" s="60"/>
+      <c r="X6" s="60"/>
+      <c r="Y6" s="60"/>
+      <c r="Z6" s="60"/>
+      <c r="AA6" s="60"/>
+      <c r="AB6" s="60"/>
+      <c r="AC6" s="60"/>
+      <c r="AD6" s="60"/>
+      <c r="AE6" s="60"/>
+      <c r="AF6" s="60"/>
+      <c r="AG6" s="60"/>
+      <c r="AH6" s="60"/>
+      <c r="AI6" s="60"/>
+      <c r="AJ6" s="60"/>
+      <c r="AK6" s="60"/>
+      <c r="AL6" s="60"/>
+      <c r="AM6" s="60"/>
+      <c r="AN6" s="60"/>
+      <c r="AO6" s="60"/>
+      <c r="AP6" s="60"/>
+      <c r="AQ6" s="60"/>
+      <c r="AR6" s="60"/>
+      <c r="AS6" s="60"/>
+      <c r="AT6" s="60"/>
+      <c r="AU6" s="61"/>
     </row>
     <row r="7" spans="1:47" ht="126" x14ac:dyDescent="0.2">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="29"/>
+      <c r="B7" s="63"/>
       <c r="C7" s="8" t="s">
         <v>46</v>
       </c>
@@ -10911,7 +10917,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD066558-DDB4-469E-A78A-47CFC97B3CEE}">
   <dimension ref="A1:S443"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -10944,81 +10950,81 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="23" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="38" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
+    <row r="3" spans="1:19" s="28" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="H3" s="36" t="s">
+      <c r="H3" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="I3" s="37" t="s">
+      <c r="I3" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="J3" s="36" t="s">
+      <c r="J3" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="K3" s="36" t="s">
+      <c r="K3" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="L3" s="37" t="s">
+      <c r="L3" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="M3" s="36" t="s">
+      <c r="M3" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="N3" s="36" t="s">
+      <c r="N3" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="O3" s="37" t="s">
+      <c r="O3" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="P3" s="36" t="s">
+      <c r="P3" s="26" t="s">
         <v>191</v>
       </c>
-      <c r="Q3" s="36" t="s">
+      <c r="Q3" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="R3" s="36" t="s">
+      <c r="R3" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="S3" s="37" t="s">
+      <c r="S3" s="27" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="C4" s="39"/>
+      <c r="C4" s="29"/>
       <c r="D4" s="19" t="s">
         <v>162</v>
       </c>
       <c r="E4" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="F4" s="40">
+      <c r="F4" s="30">
         <v>212</v>
       </c>
       <c r="G4" s="19" t="s">
@@ -11027,7 +11033,7 @@
       <c r="H4" s="19">
         <v>3254</v>
       </c>
-      <c r="I4" s="40">
+      <c r="I4" s="30">
         <v>325</v>
       </c>
       <c r="J4" s="4">
@@ -11036,22 +11042,22 @@
       <c r="K4" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="L4" s="41"/>
-      <c r="O4" s="39"/>
-      <c r="S4" s="39"/>
+      <c r="L4" s="31"/>
+      <c r="O4" s="29"/>
+      <c r="S4" s="29"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="39"/>
+      <c r="C5" s="29"/>
       <c r="D5" s="19" t="s">
         <v>165</v>
       </c>
       <c r="E5" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="30" t="s">
         <v>197</v>
       </c>
       <c r="G5" s="19">
@@ -11060,7 +11066,7 @@
       <c r="H5" s="19">
         <v>21</v>
       </c>
-      <c r="I5" s="40" t="s">
+      <c r="I5" s="30" t="s">
         <v>198</v>
       </c>
       <c r="J5" s="4">
@@ -11069,7 +11075,7 @@
       <c r="K5" s="4">
         <v>239</v>
       </c>
-      <c r="L5" s="41">
+      <c r="L5" s="31">
         <v>23</v>
       </c>
       <c r="M5">
@@ -11078,7 +11084,7 @@
       <c r="N5">
         <v>242</v>
       </c>
-      <c r="O5" s="39">
+      <c r="O5" s="29">
         <v>24</v>
       </c>
       <c r="P5" s="4">
@@ -11090,18 +11096,18 @@
       <c r="R5" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="S5" s="41" t="s">
+      <c r="S5" s="31" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="29" t="s">
         <v>167</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="29" t="s">
         <v>202</v>
       </c>
       <c r="D6">
@@ -11110,7 +11116,7 @@
       <c r="E6">
         <v>185400</v>
       </c>
-      <c r="F6" s="39"/>
+      <c r="F6" s="29"/>
       <c r="G6">
         <f>815300-284200</f>
         <v>531100</v>
@@ -11118,7 +11124,7 @@
       <c r="H6">
         <v>284200</v>
       </c>
-      <c r="I6" s="39"/>
+      <c r="I6" s="29"/>
       <c r="J6">
         <v>93600</v>
       </c>
@@ -11126,7 +11132,7 @@
         <f>404500-93600</f>
         <v>310900</v>
       </c>
-      <c r="L6" s="39"/>
+      <c r="L6" s="29"/>
       <c r="M6">
         <f>83700+59200+66600</f>
         <v>209500</v>
@@ -11135,7 +11141,7 @@
         <f>62100+62700+57600</f>
         <v>182400</v>
       </c>
-      <c r="O6" s="39"/>
+      <c r="O6" s="29"/>
       <c r="P6">
         <v>397500</v>
       </c>
@@ -11145,16 +11151,16 @@
       <c r="R6">
         <v>50300</v>
       </c>
-      <c r="S6" s="39"/>
+      <c r="S6" s="29"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="32" t="s">
         <v>203</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="29" t="s">
         <v>204</v>
       </c>
       <c r="D7" s="20">
@@ -11165,7 +11171,7 @@
         <f>D40*10^6</f>
         <v>268953000000</v>
       </c>
-      <c r="F7" s="39"/>
+      <c r="F7" s="29"/>
       <c r="G7">
         <f>SUM(D278:D284,D289:D296)*10^6</f>
         <v>515925000000</v>
@@ -11174,17 +11180,17 @@
         <f>SUM(D285:D288)*10^6</f>
         <v>269601000000</v>
       </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="43">
+      <c r="I7" s="29"/>
+      <c r="J7" s="33">
         <f>D77*10^6</f>
         <v>25886000000</v>
       </c>
-      <c r="K7" s="43">
+      <c r="K7" s="33">
         <f>SUM(D76,D78:D87)*10^6</f>
         <v>93232000000</v>
       </c>
-      <c r="L7" s="39"/>
-      <c r="M7" s="43">
+      <c r="L7" s="29"/>
+      <c r="M7" s="33">
         <f>SUM(D88:D89,D96)*10^6</f>
         <v>127020000000</v>
       </c>
@@ -11192,61 +11198,61 @@
         <f>SUM(D90:D95,D97)*10^6</f>
         <v>100094000000</v>
       </c>
-      <c r="O7" s="39"/>
-      <c r="P7" s="43">
+      <c r="O7" s="29"/>
+      <c r="P7" s="33">
         <f>SUM(D48:D57)*10^6</f>
         <v>413205000000</v>
       </c>
-      <c r="Q7" s="43">
+      <c r="Q7" s="33">
         <f>D58*10^6</f>
         <v>86048000000</v>
       </c>
-      <c r="R7" s="43">
-        <f>D59*10^6</f>
-        <v>14508000000</v>
-      </c>
-      <c r="S7" s="39"/>
+      <c r="R7" s="33">
+        <f>SUM(D59,D392)*10^6</f>
+        <v>104319000000</v>
+      </c>
+      <c r="S7" s="29"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="32" t="s">
         <v>169</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="29" t="s">
         <v>155</v>
       </c>
       <c r="D8" s="20"/>
       <c r="E8" s="21">
         <v>268953000000</v>
       </c>
-      <c r="F8" s="44">
+      <c r="F8" s="34">
         <v>106189000000</v>
       </c>
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
-      <c r="I8" s="44">
+      <c r="I8" s="34">
         <v>785526000000</v>
       </c>
-      <c r="L8" s="45">
+      <c r="L8" s="35">
         <v>119118000000</v>
       </c>
-      <c r="O8" s="45">
+      <c r="O8" s="35">
         <v>227114000000</v>
       </c>
-      <c r="S8" s="45">
+      <c r="S8" s="35">
         <v>513760000000</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="32" t="s">
         <v>141</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C9" s="39" t="str">
+      <c r="C9" s="29" t="str">
         <f>A9</f>
         <v>Value Added</v>
       </c>
@@ -11258,68 +11264,68 @@
         <f>I33*10^6</f>
         <v>158231000000</v>
       </c>
-      <c r="F9" s="44">
+      <c r="F9" s="34">
         <f>I34*10^6</f>
         <v>49994000000</v>
       </c>
-      <c r="G9" s="46">
+      <c r="G9" s="36">
         <f>$I9*(G$7/$I$8)</f>
         <v>218698327521.9407</v>
       </c>
-      <c r="H9" s="46">
+      <c r="H9" s="36">
         <f>$I9*(H$7/$I$8)</f>
         <v>114282672478.05928</v>
       </c>
-      <c r="I9" s="44">
+      <c r="I9" s="34">
         <f>I58*10^6</f>
         <v>332981000000</v>
       </c>
-      <c r="J9" s="46">
+      <c r="J9" s="36">
         <f>$L9*(J$7/$L$8)</f>
         <v>11878596400.208197</v>
       </c>
-      <c r="K9" s="46">
+      <c r="K9" s="36">
         <f>$L9*(K$7/$L$8)</f>
         <v>42782403599.791801</v>
       </c>
-      <c r="L9" s="45">
+      <c r="L9" s="35">
         <f>I41*10^6</f>
         <v>54661000000</v>
       </c>
-      <c r="M9" s="46">
+      <c r="M9" s="36">
         <f>$O9*(M$7/$O$8)</f>
         <v>33593628398.073215</v>
       </c>
-      <c r="N9" s="46">
+      <c r="N9" s="36">
         <f>$O9*(N$7/$O$8)</f>
         <v>26472371601.926785</v>
       </c>
-      <c r="O9" s="45">
+      <c r="O9" s="35">
         <f>I42*10^6</f>
         <v>60066000000</v>
       </c>
-      <c r="P9" s="46">
+      <c r="P9" s="36">
         <f t="shared" ref="P9:R12" si="0">$S9*(P$7/$S$8)</f>
         <v>240665210526.3158</v>
       </c>
-      <c r="Q9" s="46">
+      <c r="Q9" s="36">
         <f t="shared" si="0"/>
         <v>50117399439.426971</v>
       </c>
-      <c r="R9" s="46">
+      <c r="R9" s="36">
         <f>$S9*(R$7/$S$8)</f>
-        <v>8449972469.6356268</v>
-      </c>
-      <c r="S9" s="45">
+        <v>60759076237.932114</v>
+      </c>
+      <c r="S9" s="35">
         <f>I36*10^6</f>
         <v>299232000000</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="C10" s="39" t="str">
+      <c r="C10" s="29" t="str">
         <f t="shared" ref="C10:C12" si="1">A10</f>
         <v>Compensation of employees</v>
       </c>
@@ -11331,68 +11337,68 @@
         <f>J33*10^6</f>
         <v>38814000000</v>
       </c>
-      <c r="F10" s="44">
+      <c r="F10" s="34">
         <f>J34*10^6</f>
         <v>18055000000</v>
       </c>
-      <c r="G10" s="46">
+      <c r="G10" s="36">
         <f t="shared" ref="G10:H12" si="3">$I10*(G$7/$I$8)</f>
         <v>65995493274.57016</v>
       </c>
-      <c r="H10" s="46">
+      <c r="H10" s="36">
         <f t="shared" si="3"/>
         <v>34486506725.42984</v>
       </c>
-      <c r="I10" s="44">
+      <c r="I10" s="34">
         <f>J58*10^6</f>
         <v>100482000000</v>
       </c>
-      <c r="J10" s="46">
+      <c r="J10" s="36">
         <f t="shared" ref="J10:K12" si="4">$L10*(J$7/$L$8)</f>
         <v>5884861062.1400633</v>
       </c>
-      <c r="K10" s="46">
+      <c r="K10" s="36">
         <f t="shared" si="4"/>
         <v>21195138937.859936</v>
       </c>
-      <c r="L10" s="45">
+      <c r="L10" s="35">
         <f>J41*10^6</f>
         <v>27080000000</v>
       </c>
-      <c r="M10" s="46">
+      <c r="M10" s="36">
         <f t="shared" ref="M10:N12" si="5">$O10*(M$7/$O$8)</f>
         <v>17693337795.116112</v>
       </c>
-      <c r="N10" s="46">
+      <c r="N10" s="36">
         <f t="shared" si="5"/>
         <v>13942662204.883892</v>
       </c>
-      <c r="O10" s="45">
+      <c r="O10" s="35">
         <f>J42*10^6</f>
         <v>31636000000</v>
       </c>
-      <c r="P10" s="46">
+      <c r="P10" s="36">
         <f t="shared" si="0"/>
         <v>62434361842.105263</v>
       </c>
-      <c r="Q10" s="46">
+      <c r="Q10" s="36">
         <f t="shared" si="0"/>
         <v>13001662535.035814</v>
       </c>
-      <c r="R10" s="46">
+      <c r="R10" s="36">
         <f t="shared" si="0"/>
-        <v>2192126720.6477733</v>
-      </c>
-      <c r="S10" s="45">
+        <v>15762370235.129244</v>
+      </c>
+      <c r="S10" s="35">
         <f>J36*10^6</f>
         <v>77628000000</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="37" t="s">
         <v>205</v>
       </c>
-      <c r="C11" s="39" t="str">
+      <c r="C11" s="29" t="str">
         <f t="shared" si="1"/>
         <v>Taxes on production and imports, less subsidies</v>
       </c>
@@ -11404,68 +11410,68 @@
         <f>K33*10^6</f>
         <v>32690000000</v>
       </c>
-      <c r="F11" s="44">
+      <c r="F11" s="34">
         <f>K34*10^6</f>
         <v>4968000000</v>
       </c>
-      <c r="G11" s="46">
+      <c r="G11" s="36">
         <f t="shared" si="3"/>
         <v>10700409789.109463</v>
       </c>
-      <c r="H11" s="46">
+      <c r="H11" s="36">
         <f t="shared" si="3"/>
         <v>5591590210.8905363</v>
       </c>
-      <c r="I11" s="44">
+      <c r="I11" s="34">
         <f>K58*10^6</f>
         <v>16292000000</v>
       </c>
-      <c r="J11" s="46">
+      <c r="J11" s="36">
         <f t="shared" si="4"/>
         <v>314235934.11575079</v>
       </c>
-      <c r="K11" s="46">
+      <c r="K11" s="36">
         <f t="shared" si="4"/>
         <v>1131764065.8842492</v>
       </c>
-      <c r="L11" s="45">
+      <c r="L11" s="35">
         <f>K41*10^6</f>
         <v>1446000000</v>
       </c>
-      <c r="M11" s="46">
+      <c r="M11" s="36">
         <f t="shared" si="5"/>
         <v>1388688764.2329404</v>
       </c>
-      <c r="N11" s="46">
+      <c r="N11" s="36">
         <f t="shared" si="5"/>
         <v>1094311235.7670598</v>
       </c>
-      <c r="O11" s="45">
+      <c r="O11" s="35">
         <f>K42*10^6</f>
         <v>2483000000</v>
       </c>
-      <c r="P11" s="46">
+      <c r="P11" s="36">
         <f t="shared" si="0"/>
         <v>47461149671.052628</v>
       </c>
-      <c r="Q11" s="46">
+      <c r="Q11" s="36">
         <f t="shared" si="0"/>
         <v>9883561445.0326996</v>
       </c>
-      <c r="R11" s="46">
+      <c r="R11" s="36">
         <f t="shared" si="0"/>
-        <v>1666403744.9392712</v>
-      </c>
-      <c r="S11" s="45">
+        <v>11982187225.552788</v>
+      </c>
+      <c r="S11" s="35">
         <f>K36*10^6</f>
         <v>59011000000</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="C12" s="39" t="str">
+      <c r="C12" s="29" t="str">
         <f t="shared" si="1"/>
         <v>Gross operating surplus</v>
       </c>
@@ -11477,59 +11483,59 @@
         <f>L33*10^6</f>
         <v>86727000000</v>
       </c>
-      <c r="F12" s="44">
+      <c r="F12" s="34">
         <f>L34*10^6</f>
         <v>26971000000</v>
       </c>
-      <c r="G12" s="46">
+      <c r="G12" s="36">
         <f t="shared" si="3"/>
         <v>142001767669.05234</v>
       </c>
-      <c r="H12" s="46">
+      <c r="H12" s="36">
         <f t="shared" si="3"/>
         <v>74204232330.947662</v>
       </c>
-      <c r="I12" s="44">
+      <c r="I12" s="34">
         <f>L58*10^6</f>
         <v>216206000000</v>
       </c>
-      <c r="J12" s="46">
+      <c r="J12" s="36">
         <f t="shared" si="4"/>
         <v>5679499403.952384</v>
       </c>
-      <c r="K12" s="46">
+      <c r="K12" s="36">
         <f t="shared" si="4"/>
         <v>20455500596.047615</v>
       </c>
-      <c r="L12" s="45">
+      <c r="L12" s="35">
         <f>L41*10^6</f>
         <v>26135000000</v>
       </c>
-      <c r="M12" s="46">
+      <c r="M12" s="36">
         <f t="shared" si="5"/>
         <v>14511601838.724167</v>
       </c>
-      <c r="N12" s="46">
+      <c r="N12" s="36">
         <f t="shared" si="5"/>
         <v>11435398161.275835</v>
       </c>
-      <c r="O12" s="45">
+      <c r="O12" s="35">
         <f>L42*10^6</f>
         <v>25947000000</v>
       </c>
-      <c r="P12" s="46">
+      <c r="P12" s="36">
         <f t="shared" si="0"/>
         <v>130769699013.1579</v>
       </c>
-      <c r="Q12" s="46">
+      <c r="Q12" s="36">
         <f t="shared" si="0"/>
         <v>27232175459.358456</v>
       </c>
-      <c r="R12" s="46">
+      <c r="R12" s="36">
         <f t="shared" si="0"/>
-        <v>4591442004.048583</v>
-      </c>
-      <c r="S12" s="45">
+        <v>33014518777.25008</v>
+      </c>
+      <c r="S12" s="35">
         <f>L36*10^6</f>
         <v>162593000000</v>
       </c>
@@ -11576,27 +11582,27 @@
       <c r="B26" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="C26" s="48"/>
-      <c r="D26" s="49" t="s">
+      <c r="C26" s="38"/>
+      <c r="D26" s="39" t="s">
         <v>7</v>
       </c>
       <c r="E26" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="G26" s="48" t="s">
+      <c r="G26" s="38" t="s">
         <v>212</v>
       </c>
-      <c r="H26" s="48"/>
-      <c r="I26" s="50" t="s">
+      <c r="H26" s="38"/>
+      <c r="I26" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="J26" s="50" t="s">
+      <c r="J26" s="40" t="s">
         <v>214</v>
       </c>
-      <c r="K26" s="50" t="s">
+      <c r="K26" s="40" t="s">
         <v>205</v>
       </c>
-      <c r="L26" s="51" t="s">
+      <c r="L26" s="41" t="s">
         <v>174</v>
       </c>
     </row>
@@ -11607,7 +11613,7 @@
       <c r="C27" t="s">
         <v>216</v>
       </c>
-      <c r="D27" s="52">
+      <c r="D27" s="42">
         <v>34314</v>
       </c>
       <c r="G27" t="s">
@@ -11616,16 +11622,16 @@
       <c r="H27" t="s">
         <v>217</v>
       </c>
-      <c r="I27" s="52">
+      <c r="I27" s="42">
         <v>18238301</v>
       </c>
-      <c r="J27" s="52">
+      <c r="J27" s="42">
         <v>9709535</v>
       </c>
-      <c r="K27" s="52">
+      <c r="K27" s="42">
         <v>1217959</v>
       </c>
-      <c r="L27" s="52">
+      <c r="L27" s="42">
         <v>7310806</v>
       </c>
     </row>
@@ -11636,7 +11642,7 @@
       <c r="C28" t="s">
         <v>219</v>
       </c>
-      <c r="D28" s="52">
+      <c r="D28" s="42">
         <v>61876</v>
       </c>
       <c r="G28" t="s">
@@ -11645,16 +11651,16 @@
       <c r="H28" t="s">
         <v>220</v>
       </c>
-      <c r="I28" s="52">
+      <c r="I28" s="42">
         <v>15898859</v>
       </c>
-      <c r="J28" s="52">
+      <c r="J28" s="42">
         <v>7863213</v>
       </c>
-      <c r="K28" s="52">
+      <c r="K28" s="42">
         <v>1242490</v>
       </c>
-      <c r="L28" s="52">
+      <c r="L28" s="42">
         <v>6793156</v>
       </c>
       <c r="N28" s="20"/>
@@ -11666,7 +11672,7 @@
       <c r="C29" t="s">
         <v>222</v>
       </c>
-      <c r="D29" s="52">
+      <c r="D29" s="42">
         <v>19404</v>
       </c>
       <c r="G29" t="s">
@@ -11675,16 +11681,16 @@
       <c r="H29" t="s">
         <v>223</v>
       </c>
-      <c r="I29" s="52">
+      <c r="I29" s="42">
         <v>182283</v>
       </c>
-      <c r="J29" s="52">
+      <c r="J29" s="42">
         <v>50616</v>
       </c>
-      <c r="K29" s="52">
+      <c r="K29" s="42">
         <v>2314</v>
       </c>
-      <c r="L29" s="52">
+      <c r="L29" s="42">
         <v>129354</v>
       </c>
       <c r="N29" s="20"/>
@@ -11696,7 +11702,7 @@
       <c r="C30" t="s">
         <v>225</v>
       </c>
-      <c r="D30" s="52">
+      <c r="D30" s="42">
         <v>28308</v>
       </c>
       <c r="G30" t="s">
@@ -11705,16 +11711,16 @@
       <c r="H30" t="s">
         <v>226</v>
       </c>
-      <c r="I30" s="52">
+      <c r="I30" s="42">
         <v>147384</v>
       </c>
-      <c r="J30" s="52">
+      <c r="J30" s="42">
         <v>27205</v>
       </c>
-      <c r="K30" s="52">
+      <c r="K30" s="42">
         <v>789</v>
       </c>
-      <c r="L30" s="52">
+      <c r="L30" s="42">
         <v>119390</v>
       </c>
       <c r="N30" s="20"/>
@@ -11726,7 +11732,7 @@
       <c r="C31" t="s">
         <v>228</v>
       </c>
-      <c r="D31" s="52">
+      <c r="D31" s="42">
         <v>22098</v>
       </c>
       <c r="G31" t="s">
@@ -11735,16 +11741,16 @@
       <c r="H31" t="s">
         <v>229</v>
       </c>
-      <c r="I31" s="52">
+      <c r="I31" s="42">
         <v>34899</v>
       </c>
-      <c r="J31" s="52">
+      <c r="J31" s="42">
         <v>23410</v>
       </c>
-      <c r="K31" s="52">
+      <c r="K31" s="42">
         <v>1525</v>
       </c>
-      <c r="L31" s="52">
+      <c r="L31" s="42">
         <v>9964</v>
       </c>
     </row>
@@ -11755,7 +11761,7 @@
       <c r="C32" t="s">
         <v>231</v>
       </c>
-      <c r="D32" s="52">
+      <c r="D32" s="42">
         <v>22767</v>
       </c>
       <c r="G32" t="s">
@@ -11764,16 +11770,16 @@
       <c r="H32" t="s">
         <v>232</v>
       </c>
-      <c r="I32" s="52">
+      <c r="I32" s="42">
         <v>261774</v>
       </c>
-      <c r="J32" s="52">
+      <c r="J32" s="42">
         <v>91867</v>
       </c>
-      <c r="K32" s="52">
+      <c r="K32" s="42">
         <v>40072</v>
       </c>
-      <c r="L32" s="52">
+      <c r="L32" s="42">
         <v>129835</v>
       </c>
     </row>
@@ -11784,25 +11790,25 @@
       <c r="C33" t="s">
         <v>234</v>
       </c>
-      <c r="D33" s="52">
+      <c r="D33" s="42">
         <v>36867</v>
       </c>
       <c r="G33" t="s">
         <v>233</v>
       </c>
-      <c r="H33" s="53" t="s">
+      <c r="H33" s="43" t="s">
         <v>235</v>
       </c>
-      <c r="I33" s="52">
+      <c r="I33" s="42">
         <v>158231</v>
       </c>
-      <c r="J33" s="52">
+      <c r="J33" s="42">
         <v>38814</v>
       </c>
-      <c r="K33" s="52">
+      <c r="K33" s="42">
         <v>32690</v>
       </c>
-      <c r="L33" s="52">
+      <c r="L33" s="42">
         <v>86727</v>
       </c>
     </row>
@@ -11813,25 +11819,25 @@
       <c r="C34" t="s">
         <v>237</v>
       </c>
-      <c r="D34" s="52">
+      <c r="D34" s="42">
         <v>93695</v>
       </c>
       <c r="G34" t="s">
         <v>236</v>
       </c>
-      <c r="H34" s="53" t="s">
+      <c r="H34" s="43" t="s">
         <v>238</v>
       </c>
-      <c r="I34" s="52">
+      <c r="I34" s="42">
         <v>49994</v>
       </c>
-      <c r="J34" s="52">
+      <c r="J34" s="42">
         <v>18055</v>
       </c>
-      <c r="K34" s="52">
+      <c r="K34" s="42">
         <v>4968</v>
       </c>
-      <c r="L34" s="52">
+      <c r="L34" s="42">
         <v>26971</v>
       </c>
     </row>
@@ -11842,7 +11848,7 @@
       <c r="C35" t="s">
         <v>240</v>
       </c>
-      <c r="D35" s="52">
+      <c r="D35" s="42">
         <v>50423</v>
       </c>
       <c r="G35" t="s">
@@ -11851,16 +11857,16 @@
       <c r="H35" t="s">
         <v>241</v>
       </c>
-      <c r="I35" s="52">
+      <c r="I35" s="42">
         <v>53550</v>
       </c>
-      <c r="J35" s="52">
+      <c r="J35" s="42">
         <v>34998</v>
       </c>
-      <c r="K35" s="52">
+      <c r="K35" s="42">
         <v>2415</v>
       </c>
-      <c r="L35" s="52">
+      <c r="L35" s="42">
         <v>16137</v>
       </c>
     </row>
@@ -11871,25 +11877,25 @@
       <c r="C36" t="s">
         <v>243</v>
       </c>
-      <c r="D36" s="52">
+      <c r="D36" s="42">
         <v>36649</v>
       </c>
       <c r="G36" t="s">
         <v>242</v>
       </c>
-      <c r="H36" s="53" t="s">
+      <c r="H36" s="43" t="s">
         <v>244</v>
       </c>
-      <c r="I36" s="52">
+      <c r="I36" s="42">
         <v>299232</v>
       </c>
-      <c r="J36" s="52">
+      <c r="J36" s="42">
         <v>77628</v>
       </c>
-      <c r="K36" s="52">
+      <c r="K36" s="42">
         <v>59011</v>
       </c>
-      <c r="L36" s="52">
+      <c r="L36" s="42">
         <v>162593</v>
       </c>
     </row>
@@ -11900,7 +11906,7 @@
       <c r="C37" t="s">
         <v>246</v>
       </c>
-      <c r="D37" s="52">
+      <c r="D37" s="42">
         <v>21437</v>
       </c>
       <c r="G37" t="s">
@@ -11909,16 +11915,16 @@
       <c r="H37" t="s">
         <v>247</v>
       </c>
-      <c r="I37" s="52">
+      <c r="I37" s="42">
         <v>694943</v>
       </c>
-      <c r="J37" s="52">
+      <c r="J37" s="42">
         <v>458477</v>
       </c>
-      <c r="K37" s="52">
+      <c r="K37" s="42">
         <v>8976</v>
       </c>
-      <c r="L37" s="52">
+      <c r="L37" s="42">
         <v>227490</v>
       </c>
     </row>
@@ -11929,7 +11935,7 @@
       <c r="C38" t="s">
         <v>249</v>
       </c>
-      <c r="D38" s="52">
+      <c r="D38" s="42">
         <v>8667</v>
       </c>
       <c r="G38" t="s">
@@ -11938,16 +11944,16 @@
       <c r="H38" t="s">
         <v>250</v>
       </c>
-      <c r="I38" s="52">
+      <c r="I38" s="42">
         <v>2129592</v>
       </c>
-      <c r="J38" s="52">
+      <c r="J38" s="42">
         <v>1006425</v>
       </c>
-      <c r="K38" s="52">
+      <c r="K38" s="42">
         <v>85526</v>
       </c>
-      <c r="L38" s="52">
+      <c r="L38" s="42">
         <v>1037641</v>
       </c>
     </row>
@@ -11958,7 +11964,7 @@
       <c r="C39" t="s">
         <v>252</v>
       </c>
-      <c r="D39" s="52">
+      <c r="D39" s="42">
         <v>23422</v>
       </c>
       <c r="G39" t="s">
@@ -11967,16 +11973,16 @@
       <c r="H39" t="s">
         <v>253</v>
       </c>
-      <c r="I39" s="52">
+      <c r="I39" s="42">
         <v>1183755</v>
       </c>
-      <c r="J39" s="52">
+      <c r="J39" s="42">
         <v>662696</v>
       </c>
-      <c r="K39" s="52">
+      <c r="K39" s="42">
         <v>30260</v>
       </c>
-      <c r="L39" s="52">
+      <c r="L39" s="42">
         <v>490800</v>
       </c>
     </row>
@@ -11984,10 +11990,10 @@
       <c r="B40" t="s">
         <v>254</v>
       </c>
-      <c r="C40" s="54" t="s">
+      <c r="C40" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="D40" s="52">
+      <c r="D40" s="42">
         <v>268953</v>
       </c>
       <c r="E40" t="s">
@@ -11999,16 +12005,16 @@
       <c r="H40" t="s">
         <v>256</v>
       </c>
-      <c r="I40" s="52">
+      <c r="I40" s="42">
         <v>32485</v>
       </c>
-      <c r="J40" s="52">
+      <c r="J40" s="42">
         <v>20428</v>
       </c>
-      <c r="K40" s="52">
+      <c r="K40" s="42">
         <v>704</v>
       </c>
-      <c r="L40" s="52">
+      <c r="L40" s="42">
         <v>11353</v>
       </c>
     </row>
@@ -12016,10 +12022,10 @@
       <c r="B41" t="s">
         <v>257</v>
       </c>
-      <c r="C41" s="55" t="s">
+      <c r="C41" s="45" t="s">
         <v>258</v>
       </c>
-      <c r="D41" s="52">
+      <c r="D41" s="42">
         <v>40135</v>
       </c>
       <c r="E41" t="s">
@@ -12028,19 +12034,19 @@
       <c r="G41" t="s">
         <v>257</v>
       </c>
-      <c r="H41" s="53" t="s">
+      <c r="H41" s="43" t="s">
         <v>260</v>
       </c>
-      <c r="I41" s="52">
+      <c r="I41" s="42">
         <v>54661</v>
       </c>
-      <c r="J41" s="52">
+      <c r="J41" s="42">
         <v>27080</v>
       </c>
-      <c r="K41" s="52">
+      <c r="K41" s="42">
         <v>1446</v>
       </c>
-      <c r="L41" s="52">
+      <c r="L41" s="42">
         <v>26135</v>
       </c>
     </row>
@@ -12051,25 +12057,25 @@
       <c r="C42" t="s">
         <v>262</v>
       </c>
-      <c r="D42" s="52">
+      <c r="D42" s="42">
         <v>11643</v>
       </c>
       <c r="G42" t="s">
         <v>261</v>
       </c>
-      <c r="H42" s="53" t="s">
+      <c r="H42" s="43" t="s">
         <v>263</v>
       </c>
-      <c r="I42" s="52">
+      <c r="I42" s="42">
         <v>60066</v>
       </c>
-      <c r="J42" s="52">
+      <c r="J42" s="42">
         <v>31636</v>
       </c>
-      <c r="K42" s="52">
+      <c r="K42" s="42">
         <v>2483</v>
       </c>
-      <c r="L42" s="52">
+      <c r="L42" s="42">
         <v>25947</v>
       </c>
     </row>
@@ -12080,7 +12086,7 @@
       <c r="C43" t="s">
         <v>265</v>
       </c>
-      <c r="D43" s="52">
+      <c r="D43" s="42">
         <v>14089</v>
       </c>
       <c r="G43" t="s">
@@ -12089,16 +12095,16 @@
       <c r="H43" t="s">
         <v>266</v>
       </c>
-      <c r="I43" s="52">
+      <c r="I43" s="42">
         <v>147361</v>
       </c>
-      <c r="J43" s="52">
+      <c r="J43" s="42">
         <v>97092</v>
       </c>
-      <c r="K43" s="52">
+      <c r="K43" s="42">
         <v>3374</v>
       </c>
-      <c r="L43" s="52">
+      <c r="L43" s="42">
         <v>46896</v>
       </c>
     </row>
@@ -12109,7 +12115,7 @@
       <c r="C44" t="s">
         <v>268</v>
       </c>
-      <c r="D44" s="52">
+      <c r="D44" s="42">
         <v>19415</v>
       </c>
       <c r="G44" t="s">
@@ -12118,16 +12124,16 @@
       <c r="H44" t="s">
         <v>269</v>
       </c>
-      <c r="I44" s="52">
+      <c r="I44" s="42">
         <v>152472</v>
       </c>
-      <c r="J44" s="52">
+      <c r="J44" s="42">
         <v>94664</v>
       </c>
-      <c r="K44" s="52">
+      <c r="K44" s="42">
         <v>3548</v>
       </c>
-      <c r="L44" s="52">
+      <c r="L44" s="42">
         <v>54260</v>
       </c>
     </row>
@@ -12138,7 +12144,7 @@
       <c r="C45" t="s">
         <v>271</v>
       </c>
-      <c r="D45" s="52">
+      <c r="D45" s="42">
         <v>20908</v>
       </c>
       <c r="G45" t="s">
@@ -12147,16 +12153,16 @@
       <c r="H45" t="s">
         <v>272</v>
       </c>
-      <c r="I45" s="52">
+      <c r="I45" s="42">
         <v>267323</v>
       </c>
-      <c r="J45" s="52">
+      <c r="J45" s="42">
         <v>137529</v>
       </c>
-      <c r="K45" s="52">
+      <c r="K45" s="42">
         <v>8570</v>
       </c>
-      <c r="L45" s="52">
+      <c r="L45" s="42">
         <v>121224</v>
       </c>
     </row>
@@ -12167,7 +12173,7 @@
       <c r="C46" t="s">
         <v>274</v>
       </c>
-      <c r="D46" s="52">
+      <c r="D46" s="42">
         <v>32318</v>
       </c>
       <c r="G46" t="s">
@@ -12176,16 +12182,16 @@
       <c r="H46" t="s">
         <v>275</v>
       </c>
-      <c r="I46" s="52">
+      <c r="I46" s="42">
         <v>63631</v>
       </c>
-      <c r="J46" s="52">
+      <c r="J46" s="42">
         <v>34671</v>
       </c>
-      <c r="K46" s="52">
+      <c r="K46" s="42">
         <v>879</v>
       </c>
-      <c r="L46" s="52">
+      <c r="L46" s="42">
         <v>28080</v>
       </c>
     </row>
@@ -12196,7 +12202,7 @@
       <c r="C47" t="s">
         <v>277</v>
       </c>
-      <c r="D47" s="52">
+      <c r="D47" s="42">
         <v>88512</v>
       </c>
       <c r="G47" t="s">
@@ -12205,16 +12211,16 @@
       <c r="H47" t="s">
         <v>278</v>
       </c>
-      <c r="I47" s="52">
+      <c r="I47" s="42">
         <v>146240</v>
       </c>
-      <c r="J47" s="52">
+      <c r="J47" s="42">
         <v>69905</v>
       </c>
-      <c r="K47" s="52">
+      <c r="K47" s="42">
         <v>3414</v>
       </c>
-      <c r="L47" s="52">
+      <c r="L47" s="42">
         <v>72921</v>
       </c>
     </row>
@@ -12222,10 +12228,10 @@
       <c r="B48" t="s">
         <v>279</v>
       </c>
-      <c r="C48" s="56" t="s">
+      <c r="C48" s="46" t="s">
         <v>280</v>
       </c>
-      <c r="D48" s="52">
+      <c r="D48" s="42">
         <v>3124</v>
       </c>
       <c r="E48" t="s">
@@ -12237,16 +12243,16 @@
       <c r="H48" t="s">
         <v>282</v>
       </c>
-      <c r="I48" s="52">
+      <c r="I48" s="42">
         <v>149076</v>
       </c>
-      <c r="J48" s="52">
+      <c r="J48" s="42">
         <v>77790</v>
       </c>
-      <c r="K48" s="52">
+      <c r="K48" s="42">
         <v>2485</v>
       </c>
-      <c r="L48" s="52">
+      <c r="L48" s="42">
         <v>68800</v>
       </c>
     </row>
@@ -12254,10 +12260,10 @@
       <c r="B49" t="s">
         <v>283</v>
       </c>
-      <c r="C49" s="56" t="s">
+      <c r="C49" s="46" t="s">
         <v>284</v>
       </c>
-      <c r="D49" s="52">
+      <c r="D49" s="42">
         <v>103566</v>
       </c>
       <c r="E49" t="s">
@@ -12269,16 +12275,16 @@
       <c r="H49" t="s">
         <v>285</v>
       </c>
-      <c r="I49" s="52">
+      <c r="I49" s="42">
         <v>29141</v>
       </c>
-      <c r="J49" s="52">
+      <c r="J49" s="42">
         <v>20277</v>
       </c>
-      <c r="K49" s="52">
+      <c r="K49" s="42">
         <v>387</v>
       </c>
-      <c r="L49" s="52">
+      <c r="L49" s="42">
         <v>8477</v>
       </c>
     </row>
@@ -12286,10 +12292,10 @@
       <c r="B50" t="s">
         <v>286</v>
       </c>
-      <c r="C50" s="56" t="s">
+      <c r="C50" s="46" t="s">
         <v>287</v>
       </c>
-      <c r="D50" s="52">
+      <c r="D50" s="42">
         <v>36820</v>
       </c>
       <c r="E50" t="s">
@@ -12301,16 +12307,16 @@
       <c r="H50" t="s">
         <v>288</v>
       </c>
-      <c r="I50" s="52">
+      <c r="I50" s="42">
         <v>81299</v>
       </c>
-      <c r="J50" s="52">
+      <c r="J50" s="42">
         <v>51622</v>
       </c>
-      <c r="K50" s="52">
+      <c r="K50" s="42">
         <v>2969</v>
       </c>
-      <c r="L50" s="52">
+      <c r="L50" s="42">
         <v>26708</v>
       </c>
     </row>
@@ -12318,10 +12324,10 @@
       <c r="B51" t="s">
         <v>289</v>
       </c>
-      <c r="C51" s="56" t="s">
+      <c r="C51" s="46" t="s">
         <v>290</v>
       </c>
-      <c r="D51" s="52">
+      <c r="D51" s="42">
         <v>749</v>
       </c>
       <c r="E51" t="s">
@@ -12333,16 +12339,16 @@
       <c r="H51" t="s">
         <v>291</v>
       </c>
-      <c r="I51" s="52">
+      <c r="I51" s="42">
         <v>945837</v>
       </c>
-      <c r="J51" s="52">
+      <c r="J51" s="42">
         <v>343730</v>
       </c>
-      <c r="K51" s="52">
+      <c r="K51" s="42">
         <v>55266</v>
       </c>
-      <c r="L51" s="52">
+      <c r="L51" s="42">
         <v>546841</v>
       </c>
     </row>
@@ -12350,10 +12356,10 @@
       <c r="B52" t="s">
         <v>292</v>
       </c>
-      <c r="C52" s="56" t="s">
+      <c r="C52" s="46" t="s">
         <v>293</v>
       </c>
-      <c r="D52" s="52">
+      <c r="D52" s="42">
         <v>6621</v>
       </c>
       <c r="E52" t="s">
@@ -12365,16 +12371,16 @@
       <c r="H52" t="s">
         <v>294</v>
       </c>
-      <c r="I52" s="52">
+      <c r="I52" s="42">
         <v>261724</v>
       </c>
-      <c r="J52" s="52">
+      <c r="J52" s="42">
         <v>103480</v>
       </c>
-      <c r="K52" s="52">
+      <c r="K52" s="42">
         <v>30122</v>
       </c>
-      <c r="L52" s="52">
+      <c r="L52" s="42">
         <v>128122</v>
       </c>
     </row>
@@ -12382,10 +12388,10 @@
       <c r="B53" t="s">
         <v>295</v>
       </c>
-      <c r="C53" s="56" t="s">
+      <c r="C53" s="46" t="s">
         <v>296</v>
       </c>
-      <c r="D53" s="52">
+      <c r="D53" s="42">
         <v>1416</v>
       </c>
       <c r="E53" t="s">
@@ -12397,16 +12403,16 @@
       <c r="H53" t="s">
         <v>297</v>
       </c>
-      <c r="I53" s="52">
+      <c r="I53" s="42">
         <v>17936</v>
       </c>
-      <c r="J53" s="52">
+      <c r="J53" s="42">
         <v>12017</v>
       </c>
-      <c r="K53" s="52">
+      <c r="K53" s="42">
         <v>571</v>
       </c>
-      <c r="L53" s="52">
+      <c r="L53" s="42">
         <v>5348</v>
       </c>
     </row>
@@ -12414,10 +12420,10 @@
       <c r="B54" t="s">
         <v>298</v>
       </c>
-      <c r="C54" s="56" t="s">
+      <c r="C54" s="46" t="s">
         <v>299</v>
       </c>
-      <c r="D54" s="52">
+      <c r="D54" s="42">
         <v>1101</v>
       </c>
       <c r="E54" t="s">
@@ -12429,16 +12435,16 @@
       <c r="H54" t="s">
         <v>300</v>
       </c>
-      <c r="I54" s="52">
+      <c r="I54" s="42">
         <v>9694</v>
       </c>
-      <c r="J54" s="52">
+      <c r="J54" s="42">
         <v>8174</v>
       </c>
-      <c r="K54" s="52">
+      <c r="K54" s="42">
         <v>290</v>
       </c>
-      <c r="L54" s="52">
+      <c r="L54" s="42">
         <v>1230</v>
       </c>
     </row>
@@ -12446,10 +12452,10 @@
       <c r="B55" t="s">
         <v>301</v>
       </c>
-      <c r="C55" s="56" t="s">
+      <c r="C55" s="46" t="s">
         <v>302</v>
       </c>
-      <c r="D55" s="52">
+      <c r="D55" s="42">
         <v>228</v>
       </c>
       <c r="E55" t="s">
@@ -12461,16 +12467,16 @@
       <c r="H55" t="s">
         <v>303</v>
       </c>
-      <c r="I55" s="52">
+      <c r="I55" s="42">
         <v>59668</v>
       </c>
-      <c r="J55" s="52">
+      <c r="J55" s="42">
         <v>30172</v>
       </c>
-      <c r="K55" s="52">
+      <c r="K55" s="42">
         <v>1736</v>
       </c>
-      <c r="L55" s="52">
+      <c r="L55" s="42">
         <v>27760</v>
       </c>
     </row>
@@ -12478,10 +12484,10 @@
       <c r="B56" t="s">
         <v>304</v>
       </c>
-      <c r="C56" s="56" t="s">
+      <c r="C56" s="46" t="s">
         <v>305</v>
       </c>
-      <c r="D56" s="52">
+      <c r="D56" s="42">
         <v>12770</v>
       </c>
       <c r="E56" t="s">
@@ -12493,16 +12499,16 @@
       <c r="H56" t="s">
         <v>306</v>
       </c>
-      <c r="I56" s="52">
+      <c r="I56" s="42">
         <v>40211</v>
       </c>
-      <c r="J56" s="52">
+      <c r="J56" s="42">
         <v>26028</v>
       </c>
-      <c r="K56" s="52">
+      <c r="K56" s="42">
         <v>762</v>
       </c>
-      <c r="L56" s="52">
+      <c r="L56" s="42">
         <v>13421</v>
       </c>
     </row>
@@ -12510,10 +12516,10 @@
       <c r="B57" t="s">
         <v>307</v>
       </c>
-      <c r="C57" s="56" t="s">
+      <c r="C57" s="46" t="s">
         <v>308</v>
       </c>
-      <c r="D57" s="52">
+      <c r="D57" s="42">
         <v>246810</v>
       </c>
       <c r="E57" t="s">
@@ -12525,16 +12531,16 @@
       <c r="H57" t="s">
         <v>309</v>
       </c>
-      <c r="I57" s="52">
+      <c r="I57" s="42">
         <v>145371</v>
       </c>
-      <c r="J57" s="52">
+      <c r="J57" s="42">
         <v>19815</v>
       </c>
-      <c r="K57" s="52">
+      <c r="K57" s="42">
         <v>3677</v>
       </c>
-      <c r="L57" s="52">
+      <c r="L57" s="42">
         <v>121879</v>
       </c>
     </row>
@@ -12542,10 +12548,10 @@
       <c r="B58" t="s">
         <v>310</v>
       </c>
-      <c r="C58" s="57" t="s">
+      <c r="C58" s="47" t="s">
         <v>311</v>
       </c>
-      <c r="D58" s="52">
+      <c r="D58" s="42">
         <v>86048</v>
       </c>
       <c r="E58" t="s">
@@ -12554,19 +12560,19 @@
       <c r="G58" t="s">
         <v>310</v>
       </c>
-      <c r="H58" s="53" t="s">
+      <c r="H58" s="43" t="s">
         <v>313</v>
       </c>
-      <c r="I58" s="52">
+      <c r="I58" s="42">
         <v>332981</v>
       </c>
-      <c r="J58" s="52">
+      <c r="J58" s="42">
         <v>100482</v>
       </c>
-      <c r="K58" s="52">
+      <c r="K58" s="42">
         <v>16292</v>
       </c>
-      <c r="L58" s="52">
+      <c r="L58" s="42">
         <v>216206</v>
       </c>
     </row>
@@ -12577,7 +12583,7 @@
       <c r="C59" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="D59" s="52">
+      <c r="D59" s="42">
         <v>14508</v>
       </c>
       <c r="E59" t="s">
@@ -12589,16 +12595,16 @@
       <c r="H59" t="s">
         <v>317</v>
       </c>
-      <c r="I59" s="52">
+      <c r="I59" s="42">
         <v>78252</v>
       </c>
-      <c r="J59" s="52">
+      <c r="J59" s="42">
         <v>43560</v>
       </c>
-      <c r="K59" s="52">
+      <c r="K59" s="42">
         <v>1817</v>
       </c>
-      <c r="L59" s="52">
+      <c r="L59" s="42">
         <v>32875</v>
       </c>
     </row>
@@ -12609,7 +12615,7 @@
       <c r="C60" t="s">
         <v>319</v>
       </c>
-      <c r="D60" s="52">
+      <c r="D60" s="42">
         <v>40117</v>
       </c>
       <c r="G60" t="s">
@@ -12618,16 +12624,16 @@
       <c r="H60" t="s">
         <v>320</v>
       </c>
-      <c r="I60" s="52">
+      <c r="I60" s="42">
         <v>1142867</v>
       </c>
-      <c r="J60" s="52">
+      <c r="J60" s="42">
         <v>509809</v>
       </c>
-      <c r="K60" s="52">
+      <c r="K60" s="42">
         <v>210383</v>
       </c>
-      <c r="L60" s="52">
+      <c r="L60" s="42">
         <v>422674</v>
       </c>
     </row>
@@ -12638,7 +12644,7 @@
       <c r="C61" t="s">
         <v>322</v>
       </c>
-      <c r="D61" s="52">
+      <c r="D61" s="42">
         <v>88209</v>
       </c>
       <c r="G61" t="s">
@@ -12647,16 +12653,16 @@
       <c r="H61" t="s">
         <v>323</v>
       </c>
-      <c r="I61" s="52">
+      <c r="I61" s="42">
         <v>1020079</v>
       </c>
-      <c r="J61" s="52">
+      <c r="J61" s="42">
         <v>573627</v>
       </c>
-      <c r="K61" s="52">
+      <c r="K61" s="42">
         <v>216863</v>
       </c>
-      <c r="L61" s="52">
+      <c r="L61" s="42">
         <v>229589</v>
       </c>
     </row>
@@ -12667,7 +12673,7 @@
       <c r="C62" t="s">
         <v>325</v>
       </c>
-      <c r="D62" s="52">
+      <c r="D62" s="42">
         <v>191101</v>
       </c>
       <c r="G62" t="s">
@@ -12676,16 +12682,16 @@
       <c r="H62" t="s">
         <v>326</v>
       </c>
-      <c r="I62" s="52">
+      <c r="I62" s="42">
         <v>565836</v>
       </c>
-      <c r="J62" s="52">
+      <c r="J62" s="42">
         <v>320031</v>
       </c>
-      <c r="K62" s="52">
+      <c r="K62" s="42">
         <v>34977</v>
       </c>
-      <c r="L62" s="52">
+      <c r="L62" s="42">
         <v>210828</v>
       </c>
     </row>
@@ -12696,7 +12702,7 @@
       <c r="C63" t="s">
         <v>328</v>
       </c>
-      <c r="D63" s="52">
+      <c r="D63" s="42">
         <v>76959</v>
       </c>
       <c r="G63" t="s">
@@ -12705,16 +12711,16 @@
       <c r="H63" t="s">
         <v>329</v>
       </c>
-      <c r="I63" s="52">
+      <c r="I63" s="42">
         <v>117693</v>
       </c>
-      <c r="J63" s="52">
+      <c r="J63" s="42">
         <v>48445</v>
       </c>
-      <c r="K63" s="52">
+      <c r="K63" s="42">
         <v>22055</v>
       </c>
-      <c r="L63" s="52">
+      <c r="L63" s="42">
         <v>47193</v>
       </c>
     </row>
@@ -12725,7 +12731,7 @@
       <c r="C64" t="s">
         <v>331</v>
       </c>
-      <c r="D64" s="52">
+      <c r="D64" s="42">
         <v>112928</v>
       </c>
       <c r="G64" t="s">
@@ -12734,16 +12740,16 @@
       <c r="H64" t="s">
         <v>332</v>
       </c>
-      <c r="I64" s="52">
+      <c r="I64" s="42">
         <v>44301</v>
       </c>
-      <c r="J64" s="52">
+      <c r="J64" s="42">
         <v>24226</v>
       </c>
-      <c r="K64" s="52">
+      <c r="K64" s="42">
         <v>208</v>
       </c>
-      <c r="L64" s="52">
+      <c r="L64" s="42">
         <v>19867</v>
       </c>
     </row>
@@ -12754,7 +12760,7 @@
       <c r="C65" t="s">
         <v>334</v>
       </c>
-      <c r="D65" s="52">
+      <c r="D65" s="42">
         <v>55962</v>
       </c>
       <c r="G65" t="s">
@@ -12763,16 +12769,16 @@
       <c r="H65" t="s">
         <v>335</v>
       </c>
-      <c r="I65" s="52">
+      <c r="I65" s="42">
         <v>15792</v>
       </c>
-      <c r="J65" s="52">
+      <c r="J65" s="42">
         <v>7322</v>
       </c>
-      <c r="K65" s="52">
+      <c r="K65" s="42">
         <v>867</v>
       </c>
-      <c r="L65" s="52">
+      <c r="L65" s="42">
         <v>7603</v>
       </c>
     </row>
@@ -12783,7 +12789,7 @@
       <c r="C66" t="s">
         <v>337</v>
       </c>
-      <c r="D66" s="52">
+      <c r="D66" s="42">
         <v>212844</v>
       </c>
       <c r="G66" t="s">
@@ -12792,16 +12798,16 @@
       <c r="H66" t="s">
         <v>338</v>
       </c>
-      <c r="I66" s="52">
+      <c r="I66" s="42">
         <v>149029</v>
       </c>
-      <c r="J66" s="52">
+      <c r="J66" s="42">
         <v>92014</v>
       </c>
-      <c r="K66" s="52">
+      <c r="K66" s="42">
         <v>4144</v>
       </c>
-      <c r="L66" s="52">
+      <c r="L66" s="42">
         <v>52871</v>
       </c>
     </row>
@@ -12812,7 +12818,7 @@
       <c r="C67" t="s">
         <v>340</v>
       </c>
-      <c r="D67" s="52">
+      <c r="D67" s="42">
         <v>69028</v>
       </c>
       <c r="G67" t="s">
@@ -12821,16 +12827,16 @@
       <c r="H67" t="s">
         <v>341</v>
       </c>
-      <c r="I67" s="52">
+      <c r="I67" s="42">
         <v>42197</v>
       </c>
-      <c r="J67" s="52">
+      <c r="J67" s="42">
         <v>19815</v>
       </c>
-      <c r="K67" s="52">
+      <c r="K67" s="42">
         <v>1708</v>
       </c>
-      <c r="L67" s="52">
+      <c r="L67" s="42">
         <v>20673</v>
       </c>
     </row>
@@ -12841,7 +12847,7 @@
       <c r="C68" t="s">
         <v>343</v>
       </c>
-      <c r="D68" s="52">
+      <c r="D68" s="42">
         <v>105415</v>
       </c>
       <c r="G68" t="s">
@@ -12850,16 +12856,16 @@
       <c r="H68" t="s">
         <v>344</v>
       </c>
-      <c r="I68" s="52">
+      <c r="I68" s="42">
         <v>36810</v>
       </c>
-      <c r="J68" s="52">
+      <c r="J68" s="42">
         <v>7146</v>
       </c>
-      <c r="K68" s="52">
+      <c r="K68" s="42">
         <v>2951</v>
       </c>
-      <c r="L68" s="52">
+      <c r="L68" s="42">
         <v>26712</v>
       </c>
     </row>
@@ -12870,7 +12876,7 @@
       <c r="C69" t="s">
         <v>346</v>
       </c>
-      <c r="D69" s="52">
+      <c r="D69" s="42">
         <v>111108</v>
       </c>
       <c r="G69" t="s">
@@ -12879,16 +12885,16 @@
       <c r="H69" t="s">
         <v>347</v>
       </c>
-      <c r="I69" s="52">
+      <c r="I69" s="42">
         <v>108074</v>
       </c>
-      <c r="J69" s="52">
+      <c r="J69" s="42">
         <v>77801</v>
       </c>
-      <c r="K69" s="52">
+      <c r="K69" s="42">
         <v>2263</v>
       </c>
-      <c r="L69" s="52">
+      <c r="L69" s="42">
         <v>28010</v>
       </c>
     </row>
@@ -12899,7 +12905,7 @@
       <c r="C70" t="s">
         <v>349</v>
       </c>
-      <c r="D70" s="52">
+      <c r="D70" s="42">
         <v>209093</v>
       </c>
       <c r="G70" t="s">
@@ -12908,16 +12914,16 @@
       <c r="H70" t="s">
         <v>350</v>
       </c>
-      <c r="I70" s="52">
+      <c r="I70" s="42">
         <v>51940</v>
       </c>
-      <c r="J70" s="52">
+      <c r="J70" s="42">
         <v>43261</v>
       </c>
-      <c r="K70" s="52">
+      <c r="K70" s="42">
         <v>781</v>
       </c>
-      <c r="L70" s="52">
+      <c r="L70" s="42">
         <v>7898</v>
       </c>
     </row>
@@ -12928,7 +12934,7 @@
       <c r="C71" t="s">
         <v>352</v>
       </c>
-      <c r="D71" s="52">
+      <c r="D71" s="42">
         <v>113347</v>
       </c>
       <c r="G71" t="s">
@@ -12937,16 +12943,16 @@
       <c r="H71" t="s">
         <v>353</v>
       </c>
-      <c r="I71" s="52">
+      <c r="I71" s="42">
         <v>906938</v>
       </c>
-      <c r="J71" s="52">
+      <c r="J71" s="42">
         <v>318675</v>
       </c>
-      <c r="K71" s="52">
+      <c r="K71" s="42">
         <v>55293</v>
       </c>
-      <c r="L71" s="52">
+      <c r="L71" s="42">
         <v>532970</v>
       </c>
     </row>
@@ -12957,7 +12963,7 @@
       <c r="C72" t="s">
         <v>355</v>
       </c>
-      <c r="D72" s="52">
+      <c r="D72" s="42">
         <v>29072</v>
       </c>
       <c r="G72" t="s">
@@ -12966,16 +12972,16 @@
       <c r="H72" t="s">
         <v>356</v>
       </c>
-      <c r="I72" s="52">
+      <c r="I72" s="42">
         <v>223597</v>
       </c>
-      <c r="J72" s="52">
+      <c r="J72" s="42">
         <v>114787</v>
       </c>
-      <c r="K72" s="52">
+      <c r="K72" s="42">
         <v>5467</v>
       </c>
-      <c r="L72" s="52">
+      <c r="L72" s="42">
         <v>103343</v>
       </c>
     </row>
@@ -12986,7 +12992,7 @@
       <c r="C73" t="s">
         <v>358</v>
       </c>
-      <c r="D73" s="52">
+      <c r="D73" s="42">
         <v>20986</v>
       </c>
       <c r="G73" t="s">
@@ -12995,16 +13001,16 @@
       <c r="H73" t="s">
         <v>359</v>
       </c>
-      <c r="I73" s="52">
+      <c r="I73" s="42">
         <v>87592</v>
       </c>
-      <c r="J73" s="52">
+      <c r="J73" s="42">
         <v>34244</v>
       </c>
-      <c r="K73" s="52">
+      <c r="K73" s="42">
         <v>6467</v>
       </c>
-      <c r="L73" s="52">
+      <c r="L73" s="42">
         <v>46882</v>
       </c>
     </row>
@@ -13015,7 +13021,7 @@
       <c r="C74" t="s">
         <v>361</v>
       </c>
-      <c r="D74" s="52">
+      <c r="D74" s="42">
         <v>25586</v>
       </c>
       <c r="G74" t="s">
@@ -13024,16 +13030,16 @@
       <c r="H74" t="s">
         <v>362</v>
       </c>
-      <c r="I74" s="52">
+      <c r="I74" s="42">
         <v>426113</v>
       </c>
-      <c r="J74" s="52">
+      <c r="J74" s="42">
         <v>112649</v>
       </c>
-      <c r="K74" s="52">
+      <c r="K74" s="42">
         <v>39472</v>
       </c>
-      <c r="L74" s="52">
+      <c r="L74" s="42">
         <v>273993</v>
       </c>
     </row>
@@ -13044,7 +13050,7 @@
       <c r="C75" t="s">
         <v>364</v>
       </c>
-      <c r="D75" s="52">
+      <c r="D75" s="42">
         <v>25364</v>
       </c>
       <c r="G75" t="s">
@@ -13053,16 +13059,16 @@
       <c r="H75" t="s">
         <v>365</v>
       </c>
-      <c r="I75" s="52">
+      <c r="I75" s="42">
         <v>169636</v>
       </c>
-      <c r="J75" s="52">
+      <c r="J75" s="42">
         <v>56995</v>
       </c>
-      <c r="K75" s="52">
+      <c r="K75" s="42">
         <v>3888</v>
       </c>
-      <c r="L75" s="52">
+      <c r="L75" s="42">
         <v>108752</v>
       </c>
     </row>
@@ -13070,10 +13076,10 @@
       <c r="B76" t="s">
         <v>366</v>
       </c>
-      <c r="C76" s="58" t="s">
+      <c r="C76" s="48" t="s">
         <v>367</v>
       </c>
-      <c r="D76" s="52">
+      <c r="D76" s="42">
         <v>8343</v>
       </c>
       <c r="E76" t="s">
@@ -13085,16 +13091,16 @@
       <c r="H76" t="s">
         <v>369</v>
       </c>
-      <c r="I76" s="52">
+      <c r="I76" s="42">
         <v>3749038</v>
       </c>
-      <c r="J76" s="52">
+      <c r="J76" s="42">
         <v>852412</v>
       </c>
-      <c r="K76" s="52">
+      <c r="K76" s="42">
         <v>319509</v>
       </c>
-      <c r="L76" s="52">
+      <c r="L76" s="42">
         <v>2577118</v>
       </c>
     </row>
@@ -13102,10 +13108,10 @@
       <c r="B77" t="s">
         <v>370</v>
       </c>
-      <c r="C77" s="55" t="s">
+      <c r="C77" s="45" t="s">
         <v>371</v>
       </c>
-      <c r="D77" s="52">
+      <c r="D77" s="42">
         <v>25886</v>
       </c>
       <c r="E77" t="s">
@@ -13117,16 +13123,16 @@
       <c r="H77" t="s">
         <v>373</v>
       </c>
-      <c r="I77" s="52">
+      <c r="I77" s="42">
         <v>1363092</v>
       </c>
-      <c r="J77" s="52">
+      <c r="J77" s="42">
         <v>715705</v>
       </c>
-      <c r="K77" s="52">
+      <c r="K77" s="42">
         <v>63497</v>
       </c>
-      <c r="L77" s="52">
+      <c r="L77" s="42">
         <v>583890</v>
       </c>
     </row>
@@ -13134,10 +13140,10 @@
       <c r="B78" t="s">
         <v>374</v>
       </c>
-      <c r="C78" s="58" t="s">
+      <c r="C78" s="48" t="s">
         <v>375</v>
       </c>
-      <c r="D78" s="52">
+      <c r="D78" s="42">
         <v>8215</v>
       </c>
       <c r="E78" t="s">
@@ -13149,16 +13155,16 @@
       <c r="H78" t="s">
         <v>376</v>
       </c>
-      <c r="I78" s="52">
+      <c r="I78" s="42">
         <v>560763</v>
       </c>
-      <c r="J78" s="52">
+      <c r="J78" s="42">
         <v>236473</v>
       </c>
-      <c r="K78" s="52">
+      <c r="K78" s="42">
         <v>17390</v>
       </c>
-      <c r="L78" s="52">
+      <c r="L78" s="42">
         <v>306900</v>
       </c>
     </row>
@@ -13166,10 +13172,10 @@
       <c r="B79" t="s">
         <v>377</v>
       </c>
-      <c r="C79" s="58" t="s">
+      <c r="C79" s="48" t="s">
         <v>378</v>
       </c>
-      <c r="D79" s="52">
+      <c r="D79" s="42">
         <v>27726</v>
       </c>
       <c r="E79" t="s">
@@ -13181,16 +13187,16 @@
       <c r="H79" t="s">
         <v>379</v>
       </c>
-      <c r="I79" s="52">
+      <c r="I79" s="42">
         <v>230878</v>
       </c>
-      <c r="J79" s="52">
+      <c r="J79" s="42">
         <v>227418</v>
       </c>
-      <c r="K79" s="52">
+      <c r="K79" s="42">
         <v>5065</v>
       </c>
-      <c r="L79" s="52">
+      <c r="L79" s="42">
         <v>-1604</v>
       </c>
     </row>
@@ -13198,10 +13204,10 @@
       <c r="B80" t="s">
         <v>380</v>
       </c>
-      <c r="C80" s="58" t="s">
+      <c r="C80" s="48" t="s">
         <v>381</v>
       </c>
-      <c r="D80" s="52">
+      <c r="D80" s="42">
         <v>6454</v>
       </c>
       <c r="E80" t="s">
@@ -13213,16 +13219,16 @@
       <c r="H80" t="s">
         <v>382</v>
       </c>
-      <c r="I80" s="52">
+      <c r="I80" s="42">
         <v>554081</v>
       </c>
-      <c r="J80" s="52">
+      <c r="J80" s="42">
         <v>250693</v>
       </c>
-      <c r="K80" s="52">
+      <c r="K80" s="42">
         <v>40312</v>
       </c>
-      <c r="L80" s="52">
+      <c r="L80" s="42">
         <v>263076</v>
       </c>
     </row>
@@ -13230,10 +13236,10 @@
       <c r="B81" t="s">
         <v>383</v>
       </c>
-      <c r="C81" s="58" t="s">
+      <c r="C81" s="48" t="s">
         <v>384</v>
       </c>
-      <c r="D81" s="52">
+      <c r="D81" s="42">
         <v>11048</v>
       </c>
       <c r="E81" t="s">
@@ -13245,16 +13251,16 @@
       <c r="H81" t="s">
         <v>385</v>
       </c>
-      <c r="I81" s="52">
+      <c r="I81" s="42">
         <v>17371</v>
       </c>
-      <c r="J81" s="52">
+      <c r="J81" s="42">
         <v>1121</v>
       </c>
-      <c r="K81" s="52">
+      <c r="K81" s="42">
         <v>731</v>
       </c>
-      <c r="L81" s="52">
+      <c r="L81" s="42">
         <v>15519</v>
       </c>
     </row>
@@ -13262,10 +13268,10 @@
       <c r="B82" t="s">
         <v>386</v>
       </c>
-      <c r="C82" s="58" t="s">
+      <c r="C82" s="48" t="s">
         <v>387</v>
       </c>
-      <c r="D82" s="52">
+      <c r="D82" s="42">
         <v>7478</v>
       </c>
       <c r="E82" t="s">
@@ -13277,16 +13283,16 @@
       <c r="H82" t="s">
         <v>388</v>
       </c>
-      <c r="I82" s="52">
+      <c r="I82" s="42">
         <v>2385946</v>
       </c>
-      <c r="J82" s="52">
+      <c r="J82" s="42">
         <v>136707</v>
       </c>
-      <c r="K82" s="52">
+      <c r="K82" s="42">
         <v>256012</v>
       </c>
-      <c r="L82" s="52">
+      <c r="L82" s="42">
         <v>1993228</v>
       </c>
     </row>
@@ -13294,10 +13300,10 @@
       <c r="B83" t="s">
         <v>389</v>
       </c>
-      <c r="C83" s="58" t="s">
+      <c r="C83" s="48" t="s">
         <v>390</v>
       </c>
-      <c r="D83" s="52">
+      <c r="D83" s="42">
         <v>5424</v>
       </c>
       <c r="E83" t="s">
@@ -13309,16 +13315,16 @@
       <c r="H83" t="s">
         <v>391</v>
       </c>
-      <c r="I83" s="52">
+      <c r="I83" s="42">
         <v>2180002</v>
       </c>
-      <c r="J83" s="52">
+      <c r="J83" s="42">
         <v>102208</v>
       </c>
-      <c r="K83" s="52">
+      <c r="K83" s="42">
         <v>237200</v>
       </c>
-      <c r="L83" s="52">
+      <c r="L83" s="42">
         <v>1840595</v>
       </c>
     </row>
@@ -13326,10 +13332,10 @@
       <c r="B84" t="s">
         <v>392</v>
       </c>
-      <c r="C84" s="58" t="s">
+      <c r="C84" s="48" t="s">
         <v>393</v>
       </c>
-      <c r="D84" s="52">
+      <c r="D84" s="42">
         <v>4452</v>
       </c>
       <c r="E84" t="s">
@@ -13341,16 +13347,16 @@
       <c r="H84" t="s">
         <v>394</v>
       </c>
-      <c r="I84" s="52">
+      <c r="I84" s="42">
         <v>205944</v>
       </c>
-      <c r="J84" s="52">
+      <c r="J84" s="42">
         <v>34499</v>
       </c>
-      <c r="K84" s="52">
+      <c r="K84" s="42">
         <v>18812</v>
       </c>
-      <c r="L84" s="52">
+      <c r="L84" s="42">
         <v>152633</v>
       </c>
     </row>
@@ -13358,10 +13364,10 @@
       <c r="B85" t="s">
         <v>395</v>
       </c>
-      <c r="C85" s="58" t="s">
+      <c r="C85" s="48" t="s">
         <v>396</v>
       </c>
-      <c r="D85" s="52">
+      <c r="D85" s="42">
         <v>3903</v>
       </c>
       <c r="E85" t="s">
@@ -13373,16 +13379,16 @@
       <c r="H85" t="s">
         <v>397</v>
       </c>
-      <c r="I85" s="52">
+      <c r="I85" s="42">
         <v>2236932</v>
       </c>
-      <c r="J85" s="52">
+      <c r="J85" s="42">
         <v>1609923</v>
       </c>
-      <c r="K85" s="52">
+      <c r="K85" s="42">
         <v>55918</v>
       </c>
-      <c r="L85" s="52">
+      <c r="L85" s="42">
         <v>571091</v>
       </c>
     </row>
@@ -13390,10 +13396,10 @@
       <c r="B86" t="s">
         <v>398</v>
       </c>
-      <c r="C86" s="58" t="s">
+      <c r="C86" s="48" t="s">
         <v>399</v>
       </c>
-      <c r="D86" s="52">
+      <c r="D86" s="42">
         <v>5966</v>
       </c>
       <c r="E86" t="s">
@@ -13405,16 +13411,16 @@
       <c r="H86" t="s">
         <v>400</v>
       </c>
-      <c r="I86" s="52">
+      <c r="I86" s="42">
         <v>1348595</v>
       </c>
-      <c r="J86" s="52">
+      <c r="J86" s="42">
         <v>909431</v>
       </c>
-      <c r="K86" s="52">
+      <c r="K86" s="42">
         <v>35128</v>
       </c>
-      <c r="L86" s="52">
+      <c r="L86" s="42">
         <v>404035</v>
       </c>
     </row>
@@ -13422,10 +13428,10 @@
       <c r="B87" t="s">
         <v>401</v>
       </c>
-      <c r="C87" s="58" t="s">
+      <c r="C87" s="48" t="s">
         <v>402</v>
       </c>
-      <c r="D87" s="52">
+      <c r="D87" s="42">
         <v>4223</v>
       </c>
       <c r="E87" t="s">
@@ -13437,16 +13443,16 @@
       <c r="H87" t="s">
         <v>403</v>
       </c>
-      <c r="I87" s="52">
+      <c r="I87" s="42">
         <v>238595</v>
       </c>
-      <c r="J87" s="52">
+      <c r="J87" s="42">
         <v>122863</v>
       </c>
-      <c r="K87" s="52">
+      <c r="K87" s="42">
         <v>15945</v>
       </c>
-      <c r="L87" s="52">
+      <c r="L87" s="42">
         <v>99788</v>
       </c>
     </row>
@@ -13454,10 +13460,10 @@
       <c r="B88" t="s">
         <v>404</v>
       </c>
-      <c r="C88" s="53" t="s">
+      <c r="C88" s="43" t="s">
         <v>405</v>
       </c>
-      <c r="D88" s="52">
+      <c r="D88" s="42">
         <v>88262</v>
       </c>
       <c r="E88" t="s">
@@ -13469,16 +13475,16 @@
       <c r="H88" t="s">
         <v>407</v>
       </c>
-      <c r="I88" s="52">
+      <c r="I88" s="42">
         <v>284785</v>
       </c>
-      <c r="J88" s="52">
+      <c r="J88" s="42">
         <v>234630</v>
       </c>
-      <c r="K88" s="52">
+      <c r="K88" s="42">
         <v>5942</v>
       </c>
-      <c r="L88" s="52">
+      <c r="L88" s="42">
         <v>44213</v>
       </c>
     </row>
@@ -13486,10 +13492,10 @@
       <c r="B89" t="s">
         <v>408</v>
       </c>
-      <c r="C89" s="53" t="s">
+      <c r="C89" s="43" t="s">
         <v>409</v>
       </c>
-      <c r="D89" s="52">
+      <c r="D89" s="42">
         <v>20810</v>
       </c>
       <c r="E89" t="s">
@@ -13501,16 +13507,16 @@
       <c r="H89" t="s">
         <v>410</v>
       </c>
-      <c r="I89" s="52">
+      <c r="I89" s="42">
         <v>825215</v>
       </c>
-      <c r="J89" s="52">
+      <c r="J89" s="42">
         <v>551939</v>
       </c>
-      <c r="K89" s="52">
+      <c r="K89" s="42">
         <v>13242</v>
       </c>
-      <c r="L89" s="52">
+      <c r="L89" s="42">
         <v>260034</v>
       </c>
     </row>
@@ -13521,7 +13527,7 @@
       <c r="C90" s="18" t="s">
         <v>412</v>
       </c>
-      <c r="D90" s="52">
+      <c r="D90" s="42">
         <v>6183</v>
       </c>
       <c r="E90" t="s">
@@ -13533,16 +13539,16 @@
       <c r="H90" t="s">
         <v>414</v>
       </c>
-      <c r="I90" s="52">
+      <c r="I90" s="42">
         <v>347961</v>
       </c>
-      <c r="J90" s="52">
+      <c r="J90" s="42">
         <v>302345</v>
       </c>
-      <c r="K90" s="52">
+      <c r="K90" s="42">
         <v>8494</v>
       </c>
-      <c r="L90" s="52">
+      <c r="L90" s="42">
         <v>37122</v>
       </c>
     </row>
@@ -13553,7 +13559,7 @@
       <c r="C91" s="18" t="s">
         <v>416</v>
       </c>
-      <c r="D91" s="52">
+      <c r="D91" s="42">
         <v>5743</v>
       </c>
       <c r="E91" t="s">
@@ -13565,16 +13571,16 @@
       <c r="H91" t="s">
         <v>417</v>
       </c>
-      <c r="I91" s="52">
+      <c r="I91" s="42">
         <v>540376</v>
       </c>
-      <c r="J91" s="52">
+      <c r="J91" s="42">
         <v>398148</v>
       </c>
-      <c r="K91" s="52">
+      <c r="K91" s="42">
         <v>12295</v>
       </c>
-      <c r="L91" s="52">
+      <c r="L91" s="42">
         <v>129933</v>
       </c>
     </row>
@@ -13585,7 +13591,7 @@
       <c r="C92" s="18" t="s">
         <v>419</v>
       </c>
-      <c r="D92" s="52">
+      <c r="D92" s="42">
         <v>25691</v>
       </c>
       <c r="E92" t="s">
@@ -13597,16 +13603,16 @@
       <c r="H92" t="s">
         <v>420</v>
       </c>
-      <c r="I92" s="52">
+      <c r="I92" s="42">
         <v>492465</v>
       </c>
-      <c r="J92" s="52">
+      <c r="J92" s="42">
         <v>371539</v>
       </c>
-      <c r="K92" s="52">
+      <c r="K92" s="42">
         <v>8972</v>
       </c>
-      <c r="L92" s="52">
+      <c r="L92" s="42">
         <v>111954</v>
       </c>
     </row>
@@ -13617,7 +13623,7 @@
       <c r="C93" s="18" t="s">
         <v>422</v>
       </c>
-      <c r="D93" s="52">
+      <c r="D93" s="42">
         <v>10560</v>
       </c>
       <c r="E93" t="s">
@@ -13629,16 +13635,16 @@
       <c r="H93" t="s">
         <v>423</v>
       </c>
-      <c r="I93" s="52">
+      <c r="I93" s="42">
         <v>47911</v>
       </c>
-      <c r="J93" s="52">
+      <c r="J93" s="42">
         <v>26608</v>
       </c>
-      <c r="K93" s="52">
+      <c r="K93" s="42">
         <v>3323</v>
       </c>
-      <c r="L93" s="52">
+      <c r="L93" s="42">
         <v>17979</v>
       </c>
     </row>
@@ -13649,7 +13655,7 @@
       <c r="C94" s="18" t="s">
         <v>425</v>
       </c>
-      <c r="D94" s="52">
+      <c r="D94" s="42">
         <v>19585</v>
       </c>
       <c r="E94" t="s">
@@ -13661,16 +13667,16 @@
       <c r="H94" t="s">
         <v>426</v>
       </c>
-      <c r="I94" s="52">
+      <c r="I94" s="42">
         <v>1571003</v>
       </c>
-      <c r="J94" s="52">
+      <c r="J94" s="42">
         <v>1265582</v>
       </c>
-      <c r="K94" s="52">
+      <c r="K94" s="42">
         <v>35545</v>
       </c>
-      <c r="L94" s="52">
+      <c r="L94" s="42">
         <v>269876</v>
       </c>
     </row>
@@ -13681,7 +13687,7 @@
       <c r="C95" s="18" t="s">
         <v>428</v>
       </c>
-      <c r="D95" s="52">
+      <c r="D95" s="42">
         <v>18298</v>
       </c>
       <c r="E95" t="s">
@@ -13693,16 +13699,16 @@
       <c r="H95" t="s">
         <v>429</v>
       </c>
-      <c r="I95" s="52">
+      <c r="I95" s="42">
         <v>233438</v>
       </c>
-      <c r="J95" s="52">
+      <c r="J95" s="42">
         <v>180447</v>
       </c>
-      <c r="K95" s="52">
+      <c r="K95" s="42">
         <v>8387</v>
       </c>
-      <c r="L95" s="52">
+      <c r="L95" s="42">
         <v>44604</v>
       </c>
     </row>
@@ -13710,10 +13716,10 @@
       <c r="B96" t="s">
         <v>430</v>
       </c>
-      <c r="C96" s="53" t="s">
+      <c r="C96" s="43" t="s">
         <v>431</v>
       </c>
-      <c r="D96" s="52">
+      <c r="D96" s="42">
         <v>17948</v>
       </c>
       <c r="E96" t="s">
@@ -13725,16 +13731,16 @@
       <c r="H96" t="s">
         <v>432</v>
       </c>
-      <c r="I96" s="52">
+      <c r="I96" s="42">
         <v>1337565</v>
       </c>
-      <c r="J96" s="52">
+      <c r="J96" s="42">
         <v>1085134</v>
       </c>
-      <c r="K96" s="52">
+      <c r="K96" s="42">
         <v>27158</v>
       </c>
-      <c r="L96" s="52">
+      <c r="L96" s="42">
         <v>225272</v>
       </c>
     </row>
@@ -13745,7 +13751,7 @@
       <c r="C97" s="18" t="s">
         <v>434</v>
       </c>
-      <c r="D97" s="52">
+      <c r="D97" s="42">
         <v>14034</v>
       </c>
       <c r="E97" t="s">
@@ -13757,16 +13763,16 @@
       <c r="H97" t="s">
         <v>435</v>
       </c>
-      <c r="I97" s="52">
+      <c r="I97" s="42">
         <v>644175</v>
       </c>
-      <c r="J97" s="52">
+      <c r="J97" s="42">
         <v>494895</v>
       </c>
-      <c r="K97" s="52">
+      <c r="K97" s="42">
         <v>8566</v>
       </c>
-      <c r="L97" s="52">
+      <c r="L97" s="42">
         <v>140714</v>
       </c>
     </row>
@@ -13777,7 +13783,7 @@
       <c r="C98" t="s">
         <v>437</v>
       </c>
-      <c r="D98" s="52">
+      <c r="D98" s="42">
         <v>7884</v>
       </c>
       <c r="G98" t="s">
@@ -13786,16 +13792,16 @@
       <c r="H98" t="s">
         <v>438</v>
       </c>
-      <c r="I98" s="52">
+      <c r="I98" s="42">
         <v>581331</v>
       </c>
-      <c r="J98" s="52">
+      <c r="J98" s="42">
         <v>489855</v>
       </c>
-      <c r="K98" s="52">
+      <c r="K98" s="42">
         <v>16768</v>
       </c>
-      <c r="L98" s="52">
+      <c r="L98" s="42">
         <v>74709</v>
       </c>
     </row>
@@ -13806,7 +13812,7 @@
       <c r="C99" t="s">
         <v>440</v>
       </c>
-      <c r="D99" s="52">
+      <c r="D99" s="42">
         <v>13425</v>
       </c>
       <c r="G99" t="s">
@@ -13815,16 +13821,16 @@
       <c r="H99" t="s">
         <v>441</v>
       </c>
-      <c r="I99" s="52">
+      <c r="I99" s="42">
         <v>112058</v>
       </c>
-      <c r="J99" s="52">
+      <c r="J99" s="42">
         <v>100385</v>
       </c>
-      <c r="K99" s="52">
+      <c r="K99" s="42">
         <v>1824</v>
       </c>
-      <c r="L99" s="52">
+      <c r="L99" s="42">
         <v>9849</v>
       </c>
     </row>
@@ -13835,7 +13841,7 @@
       <c r="C100" t="s">
         <v>443</v>
       </c>
-      <c r="D100" s="52">
+      <c r="D100" s="42">
         <v>11837</v>
       </c>
       <c r="G100" t="s">
@@ -13844,16 +13850,16 @@
       <c r="H100" t="s">
         <v>444</v>
       </c>
-      <c r="I100" s="52">
+      <c r="I100" s="42">
         <v>746773</v>
       </c>
-      <c r="J100" s="52">
+      <c r="J100" s="42">
         <v>441746</v>
       </c>
-      <c r="K100" s="52">
+      <c r="K100" s="42">
         <v>96713</v>
       </c>
-      <c r="L100" s="52">
+      <c r="L100" s="42">
         <v>208314</v>
       </c>
     </row>
@@ -13864,7 +13870,7 @@
       <c r="C101" t="s">
         <v>446</v>
       </c>
-      <c r="D101" s="52">
+      <c r="D101" s="42">
         <v>10007</v>
       </c>
       <c r="G101" t="s">
@@ -13873,16 +13879,16 @@
       <c r="H101" t="s">
         <v>447</v>
       </c>
-      <c r="I101" s="52">
+      <c r="I101" s="42">
         <v>193468</v>
       </c>
-      <c r="J101" s="52">
+      <c r="J101" s="42">
         <v>100888</v>
       </c>
-      <c r="K101" s="52">
+      <c r="K101" s="42">
         <v>19506</v>
       </c>
-      <c r="L101" s="52">
+      <c r="L101" s="42">
         <v>73075</v>
       </c>
     </row>
@@ -13893,7 +13899,7 @@
       <c r="C102" t="s">
         <v>449</v>
       </c>
-      <c r="D102" s="52">
+      <c r="D102" s="42">
         <v>45291</v>
       </c>
       <c r="G102" t="s">
@@ -13902,16 +13908,16 @@
       <c r="H102" t="s">
         <v>450</v>
       </c>
-      <c r="I102" s="52">
+      <c r="I102" s="42">
         <v>112849</v>
       </c>
-      <c r="J102" s="52">
+      <c r="J102" s="42">
         <v>52218</v>
       </c>
-      <c r="K102" s="52">
+      <c r="K102" s="42">
         <v>8029</v>
       </c>
-      <c r="L102" s="52">
+      <c r="L102" s="42">
         <v>52602</v>
       </c>
     </row>
@@ -13922,7 +13928,7 @@
       <c r="C103" t="s">
         <v>452</v>
       </c>
-      <c r="D103" s="52">
+      <c r="D103" s="42">
         <v>40189</v>
       </c>
       <c r="G103" t="s">
@@ -13931,16 +13937,16 @@
       <c r="H103" t="s">
         <v>453</v>
       </c>
-      <c r="I103" s="52">
+      <c r="I103" s="42">
         <v>80619</v>
       </c>
-      <c r="J103" s="52">
+      <c r="J103" s="42">
         <v>48669</v>
       </c>
-      <c r="K103" s="52">
+      <c r="K103" s="42">
         <v>11476</v>
       </c>
-      <c r="L103" s="52">
+      <c r="L103" s="42">
         <v>20473</v>
       </c>
     </row>
@@ -13951,7 +13957,7 @@
       <c r="C104" t="s">
         <v>455</v>
       </c>
-      <c r="D104" s="52">
+      <c r="D104" s="42">
         <v>7536</v>
       </c>
       <c r="G104" t="s">
@@ -13960,16 +13966,16 @@
       <c r="H104" t="s">
         <v>456</v>
       </c>
-      <c r="I104" s="52">
+      <c r="I104" s="42">
         <v>553304</v>
       </c>
-      <c r="J104" s="52">
+      <c r="J104" s="42">
         <v>340858</v>
       </c>
-      <c r="K104" s="52">
+      <c r="K104" s="42">
         <v>77207</v>
       </c>
-      <c r="L104" s="52">
+      <c r="L104" s="42">
         <v>135239</v>
       </c>
     </row>
@@ -13980,7 +13986,7 @@
       <c r="C105" t="s">
         <v>458</v>
       </c>
-      <c r="D105" s="52">
+      <c r="D105" s="42">
         <v>9269</v>
       </c>
       <c r="G105" t="s">
@@ -13989,16 +13995,16 @@
       <c r="H105" t="s">
         <v>459</v>
       </c>
-      <c r="I105" s="52">
+      <c r="I105" s="42">
         <v>157517</v>
       </c>
-      <c r="J105" s="52">
+      <c r="J105" s="42">
         <v>77673</v>
       </c>
-      <c r="K105" s="52">
+      <c r="K105" s="42">
         <v>26513</v>
       </c>
-      <c r="L105" s="52">
+      <c r="L105" s="42">
         <v>53331</v>
       </c>
     </row>
@@ -14009,7 +14015,7 @@
       <c r="C106" t="s">
         <v>461</v>
       </c>
-      <c r="D106" s="52">
+      <c r="D106" s="42">
         <v>18380</v>
       </c>
       <c r="G106" t="s">
@@ -14018,16 +14024,16 @@
       <c r="H106" t="s">
         <v>462</v>
       </c>
-      <c r="I106" s="52">
+      <c r="I106" s="42">
         <v>395787</v>
       </c>
-      <c r="J106" s="52">
+      <c r="J106" s="42">
         <v>263185</v>
       </c>
-      <c r="K106" s="52">
+      <c r="K106" s="42">
         <v>50694</v>
       </c>
-      <c r="L106" s="52">
+      <c r="L106" s="42">
         <v>81908</v>
       </c>
     </row>
@@ -14038,7 +14044,7 @@
       <c r="C107" t="s">
         <v>464</v>
       </c>
-      <c r="D107" s="52">
+      <c r="D107" s="42">
         <v>8253</v>
       </c>
       <c r="G107" t="s">
@@ -14047,16 +14053,16 @@
       <c r="H107" t="s">
         <v>465</v>
       </c>
-      <c r="I107" s="52">
+      <c r="I107" s="42">
         <v>391569</v>
       </c>
-      <c r="J107" s="52">
+      <c r="J107" s="42">
         <v>286397</v>
       </c>
-      <c r="K107" s="52">
+      <c r="K107" s="42">
         <v>21390</v>
       </c>
-      <c r="L107" s="52">
+      <c r="L107" s="42">
         <v>83782</v>
       </c>
     </row>
@@ -14067,7 +14073,7 @@
       <c r="C108" t="s">
         <v>467</v>
       </c>
-      <c r="D108" s="52">
+      <c r="D108" s="42">
         <v>8828</v>
       </c>
       <c r="G108" t="s">
@@ -14076,16 +14082,16 @@
       <c r="H108" t="s">
         <v>468</v>
       </c>
-      <c r="I108" s="52">
+      <c r="I108" s="42">
         <v>2339442</v>
       </c>
-      <c r="J108" s="52">
+      <c r="J108" s="42">
         <v>1846322</v>
       </c>
-      <c r="K108" s="52">
+      <c r="K108" s="42">
         <v>-24531</v>
       </c>
-      <c r="L108" s="52">
+      <c r="L108" s="42">
         <v>517651</v>
       </c>
     </row>
@@ -14096,7 +14102,7 @@
       <c r="C109" t="s">
         <v>470</v>
       </c>
-      <c r="D109" s="52">
+      <c r="D109" s="42">
         <v>39168</v>
       </c>
       <c r="G109" t="s">
@@ -14105,16 +14111,16 @@
       <c r="H109" t="s">
         <v>471</v>
       </c>
-      <c r="I109" s="52">
+      <c r="I109" s="42">
         <v>731280</v>
       </c>
-      <c r="J109" s="52">
+      <c r="J109" s="42">
         <v>469030</v>
       </c>
-      <c r="K109" s="52">
+      <c r="K109" s="42">
         <v>-6001</v>
       </c>
-      <c r="L109" s="52">
+      <c r="L109" s="42">
         <v>268250</v>
       </c>
     </row>
@@ -14125,7 +14131,7 @@
       <c r="C110" t="s">
         <v>473</v>
       </c>
-      <c r="D110" s="52">
+      <c r="D110" s="42">
         <v>28288</v>
       </c>
       <c r="G110" t="s">
@@ -14134,16 +14140,16 @@
       <c r="H110" t="s">
         <v>474</v>
       </c>
-      <c r="I110" s="52">
+      <c r="I110" s="42">
         <v>673658</v>
       </c>
-      <c r="J110" s="52">
+      <c r="J110" s="42">
         <v>409923</v>
       </c>
-      <c r="K110" s="52" t="s">
+      <c r="K110" s="42" t="s">
         <v>475</v>
       </c>
-      <c r="L110" s="52">
+      <c r="L110" s="42">
         <v>263735</v>
       </c>
     </row>
@@ -14154,7 +14160,7 @@
       <c r="C111" t="s">
         <v>477</v>
       </c>
-      <c r="D111" s="52">
+      <c r="D111" s="42">
         <v>27221</v>
       </c>
       <c r="G111" t="s">
@@ -14163,16 +14169,16 @@
       <c r="H111" t="s">
         <v>478</v>
       </c>
-      <c r="I111" s="52">
+      <c r="I111" s="42">
         <v>57621</v>
       </c>
-      <c r="J111" s="52">
+      <c r="J111" s="42">
         <v>59107</v>
       </c>
-      <c r="K111" s="52">
+      <c r="K111" s="42">
         <v>-6001</v>
       </c>
-      <c r="L111" s="52">
+      <c r="L111" s="42">
         <v>4515</v>
       </c>
     </row>
@@ -14183,7 +14189,7 @@
       <c r="C112" t="s">
         <v>480</v>
       </c>
-      <c r="D112" s="52">
+      <c r="D112" s="42">
         <v>4004</v>
       </c>
       <c r="G112" t="s">
@@ -14192,16 +14198,16 @@
       <c r="H112" t="s">
         <v>481</v>
       </c>
-      <c r="I112" s="52">
+      <c r="I112" s="42">
         <v>1608162</v>
       </c>
-      <c r="J112" s="52">
+      <c r="J112" s="42">
         <v>1377292</v>
       </c>
-      <c r="K112" s="52">
+      <c r="K112" s="42">
         <v>-18530</v>
       </c>
-      <c r="L112" s="52">
+      <c r="L112" s="42">
         <v>249400</v>
       </c>
     </row>
@@ -14212,7 +14218,7 @@
       <c r="C113" t="s">
         <v>483</v>
       </c>
-      <c r="D113" s="52">
+      <c r="D113" s="42">
         <v>28050</v>
       </c>
       <c r="G113" t="s">
@@ -14221,16 +14227,16 @@
       <c r="H113" t="s">
         <v>484</v>
       </c>
-      <c r="I113" s="52">
+      <c r="I113" s="42">
         <v>1467317</v>
       </c>
-      <c r="J113" s="52">
+      <c r="J113" s="42">
         <v>1275273</v>
       </c>
-      <c r="K113" s="52" t="s">
+      <c r="K113" s="42" t="s">
         <v>475</v>
       </c>
-      <c r="L113" s="52">
+      <c r="L113" s="42">
         <v>192044</v>
       </c>
     </row>
@@ -14241,7 +14247,7 @@
       <c r="C114" t="s">
         <v>486</v>
       </c>
-      <c r="D114" s="52">
+      <c r="D114" s="42">
         <v>6997</v>
       </c>
       <c r="G114" t="s">
@@ -14250,16 +14256,16 @@
       <c r="H114" t="s">
         <v>487</v>
       </c>
-      <c r="I114" s="52">
+      <c r="I114" s="42">
         <v>140845</v>
       </c>
-      <c r="J114" s="52">
+      <c r="J114" s="42">
         <v>102019</v>
       </c>
-      <c r="K114" s="52">
+      <c r="K114" s="42">
         <v>-18530</v>
       </c>
-      <c r="L114" s="52">
+      <c r="L114" s="42">
         <v>57356</v>
       </c>
     </row>
@@ -14270,13 +14276,13 @@
       <c r="C115" t="s">
         <v>489</v>
       </c>
-      <c r="D115" s="52">
+      <c r="D115" s="42">
         <v>7632</v>
       </c>
       <c r="H115" t="s">
         <v>490</v>
       </c>
-      <c r="I115" s="52"/>
+      <c r="I115" s="42"/>
     </row>
     <row r="116" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
@@ -14285,7 +14291,7 @@
       <c r="C116" t="s">
         <v>492</v>
       </c>
-      <c r="D116" s="52">
+      <c r="D116" s="42">
         <v>13831</v>
       </c>
       <c r="G116" t="s">
@@ -14294,7 +14300,7 @@
       <c r="H116" t="s">
         <v>493</v>
       </c>
-      <c r="I116" s="52">
+      <c r="I116" s="42">
         <v>3268592</v>
       </c>
     </row>
@@ -14305,7 +14311,7 @@
       <c r="C117" t="s">
         <v>495</v>
       </c>
-      <c r="D117" s="52">
+      <c r="D117" s="42">
         <v>15876</v>
       </c>
       <c r="G117" t="s">
@@ -14314,7 +14320,7 @@
       <c r="H117" t="s">
         <v>496</v>
       </c>
-      <c r="I117" s="52">
+      <c r="I117" s="42">
         <v>12630266</v>
       </c>
     </row>
@@ -14325,7 +14331,7 @@
       <c r="C118" t="s">
         <v>498</v>
       </c>
-      <c r="D118" s="52">
+      <c r="D118" s="42">
         <v>30700</v>
       </c>
     </row>
@@ -14336,7 +14342,7 @@
       <c r="C119" t="s">
         <v>500</v>
       </c>
-      <c r="D119" s="52">
+      <c r="D119" s="42">
         <v>9198</v>
       </c>
     </row>
@@ -14347,7 +14353,7 @@
       <c r="C120" t="s">
         <v>502</v>
       </c>
-      <c r="D120" s="52">
+      <c r="D120" s="42">
         <v>28981</v>
       </c>
     </row>
@@ -14358,7 +14364,7 @@
       <c r="C121" t="s">
         <v>504</v>
       </c>
-      <c r="D121" s="52">
+      <c r="D121" s="42">
         <v>21607</v>
       </c>
     </row>
@@ -14369,7 +14375,7 @@
       <c r="C122" t="s">
         <v>506</v>
       </c>
-      <c r="D122" s="52">
+      <c r="D122" s="42">
         <v>6176</v>
       </c>
     </row>
@@ -14380,7 +14386,7 @@
       <c r="C123" t="s">
         <v>508</v>
       </c>
-      <c r="D123" s="52">
+      <c r="D123" s="42">
         <v>26748</v>
       </c>
     </row>
@@ -14391,7 +14397,7 @@
       <c r="C124" t="s">
         <v>510</v>
       </c>
-      <c r="D124" s="52">
+      <c r="D124" s="42">
         <v>4893</v>
       </c>
     </row>
@@ -14402,7 +14408,7 @@
       <c r="C125" t="s">
         <v>512</v>
       </c>
-      <c r="D125" s="52">
+      <c r="D125" s="42">
         <v>2064</v>
       </c>
     </row>
@@ -14413,7 +14419,7 @@
       <c r="C126" t="s">
         <v>514</v>
       </c>
-      <c r="D126" s="52">
+      <c r="D126" s="42">
         <v>21334</v>
       </c>
     </row>
@@ -14424,7 +14430,7 @@
       <c r="C127" t="s">
         <v>516</v>
       </c>
-      <c r="D127" s="52">
+      <c r="D127" s="42">
         <v>4558</v>
       </c>
     </row>
@@ -14435,7 +14441,7 @@
       <c r="C128" t="s">
         <v>518</v>
       </c>
-      <c r="D128" s="52">
+      <c r="D128" s="42">
         <v>32747</v>
       </c>
     </row>
@@ -14446,7 +14452,7 @@
       <c r="C129" t="s">
         <v>520</v>
       </c>
-      <c r="D129" s="52">
+      <c r="D129" s="42">
         <v>6678</v>
       </c>
     </row>
@@ -14457,7 +14463,7 @@
       <c r="C130" t="s">
         <v>522</v>
       </c>
-      <c r="D130" s="52">
+      <c r="D130" s="42">
         <v>6497</v>
       </c>
     </row>
@@ -14468,7 +14474,7 @@
       <c r="C131" t="s">
         <v>524</v>
       </c>
-      <c r="D131" s="52">
+      <c r="D131" s="42">
         <v>8423</v>
       </c>
     </row>
@@ -14479,7 +14485,7 @@
       <c r="C132" t="s">
         <v>526</v>
       </c>
-      <c r="D132" s="52">
+      <c r="D132" s="42">
         <v>8202</v>
       </c>
     </row>
@@ -14490,7 +14496,7 @@
       <c r="C133" t="s">
         <v>528</v>
       </c>
-      <c r="D133" s="52">
+      <c r="D133" s="42">
         <v>9125</v>
       </c>
     </row>
@@ -14501,7 +14507,7 @@
       <c r="C134" t="s">
         <v>530</v>
       </c>
-      <c r="D134" s="52">
+      <c r="D134" s="42">
         <v>15140</v>
       </c>
     </row>
@@ -14512,7 +14518,7 @@
       <c r="C135" t="s">
         <v>532</v>
       </c>
-      <c r="D135" s="52">
+      <c r="D135" s="42">
         <v>3683</v>
       </c>
     </row>
@@ -14523,7 +14529,7 @@
       <c r="C136" t="s">
         <v>534</v>
       </c>
-      <c r="D136" s="52">
+      <c r="D136" s="42">
         <v>4321</v>
       </c>
     </row>
@@ -14534,7 +14540,7 @@
       <c r="C137" t="s">
         <v>536</v>
       </c>
-      <c r="D137" s="52">
+      <c r="D137" s="42">
         <v>27555</v>
       </c>
     </row>
@@ -14545,7 +14551,7 @@
       <c r="C138" t="s">
         <v>538</v>
       </c>
-      <c r="D138" s="52">
+      <c r="D138" s="42">
         <v>10106</v>
       </c>
     </row>
@@ -14556,7 +14562,7 @@
       <c r="C139" t="s">
         <v>540</v>
       </c>
-      <c r="D139" s="52">
+      <c r="D139" s="42">
         <v>16822</v>
       </c>
     </row>
@@ -14567,7 +14573,7 @@
       <c r="C140" t="s">
         <v>542</v>
       </c>
-      <c r="D140" s="52">
+      <c r="D140" s="42">
         <v>27754</v>
       </c>
     </row>
@@ -14578,7 +14584,7 @@
       <c r="C141" t="s">
         <v>544</v>
       </c>
-      <c r="D141" s="52">
+      <c r="D141" s="42">
         <v>3250</v>
       </c>
     </row>
@@ -14589,7 +14595,7 @@
       <c r="C142" t="s">
         <v>546</v>
       </c>
-      <c r="D142" s="52">
+      <c r="D142" s="42">
         <v>5866</v>
       </c>
     </row>
@@ -14600,7 +14606,7 @@
       <c r="C143" t="s">
         <v>548</v>
       </c>
-      <c r="D143" s="52">
+      <c r="D143" s="42">
         <v>2845</v>
       </c>
     </row>
@@ -14611,7 +14617,7 @@
       <c r="C144" t="s">
         <v>550</v>
       </c>
-      <c r="D144" s="52">
+      <c r="D144" s="42">
         <v>22220</v>
       </c>
     </row>
@@ -14622,7 +14628,7 @@
       <c r="C145" t="s">
         <v>552</v>
       </c>
-      <c r="D145" s="52">
+      <c r="D145" s="42">
         <v>11611</v>
       </c>
     </row>
@@ -14633,7 +14639,7 @@
       <c r="C146" t="s">
         <v>554</v>
       </c>
-      <c r="D146" s="52">
+      <c r="D146" s="42">
         <v>12846</v>
       </c>
     </row>
@@ -14644,7 +14650,7 @@
       <c r="C147" t="s">
         <v>556</v>
       </c>
-      <c r="D147" s="52">
+      <c r="D147" s="42">
         <v>8291</v>
       </c>
     </row>
@@ -14655,7 +14661,7 @@
       <c r="C148" t="s">
         <v>558</v>
       </c>
-      <c r="D148" s="52">
+      <c r="D148" s="42">
         <v>10778</v>
       </c>
     </row>
@@ -14666,7 +14672,7 @@
       <c r="C149" t="s">
         <v>560</v>
       </c>
-      <c r="D149" s="52">
+      <c r="D149" s="42">
         <v>11850</v>
       </c>
     </row>
@@ -14677,7 +14683,7 @@
       <c r="C150" t="s">
         <v>562</v>
       </c>
-      <c r="D150" s="52">
+      <c r="D150" s="42">
         <v>33887</v>
       </c>
     </row>
@@ -14688,7 +14694,7 @@
       <c r="C151" t="s">
         <v>564</v>
       </c>
-      <c r="D151" s="52">
+      <c r="D151" s="42">
         <v>6694</v>
       </c>
     </row>
@@ -14699,7 +14705,7 @@
       <c r="C152" t="s">
         <v>566</v>
       </c>
-      <c r="D152" s="52">
+      <c r="D152" s="42">
         <v>57088</v>
       </c>
     </row>
@@ -14710,7 +14716,7 @@
       <c r="C153" t="s">
         <v>568</v>
       </c>
-      <c r="D153" s="52">
+      <c r="D153" s="42">
         <v>20663</v>
       </c>
     </row>
@@ -14721,7 +14727,7 @@
       <c r="C154" t="s">
         <v>570</v>
       </c>
-      <c r="D154" s="52">
+      <c r="D154" s="42">
         <v>32586</v>
       </c>
     </row>
@@ -14732,7 +14738,7 @@
       <c r="C155" t="s">
         <v>572</v>
       </c>
-      <c r="D155" s="52">
+      <c r="D155" s="42">
         <v>28912</v>
       </c>
     </row>
@@ -14743,7 +14749,7 @@
       <c r="C156" t="s">
         <v>574</v>
       </c>
-      <c r="D156" s="52">
+      <c r="D156" s="42">
         <v>47917</v>
       </c>
     </row>
@@ -14754,7 +14760,7 @@
       <c r="C157" t="s">
         <v>576</v>
       </c>
-      <c r="D157" s="52">
+      <c r="D157" s="42">
         <v>2618</v>
       </c>
     </row>
@@ -14765,7 +14771,7 @@
       <c r="C158" t="s">
         <v>578</v>
       </c>
-      <c r="D158" s="52">
+      <c r="D158" s="42">
         <v>11888</v>
       </c>
     </row>
@@ -14776,7 +14782,7 @@
       <c r="C159" t="s">
         <v>580</v>
       </c>
-      <c r="D159" s="52">
+      <c r="D159" s="42">
         <v>5417</v>
       </c>
     </row>
@@ -14787,7 +14793,7 @@
       <c r="C160" t="s">
         <v>582</v>
       </c>
-      <c r="D160" s="52">
+      <c r="D160" s="42">
         <v>11523</v>
       </c>
     </row>
@@ -14798,7 +14804,7 @@
       <c r="C161" t="s">
         <v>584</v>
       </c>
-      <c r="D161" s="52">
+      <c r="D161" s="42">
         <v>17491</v>
       </c>
     </row>
@@ -14809,7 +14815,7 @@
       <c r="C162" t="s">
         <v>586</v>
       </c>
-      <c r="D162" s="52">
+      <c r="D162" s="42">
         <v>10002</v>
       </c>
     </row>
@@ -14820,7 +14826,7 @@
       <c r="C163" t="s">
         <v>588</v>
       </c>
-      <c r="D163" s="52">
+      <c r="D163" s="42">
         <v>12072</v>
       </c>
     </row>
@@ -14831,7 +14837,7 @@
       <c r="C164" t="s">
         <v>590</v>
       </c>
-      <c r="D164" s="52">
+      <c r="D164" s="42">
         <v>2914</v>
       </c>
     </row>
@@ -14842,7 +14848,7 @@
       <c r="C165" t="s">
         <v>592</v>
       </c>
-      <c r="D165" s="52">
+      <c r="D165" s="42">
         <v>2916</v>
       </c>
     </row>
@@ -14853,7 +14859,7 @@
       <c r="C166" t="s">
         <v>594</v>
       </c>
-      <c r="D166" s="52">
+      <c r="D166" s="42">
         <v>1052</v>
       </c>
     </row>
@@ -14864,7 +14870,7 @@
       <c r="C167" t="s">
         <v>596</v>
       </c>
-      <c r="D167" s="52">
+      <c r="D167" s="42">
         <v>11324</v>
       </c>
     </row>
@@ -14875,7 +14881,7 @@
       <c r="C168" t="s">
         <v>598</v>
       </c>
-      <c r="D168" s="52">
+      <c r="D168" s="42">
         <v>3539</v>
       </c>
     </row>
@@ -14886,7 +14892,7 @@
       <c r="C169" t="s">
         <v>600</v>
       </c>
-      <c r="D169" s="52">
+      <c r="D169" s="42">
         <v>4775</v>
       </c>
     </row>
@@ -14897,7 +14903,7 @@
       <c r="C170" t="s">
         <v>602</v>
       </c>
-      <c r="D170" s="52">
+      <c r="D170" s="42">
         <v>3881</v>
       </c>
     </row>
@@ -14908,7 +14914,7 @@
       <c r="C171" t="s">
         <v>604</v>
       </c>
-      <c r="D171" s="52">
+      <c r="D171" s="42">
         <v>3862</v>
       </c>
     </row>
@@ -14919,7 +14925,7 @@
       <c r="C172" t="s">
         <v>606</v>
       </c>
-      <c r="D172" s="52">
+      <c r="D172" s="42">
         <v>5125</v>
       </c>
     </row>
@@ -14930,7 +14936,7 @@
       <c r="C173" t="s">
         <v>608</v>
       </c>
-      <c r="D173" s="52">
+      <c r="D173" s="42">
         <v>5491</v>
       </c>
     </row>
@@ -14941,7 +14947,7 @@
       <c r="C174" t="s">
         <v>610</v>
       </c>
-      <c r="D174" s="52">
+      <c r="D174" s="42">
         <v>10506</v>
       </c>
     </row>
@@ -14952,7 +14958,7 @@
       <c r="C175" t="s">
         <v>612</v>
       </c>
-      <c r="D175" s="52">
+      <c r="D175" s="42">
         <v>11675</v>
       </c>
     </row>
@@ -14963,7 +14969,7 @@
       <c r="C176" t="s">
         <v>614</v>
       </c>
-      <c r="D176" s="52">
+      <c r="D176" s="42">
         <v>10352</v>
       </c>
     </row>
@@ -14974,7 +14980,7 @@
       <c r="C177" t="s">
         <v>616</v>
       </c>
-      <c r="D177" s="52">
+      <c r="D177" s="42">
         <v>8071</v>
       </c>
     </row>
@@ -14985,7 +14991,7 @@
       <c r="C178" t="s">
         <v>618</v>
       </c>
-      <c r="D178" s="52">
+      <c r="D178" s="42">
         <v>3739</v>
       </c>
     </row>
@@ -14996,7 +15002,7 @@
       <c r="C179" t="s">
         <v>620</v>
       </c>
-      <c r="D179" s="52">
+      <c r="D179" s="42">
         <v>14491</v>
       </c>
     </row>
@@ -15007,7 +15013,7 @@
       <c r="C180" t="s">
         <v>622</v>
       </c>
-      <c r="D180" s="52">
+      <c r="D180" s="42">
         <v>13999</v>
       </c>
     </row>
@@ -15018,7 +15024,7 @@
       <c r="C181" t="s">
         <v>624</v>
       </c>
-      <c r="D181" s="52">
+      <c r="D181" s="42">
         <v>3310</v>
       </c>
     </row>
@@ -15029,7 +15035,7 @@
       <c r="C182" t="s">
         <v>626</v>
       </c>
-      <c r="D182" s="52">
+      <c r="D182" s="42">
         <v>10808</v>
       </c>
     </row>
@@ -15040,7 +15046,7 @@
       <c r="C183" t="s">
         <v>628</v>
       </c>
-      <c r="D183" s="52">
+      <c r="D183" s="42">
         <v>67427</v>
       </c>
     </row>
@@ -15051,7 +15057,7 @@
       <c r="C184" t="s">
         <v>630</v>
       </c>
-      <c r="D184" s="52">
+      <c r="D184" s="42">
         <v>267597</v>
       </c>
     </row>
@@ -15062,7 +15068,7 @@
       <c r="C185" t="s">
         <v>632</v>
       </c>
-      <c r="D185" s="52">
+      <c r="D185" s="42">
         <v>35528</v>
       </c>
     </row>
@@ -15073,7 +15079,7 @@
       <c r="C186" t="s">
         <v>634</v>
       </c>
-      <c r="D186" s="52">
+      <c r="D186" s="42">
         <v>14072</v>
       </c>
     </row>
@@ -15084,7 +15090,7 @@
       <c r="C187" t="s">
         <v>636</v>
       </c>
-      <c r="D187" s="52">
+      <c r="D187" s="42">
         <v>10276</v>
       </c>
     </row>
@@ -15095,7 +15101,7 @@
       <c r="C188" t="s">
         <v>638</v>
       </c>
-      <c r="D188" s="52">
+      <c r="D188" s="42">
         <v>4256</v>
       </c>
     </row>
@@ -15106,7 +15112,7 @@
       <c r="C189" t="s">
         <v>640</v>
       </c>
-      <c r="D189" s="52">
+      <c r="D189" s="42">
         <v>14299</v>
       </c>
     </row>
@@ -15117,7 +15123,7 @@
       <c r="C190" t="s">
         <v>642</v>
       </c>
-      <c r="D190" s="52">
+      <c r="D190" s="42">
         <v>34899</v>
       </c>
     </row>
@@ -15128,7 +15134,7 @@
       <c r="C191" t="s">
         <v>644</v>
       </c>
-      <c r="D191" s="52">
+      <c r="D191" s="42">
         <v>25253</v>
       </c>
     </row>
@@ -15139,7 +15145,7 @@
       <c r="C192" t="s">
         <v>646</v>
       </c>
-      <c r="D192" s="52">
+      <c r="D192" s="42">
         <v>38361</v>
       </c>
     </row>
@@ -15150,7 +15156,7 @@
       <c r="C193" t="s">
         <v>648</v>
       </c>
-      <c r="D193" s="52">
+      <c r="D193" s="42">
         <v>32361</v>
       </c>
     </row>
@@ -15161,7 +15167,7 @@
       <c r="C194" t="s">
         <v>650</v>
       </c>
-      <c r="D194" s="52">
+      <c r="D194" s="42">
         <v>37764</v>
       </c>
     </row>
@@ -15172,7 +15178,7 @@
       <c r="C195" t="s">
         <v>652</v>
       </c>
-      <c r="D195" s="52">
+      <c r="D195" s="42">
         <v>68959</v>
       </c>
     </row>
@@ -15183,7 +15189,7 @@
       <c r="C196" t="s">
         <v>654</v>
       </c>
-      <c r="D196" s="52">
+      <c r="D196" s="42">
         <v>26026</v>
       </c>
     </row>
@@ -15194,7 +15200,7 @@
       <c r="C197" t="s">
         <v>656</v>
       </c>
-      <c r="D197" s="52">
+      <c r="D197" s="42">
         <v>137534</v>
       </c>
     </row>
@@ -15205,7 +15211,7 @@
       <c r="C198" t="s">
         <v>658</v>
       </c>
-      <c r="D198" s="52">
+      <c r="D198" s="42">
         <v>50032</v>
       </c>
     </row>
@@ -15216,7 +15222,7 @@
       <c r="C199" t="s">
         <v>660</v>
       </c>
-      <c r="D199" s="52">
+      <c r="D199" s="42">
         <v>40127</v>
       </c>
     </row>
@@ -15227,7 +15233,7 @@
       <c r="C200" t="s">
         <v>662</v>
       </c>
-      <c r="D200" s="52">
+      <c r="D200" s="42">
         <v>21738</v>
       </c>
     </row>
@@ -15238,7 +15244,7 @@
       <c r="C201" t="s">
         <v>664</v>
       </c>
-      <c r="D201" s="52">
+      <c r="D201" s="42">
         <v>5902</v>
       </c>
     </row>
@@ -15249,7 +15255,7 @@
       <c r="C202" t="s">
         <v>666</v>
       </c>
-      <c r="D202" s="52">
+      <c r="D202" s="42">
         <v>21968</v>
       </c>
     </row>
@@ -15260,7 +15266,7 @@
       <c r="C203" t="s">
         <v>668</v>
       </c>
-      <c r="D203" s="52">
+      <c r="D203" s="42">
         <v>26079</v>
       </c>
     </row>
@@ -15271,7 +15277,7 @@
       <c r="C204" t="s">
         <v>670</v>
       </c>
-      <c r="D204" s="52">
+      <c r="D204" s="42">
         <v>9645</v>
       </c>
     </row>
@@ -15282,7 +15288,7 @@
       <c r="C205" t="s">
         <v>672</v>
       </c>
-      <c r="D205" s="52">
+      <c r="D205" s="42">
         <v>6712</v>
       </c>
     </row>
@@ -15293,7 +15299,7 @@
       <c r="C206" t="s">
         <v>674</v>
       </c>
-      <c r="D206" s="52">
+      <c r="D206" s="42">
         <v>4176</v>
       </c>
     </row>
@@ -15304,7 +15310,7 @@
       <c r="C207" t="s">
         <v>676</v>
       </c>
-      <c r="D207" s="52">
+      <c r="D207" s="42">
         <v>9213</v>
       </c>
     </row>
@@ -15315,7 +15321,7 @@
       <c r="C208" t="s">
         <v>678</v>
       </c>
-      <c r="D208" s="52">
+      <c r="D208" s="42">
         <v>15041</v>
       </c>
     </row>
@@ -15326,7 +15332,7 @@
       <c r="C209" t="s">
         <v>680</v>
       </c>
-      <c r="D209" s="52">
+      <c r="D209" s="42">
         <v>11419</v>
       </c>
     </row>
@@ -15337,7 +15343,7 @@
       <c r="C210" t="s">
         <v>682</v>
       </c>
-      <c r="D210" s="52">
+      <c r="D210" s="42">
         <v>4252</v>
       </c>
     </row>
@@ -15348,7 +15354,7 @@
       <c r="C211" t="s">
         <v>684</v>
       </c>
-      <c r="D211" s="52">
+      <c r="D211" s="42">
         <v>4806</v>
       </c>
     </row>
@@ -15359,7 +15365,7 @@
       <c r="C212" t="s">
         <v>686</v>
       </c>
-      <c r="D212" s="52">
+      <c r="D212" s="42">
         <v>3237</v>
       </c>
     </row>
@@ -15370,7 +15376,7 @@
       <c r="C213" t="s">
         <v>688</v>
       </c>
-      <c r="D213" s="52">
+      <c r="D213" s="42">
         <v>7431</v>
       </c>
     </row>
@@ -15381,7 +15387,7 @@
       <c r="C214" t="s">
         <v>690</v>
       </c>
-      <c r="D214" s="52">
+      <c r="D214" s="42">
         <v>17274</v>
       </c>
     </row>
@@ -15392,7 +15398,7 @@
       <c r="C215" t="s">
         <v>692</v>
       </c>
-      <c r="D215" s="52">
+      <c r="D215" s="42">
         <v>10328</v>
       </c>
     </row>
@@ -15403,7 +15409,7 @@
       <c r="C216" t="s">
         <v>694</v>
       </c>
-      <c r="D216" s="52">
+      <c r="D216" s="42">
         <v>43172</v>
       </c>
     </row>
@@ -15414,7 +15420,7 @@
       <c r="C217" t="s">
         <v>696</v>
       </c>
-      <c r="D217" s="52">
+      <c r="D217" s="42">
         <v>36144</v>
       </c>
     </row>
@@ -15425,7 +15431,7 @@
       <c r="C218" t="s">
         <v>698</v>
       </c>
-      <c r="D218" s="52">
+      <c r="D218" s="42">
         <v>4994</v>
       </c>
     </row>
@@ -15436,7 +15442,7 @@
       <c r="C219" t="s">
         <v>700</v>
       </c>
-      <c r="D219" s="52">
+      <c r="D219" s="42">
         <v>8110</v>
       </c>
     </row>
@@ -15447,7 +15453,7 @@
       <c r="C220" t="s">
         <v>702</v>
       </c>
-      <c r="D220" s="52">
+      <c r="D220" s="42">
         <v>5774</v>
       </c>
     </row>
@@ -15458,7 +15464,7 @@
       <c r="C221" t="s">
         <v>704</v>
       </c>
-      <c r="D221" s="52">
+      <c r="D221" s="42">
         <v>8080</v>
       </c>
     </row>
@@ -15469,7 +15475,7 @@
       <c r="C222" t="s">
         <v>706</v>
       </c>
-      <c r="D222" s="52">
+      <c r="D222" s="42">
         <v>10355</v>
       </c>
     </row>
@@ -15480,7 +15486,7 @@
       <c r="C223" t="s">
         <v>708</v>
       </c>
-      <c r="D223" s="52">
+      <c r="D223" s="42">
         <v>1624</v>
       </c>
     </row>
@@ -15491,7 +15497,7 @@
       <c r="C224" t="s">
         <v>710</v>
       </c>
-      <c r="D224" s="52">
+      <c r="D224" s="42">
         <v>3179</v>
       </c>
     </row>
@@ -15502,7 +15508,7 @@
       <c r="C225" t="s">
         <v>712</v>
       </c>
-      <c r="D225" s="52">
+      <c r="D225" s="42">
         <v>13946</v>
       </c>
     </row>
@@ -15513,7 +15519,7 @@
       <c r="C226" t="s">
         <v>714</v>
       </c>
-      <c r="D226" s="52">
+      <c r="D226" s="42">
         <v>30899</v>
       </c>
     </row>
@@ -15524,7 +15530,7 @@
       <c r="C227" t="s">
         <v>716</v>
       </c>
-      <c r="D227" s="52">
+      <c r="D227" s="42">
         <v>22672</v>
       </c>
     </row>
@@ -15535,7 +15541,7 @@
       <c r="C228" t="s">
         <v>718</v>
       </c>
-      <c r="D228" s="52">
+      <c r="D228" s="42">
         <v>34308</v>
       </c>
     </row>
@@ -15546,7 +15552,7 @@
       <c r="C229" t="s">
         <v>720</v>
       </c>
-      <c r="D229" s="52">
+      <c r="D229" s="42">
         <v>19639</v>
       </c>
     </row>
@@ -15557,7 +15563,7 @@
       <c r="C230" t="s">
         <v>722</v>
       </c>
-      <c r="D230" s="52">
+      <c r="D230" s="42">
         <v>10510</v>
       </c>
     </row>
@@ -15568,7 +15574,7 @@
       <c r="C231" t="s">
         <v>724</v>
       </c>
-      <c r="D231" s="52">
+      <c r="D231" s="42">
         <v>12012</v>
       </c>
     </row>
@@ -15579,7 +15585,7 @@
       <c r="C232" t="s">
         <v>726</v>
       </c>
-      <c r="D232" s="52">
+      <c r="D232" s="42">
         <v>35390</v>
       </c>
     </row>
@@ -15590,7 +15596,7 @@
       <c r="C233" t="s">
         <v>728</v>
       </c>
-      <c r="D233" s="52">
+      <c r="D233" s="42">
         <v>9839</v>
       </c>
     </row>
@@ -15601,7 +15607,7 @@
       <c r="C234" t="s">
         <v>730</v>
       </c>
-      <c r="D234" s="52">
+      <c r="D234" s="42">
         <v>34461</v>
       </c>
     </row>
@@ -15612,7 +15618,7 @@
       <c r="C235" t="s">
         <v>732</v>
       </c>
-      <c r="D235" s="52">
+      <c r="D235" s="42">
         <v>32490</v>
       </c>
     </row>
@@ -15623,7 +15629,7 @@
       <c r="C236" t="s">
         <v>734</v>
       </c>
-      <c r="D236" s="52">
+      <c r="D236" s="42">
         <v>35271</v>
       </c>
     </row>
@@ -15634,7 +15640,7 @@
       <c r="C237" t="s">
         <v>735</v>
       </c>
-      <c r="D237" s="52">
+      <c r="D237" s="42">
         <v>44820</v>
       </c>
     </row>
@@ -15645,7 +15651,7 @@
       <c r="C238" t="s">
         <v>737</v>
       </c>
-      <c r="D238" s="52">
+      <c r="D238" s="42">
         <v>24834</v>
       </c>
     </row>
@@ -15656,7 +15662,7 @@
       <c r="C239" t="s">
         <v>739</v>
       </c>
-      <c r="D239" s="52">
+      <c r="D239" s="42">
         <v>42935</v>
       </c>
     </row>
@@ -15667,7 +15673,7 @@
       <c r="C240" t="s">
         <v>741</v>
       </c>
-      <c r="D240" s="52">
+      <c r="D240" s="42">
         <v>7409</v>
       </c>
     </row>
@@ -15678,7 +15684,7 @@
       <c r="C241" t="s">
         <v>743</v>
       </c>
-      <c r="D241" s="52">
+      <c r="D241" s="42">
         <v>63516</v>
       </c>
     </row>
@@ -15689,7 +15695,7 @@
       <c r="C242" t="s">
         <v>745</v>
       </c>
-      <c r="D242" s="52">
+      <c r="D242" s="42">
         <v>151763</v>
       </c>
     </row>
@@ -15700,7 +15706,7 @@
       <c r="C243" t="s">
         <v>747</v>
       </c>
-      <c r="D243" s="52">
+      <c r="D243" s="42">
         <v>13437</v>
       </c>
     </row>
@@ -15711,7 +15717,7 @@
       <c r="C244" t="s">
         <v>749</v>
       </c>
-      <c r="D244" s="52">
+      <c r="D244" s="42">
         <v>41588</v>
       </c>
     </row>
@@ -15722,7 +15728,7 @@
       <c r="C245" t="s">
         <v>751</v>
       </c>
-      <c r="D245" s="52">
+      <c r="D245" s="42">
         <v>28299</v>
       </c>
     </row>
@@ -15733,7 +15739,7 @@
       <c r="C246" t="s">
         <v>753</v>
       </c>
-      <c r="D246" s="52">
+      <c r="D246" s="42">
         <v>35923</v>
       </c>
     </row>
@@ -15744,7 +15750,7 @@
       <c r="C247" t="s">
         <v>755</v>
       </c>
-      <c r="D247" s="52">
+      <c r="D247" s="42">
         <v>13989</v>
       </c>
     </row>
@@ -15755,7 +15761,7 @@
       <c r="C248" t="s">
         <v>757</v>
       </c>
-      <c r="D248" s="52">
+      <c r="D248" s="42">
         <v>10059</v>
       </c>
     </row>
@@ -15766,7 +15772,7 @@
       <c r="C249" t="s">
         <v>759</v>
       </c>
-      <c r="D249" s="52">
+      <c r="D249" s="42">
         <v>18967</v>
       </c>
     </row>
@@ -15777,7 +15783,7 @@
       <c r="C250" t="s">
         <v>761</v>
       </c>
-      <c r="D250" s="52">
+      <c r="D250" s="42">
         <v>26996</v>
       </c>
     </row>
@@ -15788,7 +15794,7 @@
       <c r="C251" t="s">
         <v>763</v>
       </c>
-      <c r="D251" s="52">
+      <c r="D251" s="42">
         <v>47738</v>
       </c>
     </row>
@@ -15799,7 +15805,7 @@
       <c r="C252" t="s">
         <v>765</v>
       </c>
-      <c r="D252" s="52">
+      <c r="D252" s="42">
         <v>33801</v>
       </c>
     </row>
@@ -15810,7 +15816,7 @@
       <c r="C253" t="s">
         <v>767</v>
       </c>
-      <c r="D253" s="52">
+      <c r="D253" s="42">
         <v>20987</v>
       </c>
     </row>
@@ -15821,7 +15827,7 @@
       <c r="C254" t="s">
         <v>769</v>
       </c>
-      <c r="D254" s="52">
+      <c r="D254" s="42">
         <v>17027</v>
       </c>
     </row>
@@ -15832,7 +15838,7 @@
       <c r="C255" t="s">
         <v>771</v>
       </c>
-      <c r="D255" s="52">
+      <c r="D255" s="42">
         <v>55533</v>
       </c>
     </row>
@@ -15843,7 +15849,7 @@
       <c r="C256" t="s">
         <v>773</v>
       </c>
-      <c r="D256" s="52">
+      <c r="D256" s="42">
         <v>7797</v>
       </c>
     </row>
@@ -15854,7 +15860,7 @@
       <c r="C257" t="s">
         <v>775</v>
       </c>
-      <c r="D257" s="52">
+      <c r="D257" s="42">
         <v>13469</v>
       </c>
     </row>
@@ -15865,7 +15871,7 @@
       <c r="C258" t="s">
         <v>777</v>
       </c>
-      <c r="D258" s="52">
+      <c r="D258" s="42">
         <v>7913</v>
       </c>
     </row>
@@ -15876,7 +15882,7 @@
       <c r="C259" t="s">
         <v>779</v>
       </c>
-      <c r="D259" s="52">
+      <c r="D259" s="42">
         <v>9793</v>
       </c>
     </row>
@@ -15887,7 +15893,7 @@
       <c r="C260" t="s">
         <v>781</v>
       </c>
-      <c r="D260" s="52">
+      <c r="D260" s="42">
         <v>4432</v>
       </c>
     </row>
@@ -15898,7 +15904,7 @@
       <c r="C261" t="s">
         <v>783</v>
       </c>
-      <c r="D261" s="52">
+      <c r="D261" s="42">
         <v>10139</v>
       </c>
     </row>
@@ -15909,7 +15915,7 @@
       <c r="C262" t="s">
         <v>785</v>
       </c>
-      <c r="D262" s="52">
+      <c r="D262" s="42">
         <v>11575</v>
       </c>
     </row>
@@ -15920,7 +15926,7 @@
       <c r="C263" t="s">
         <v>787</v>
       </c>
-      <c r="D263" s="52">
+      <c r="D263" s="42">
         <v>7059</v>
       </c>
     </row>
@@ -15931,7 +15937,7 @@
       <c r="C264" t="s">
         <v>789</v>
       </c>
-      <c r="D264" s="52">
+      <c r="D264" s="42">
         <v>6202</v>
       </c>
     </row>
@@ -15942,7 +15948,7 @@
       <c r="C265" t="s">
         <v>791</v>
       </c>
-      <c r="D265" s="52">
+      <c r="D265" s="42">
         <v>44437</v>
       </c>
     </row>
@@ -15953,7 +15959,7 @@
       <c r="C266" t="s">
         <v>793</v>
       </c>
-      <c r="D266" s="52">
+      <c r="D266" s="42">
         <v>29952</v>
       </c>
     </row>
@@ -15964,7 +15970,7 @@
       <c r="C267" t="s">
         <v>795</v>
       </c>
-      <c r="D267" s="52">
+      <c r="D267" s="42">
         <v>59159</v>
       </c>
     </row>
@@ -15975,7 +15981,7 @@
       <c r="C268" t="s">
         <v>797</v>
       </c>
-      <c r="D268" s="52">
+      <c r="D268" s="42">
         <v>20873</v>
       </c>
     </row>
@@ -15986,7 +15992,7 @@
       <c r="C269" t="s">
         <v>799</v>
       </c>
-      <c r="D269" s="52">
+      <c r="D269" s="42">
         <v>6152</v>
       </c>
     </row>
@@ -15997,7 +16003,7 @@
       <c r="C270" t="s">
         <v>801</v>
       </c>
-      <c r="D270" s="52">
+      <c r="D270" s="42">
         <v>11383</v>
       </c>
     </row>
@@ -16008,7 +16014,7 @@
       <c r="C271" t="s">
         <v>803</v>
       </c>
-      <c r="D271" s="52">
+      <c r="D271" s="42">
         <v>4732</v>
       </c>
     </row>
@@ -16019,359 +16025,416 @@
       <c r="C272" t="s">
         <v>805</v>
       </c>
-      <c r="D272" s="52">
+      <c r="D272" s="42">
         <v>78433</v>
       </c>
     </row>
-    <row r="273" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B273" t="s">
         <v>806</v>
       </c>
       <c r="C273" t="s">
         <v>807</v>
       </c>
-      <c r="D273" s="52">
+      <c r="D273" s="42">
         <v>3763</v>
       </c>
     </row>
-    <row r="274" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B274" t="s">
         <v>808</v>
       </c>
       <c r="C274" t="s">
         <v>809</v>
       </c>
-      <c r="D274" s="52">
+      <c r="D274" s="42">
         <v>457760</v>
       </c>
     </row>
-    <row r="275" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B275" t="s">
         <v>810</v>
       </c>
       <c r="C275" t="s">
         <v>811</v>
       </c>
-      <c r="D275" s="52">
+      <c r="D275" s="42">
         <v>13419</v>
       </c>
     </row>
-    <row r="276" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B276" t="s">
         <v>812</v>
       </c>
       <c r="C276" t="s">
         <v>813</v>
       </c>
-      <c r="D276" s="52">
+      <c r="D276" s="42">
         <v>9115</v>
       </c>
     </row>
-    <row r="277" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B277" t="s">
         <v>814</v>
       </c>
       <c r="C277" t="s">
         <v>815</v>
       </c>
-      <c r="D277" s="52">
+      <c r="D277" s="42">
         <v>20551</v>
       </c>
     </row>
-    <row r="278" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B278" t="s">
         <v>816</v>
       </c>
-      <c r="C278" s="53" t="s">
+      <c r="C278" s="43" t="s">
         <v>817</v>
       </c>
-      <c r="D278" s="52">
+      <c r="D278" s="42">
         <v>49895</v>
       </c>
-    </row>
-    <row r="279" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E278" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="279" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B279" t="s">
         <v>818</v>
       </c>
-      <c r="C279" s="53" t="s">
+      <c r="C279" s="43" t="s">
         <v>819</v>
       </c>
-      <c r="D279" s="52">
+      <c r="D279" s="42">
         <v>7020</v>
       </c>
-    </row>
-    <row r="280" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E279" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="280" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B280" t="s">
         <v>820</v>
       </c>
-      <c r="C280" s="53" t="s">
+      <c r="C280" s="43" t="s">
         <v>821</v>
       </c>
-      <c r="D280" s="52">
+      <c r="D280" s="42">
         <v>6964</v>
       </c>
-    </row>
-    <row r="281" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E280" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="281" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B281" t="s">
         <v>822</v>
       </c>
-      <c r="C281" s="53" t="s">
+      <c r="C281" s="43" t="s">
         <v>823</v>
       </c>
-      <c r="D281" s="52">
+      <c r="D281" s="42">
         <v>31879</v>
       </c>
-    </row>
-    <row r="282" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E281" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="282" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B282" t="s">
         <v>824</v>
       </c>
-      <c r="C282" s="53" t="s">
+      <c r="C282" s="43" t="s">
         <v>825</v>
       </c>
-      <c r="D282" s="52">
+      <c r="D282" s="42">
         <v>117887</v>
       </c>
-    </row>
-    <row r="283" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E282" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="283" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B283" t="s">
         <v>826</v>
       </c>
-      <c r="C283" s="53" t="s">
+      <c r="C283" s="43" t="s">
         <v>827</v>
       </c>
-      <c r="D283" s="52">
+      <c r="D283" s="42">
         <v>85442</v>
       </c>
-    </row>
-    <row r="284" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E283" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="284" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B284" t="s">
         <v>828</v>
       </c>
-      <c r="C284" s="53" t="s">
+      <c r="C284" s="43" t="s">
         <v>829</v>
       </c>
-      <c r="D284" s="52">
+      <c r="D284" s="42">
         <v>14641</v>
       </c>
-    </row>
-    <row r="285" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E284" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="285" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B285" t="s">
         <v>830</v>
       </c>
-      <c r="C285" s="59" t="s">
+      <c r="C285" s="49" t="s">
         <v>831</v>
       </c>
-      <c r="D285" s="52">
+      <c r="D285" s="42">
         <v>14749</v>
       </c>
-    </row>
-    <row r="286" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E285" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="286" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B286" t="s">
         <v>832</v>
       </c>
-      <c r="C286" s="59" t="s">
+      <c r="C286" s="49" t="s">
         <v>833</v>
       </c>
-      <c r="D286" s="52">
+      <c r="D286" s="42">
         <v>208145</v>
       </c>
-    </row>
-    <row r="287" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E286" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="287" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B287" t="s">
         <v>834</v>
       </c>
-      <c r="C287" s="59" t="s">
+      <c r="C287" s="49" t="s">
         <v>835</v>
       </c>
-      <c r="D287" s="52">
+      <c r="D287" s="42">
         <v>15995</v>
       </c>
-    </row>
-    <row r="288" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E287" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="288" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B288" t="s">
         <v>836</v>
       </c>
-      <c r="C288" s="59" t="s">
+      <c r="C288" s="49" t="s">
         <v>837</v>
       </c>
-      <c r="D288" s="52">
+      <c r="D288" s="42">
         <v>30712</v>
       </c>
-    </row>
-    <row r="289" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E288" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="289" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B289" t="s">
         <v>838</v>
       </c>
-      <c r="C289" s="53" t="s">
+      <c r="C289" s="43" t="s">
         <v>839</v>
       </c>
-      <c r="D289" s="52">
+      <c r="D289" s="42">
         <v>19911</v>
       </c>
-    </row>
-    <row r="290" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E289" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="290" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B290" t="s">
         <v>840</v>
       </c>
-      <c r="C290" s="53" t="s">
+      <c r="C290" s="43" t="s">
         <v>841</v>
       </c>
-      <c r="D290" s="52">
+      <c r="D290" s="42">
         <v>15067</v>
       </c>
-    </row>
-    <row r="291" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E290" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="291" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B291" t="s">
         <v>842</v>
       </c>
-      <c r="C291" s="53" t="s">
+      <c r="C291" s="43" t="s">
         <v>843</v>
       </c>
-      <c r="D291" s="52">
+      <c r="D291" s="42">
         <v>27773</v>
       </c>
-    </row>
-    <row r="292" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E291" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="292" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B292" t="s">
         <v>844</v>
       </c>
-      <c r="C292" s="53" t="s">
+      <c r="C292" s="43" t="s">
         <v>845</v>
       </c>
-      <c r="D292" s="52">
+      <c r="D292" s="42">
         <v>12847</v>
       </c>
-    </row>
-    <row r="293" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E292" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="293" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B293" t="s">
         <v>846</v>
       </c>
-      <c r="C293" s="53" t="s">
+      <c r="C293" s="43" t="s">
         <v>847</v>
       </c>
-      <c r="D293" s="52">
+      <c r="D293" s="42">
         <v>38140</v>
       </c>
-    </row>
-    <row r="294" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E293" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="294" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B294" t="s">
         <v>848</v>
       </c>
-      <c r="C294" s="53" t="s">
+      <c r="C294" s="43" t="s">
         <v>849</v>
       </c>
-      <c r="D294" s="52">
+      <c r="D294" s="42">
         <v>42475</v>
       </c>
-    </row>
-    <row r="295" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E294" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="295" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B295" t="s">
         <v>850</v>
       </c>
-      <c r="C295" s="53" t="s">
+      <c r="C295" s="43" t="s">
         <v>851</v>
       </c>
-      <c r="D295" s="52">
+      <c r="D295" s="42">
         <v>5006</v>
       </c>
-    </row>
-    <row r="296" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E295" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="296" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B296" t="s">
         <v>852</v>
       </c>
-      <c r="C296" s="53" t="s">
+      <c r="C296" s="43" t="s">
         <v>853</v>
       </c>
-      <c r="D296" s="52">
+      <c r="D296" s="42">
         <v>40978</v>
       </c>
-    </row>
-    <row r="297" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E296" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="297" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B297" t="s">
         <v>854</v>
       </c>
       <c r="C297" t="s">
         <v>855</v>
       </c>
-      <c r="D297" s="52">
+      <c r="D297" s="42">
         <v>40444</v>
       </c>
     </row>
-    <row r="298" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B298" t="s">
         <v>856</v>
       </c>
       <c r="C298" t="s">
         <v>857</v>
       </c>
-      <c r="D298" s="52">
+      <c r="D298" s="42">
         <v>17753</v>
       </c>
     </row>
-    <row r="299" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B299" t="s">
         <v>858</v>
       </c>
       <c r="C299" t="s">
         <v>859</v>
       </c>
-      <c r="D299" s="52">
+      <c r="D299" s="42">
         <v>3844</v>
       </c>
     </row>
-    <row r="300" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B300" t="s">
         <v>860</v>
       </c>
       <c r="C300" t="s">
         <v>861</v>
       </c>
-      <c r="D300" s="52">
+      <c r="D300" s="42">
         <v>8354</v>
       </c>
     </row>
-    <row r="301" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B301" t="s">
         <v>862</v>
       </c>
       <c r="C301" t="s">
         <v>863</v>
       </c>
-      <c r="D301" s="52">
+      <c r="D301" s="42">
         <v>10613</v>
       </c>
     </row>
-    <row r="302" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B302" t="s">
         <v>864</v>
       </c>
       <c r="C302" t="s">
         <v>865</v>
       </c>
-      <c r="D302" s="52">
+      <c r="D302" s="42">
         <v>11961</v>
       </c>
     </row>
-    <row r="303" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B303" t="s">
         <v>866</v>
       </c>
       <c r="C303" t="s">
         <v>867</v>
       </c>
-      <c r="D303" s="52">
+      <c r="D303" s="42">
         <v>96787</v>
       </c>
     </row>
-    <row r="304" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B304" t="s">
         <v>868</v>
       </c>
       <c r="C304" t="s">
         <v>869</v>
       </c>
-      <c r="D304" s="52">
+      <c r="D304" s="42">
         <v>20488</v>
       </c>
     </row>
@@ -16382,7 +16445,7 @@
       <c r="C305" t="s">
         <v>871</v>
       </c>
-      <c r="D305" s="52">
+      <c r="D305" s="42">
         <v>5369</v>
       </c>
     </row>
@@ -16393,7 +16456,7 @@
       <c r="C306" t="s">
         <v>873</v>
       </c>
-      <c r="D306" s="52">
+      <c r="D306" s="42">
         <v>17928</v>
       </c>
     </row>
@@ -16404,7 +16467,7 @@
       <c r="C307" t="s">
         <v>875</v>
       </c>
-      <c r="D307" s="52">
+      <c r="D307" s="42">
         <v>124484</v>
       </c>
     </row>
@@ -16415,7 +16478,7 @@
       <c r="C308" t="s">
         <v>877</v>
       </c>
-      <c r="D308" s="52">
+      <c r="D308" s="42">
         <v>219053</v>
       </c>
     </row>
@@ -16426,7 +16489,7 @@
       <c r="C309" t="s">
         <v>879</v>
       </c>
-      <c r="D309" s="52">
+      <c r="D309" s="42">
         <v>171121</v>
       </c>
     </row>
@@ -16437,7 +16500,7 @@
       <c r="C310" t="s">
         <v>881</v>
       </c>
-      <c r="D310" s="52">
+      <c r="D310" s="42">
         <v>179070</v>
       </c>
     </row>
@@ -16448,7 +16511,7 @@
       <c r="C311" t="s">
         <v>883</v>
       </c>
-      <c r="D311" s="52">
+      <c r="D311" s="42">
         <v>242634</v>
       </c>
     </row>
@@ -16459,7 +16522,7 @@
       <c r="C312" t="s">
         <v>885</v>
       </c>
-      <c r="D312" s="52">
+      <c r="D312" s="42">
         <v>176440</v>
       </c>
     </row>
@@ -16470,7 +16533,7 @@
       <c r="C313" t="s">
         <v>887</v>
       </c>
-      <c r="D313" s="52">
+      <c r="D313" s="42">
         <v>148392</v>
       </c>
     </row>
@@ -16481,7 +16544,7 @@
       <c r="C314" t="s">
         <v>889</v>
       </c>
-      <c r="D314" s="52">
+      <c r="D314" s="42">
         <v>146367</v>
       </c>
     </row>
@@ -16492,7 +16555,7 @@
       <c r="C315" t="s">
         <v>891</v>
       </c>
-      <c r="D315" s="52">
+      <c r="D315" s="42">
         <v>322061</v>
       </c>
     </row>
@@ -16503,7 +16566,7 @@
       <c r="C316" t="s">
         <v>893</v>
       </c>
-      <c r="D316" s="52">
+      <c r="D316" s="42">
         <v>83011</v>
       </c>
     </row>
@@ -16514,7 +16577,7 @@
       <c r="C317" t="s">
         <v>895</v>
       </c>
-      <c r="D317" s="52">
+      <c r="D317" s="42">
         <v>38123</v>
       </c>
     </row>
@@ -16525,7 +16588,7 @@
       <c r="C318" t="s">
         <v>897</v>
       </c>
-      <c r="D318" s="52">
+      <c r="D318" s="42">
         <v>279078</v>
       </c>
     </row>
@@ -16536,7 +16599,7 @@
       <c r="C319" t="s">
         <v>899</v>
       </c>
-      <c r="D319" s="52">
+      <c r="D319" s="42">
         <v>227964</v>
       </c>
     </row>
@@ -16547,7 +16610,7 @@
       <c r="C320" t="s">
         <v>901</v>
       </c>
-      <c r="D320" s="52">
+      <c r="D320" s="42">
         <v>230215</v>
       </c>
     </row>
@@ -16558,7 +16621,7 @@
       <c r="C321" t="s">
         <v>903</v>
       </c>
-      <c r="D321" s="52">
+      <c r="D321" s="42">
         <v>140227</v>
       </c>
     </row>
@@ -16569,7 +16632,7 @@
       <c r="C322" t="s">
         <v>905</v>
       </c>
-      <c r="D322" s="52">
+      <c r="D322" s="42">
         <v>101522</v>
       </c>
     </row>
@@ -16580,7 +16643,7 @@
       <c r="C323" t="s">
         <v>907</v>
       </c>
-      <c r="D323" s="52">
+      <c r="D323" s="42">
         <v>92474</v>
       </c>
     </row>
@@ -16591,7 +16654,7 @@
       <c r="C324" t="s">
         <v>909</v>
       </c>
-      <c r="D324" s="52">
+      <c r="D324" s="42">
         <v>137915</v>
       </c>
     </row>
@@ -16602,7 +16665,7 @@
       <c r="C325" t="s">
         <v>911</v>
       </c>
-      <c r="D325" s="52">
+      <c r="D325" s="42">
         <v>229646</v>
       </c>
     </row>
@@ -16613,7 +16676,7 @@
       <c r="C326" t="s">
         <v>913</v>
       </c>
-      <c r="D326" s="52">
+      <c r="D326" s="42">
         <v>57722</v>
       </c>
     </row>
@@ -16624,7 +16687,7 @@
       <c r="C327" t="s">
         <v>915</v>
       </c>
-      <c r="D327" s="52">
+      <c r="D327" s="42">
         <v>35581</v>
       </c>
     </row>
@@ -16635,7 +16698,7 @@
       <c r="C328" t="s">
         <v>917</v>
       </c>
-      <c r="D328" s="52">
+      <c r="D328" s="42">
         <v>43933</v>
       </c>
     </row>
@@ -16646,7 +16709,7 @@
       <c r="C329" t="s">
         <v>919</v>
       </c>
-      <c r="D329" s="52">
+      <c r="D329" s="42">
         <v>68922</v>
       </c>
     </row>
@@ -16657,7 +16720,7 @@
       <c r="C330" t="s">
         <v>921</v>
       </c>
-      <c r="D330" s="52">
+      <c r="D330" s="42">
         <v>211318</v>
       </c>
     </row>
@@ -16668,7 +16731,7 @@
       <c r="C331" t="s">
         <v>923</v>
       </c>
-      <c r="D331" s="52">
+      <c r="D331" s="42">
         <v>82025</v>
       </c>
     </row>
@@ -16679,7 +16742,7 @@
       <c r="C332" t="s">
         <v>925</v>
       </c>
-      <c r="D332" s="52">
+      <c r="D332" s="42">
         <v>47194</v>
       </c>
     </row>
@@ -16690,7 +16753,7 @@
       <c r="C333" t="s">
         <v>927</v>
       </c>
-      <c r="D333" s="52">
+      <c r="D333" s="42">
         <v>332550</v>
       </c>
     </row>
@@ -16701,7 +16764,7 @@
       <c r="C334" t="s">
         <v>929</v>
       </c>
-      <c r="D334" s="52">
+      <c r="D334" s="42">
         <v>65769</v>
       </c>
     </row>
@@ -16712,7 +16775,7 @@
       <c r="C335" t="s">
         <v>931</v>
       </c>
-      <c r="D335" s="52">
+      <c r="D335" s="42">
         <v>43699</v>
       </c>
     </row>
@@ -16723,7 +16786,7 @@
       <c r="C336" t="s">
         <v>933</v>
       </c>
-      <c r="D336" s="52">
+      <c r="D336" s="42">
         <v>137453</v>
       </c>
     </row>
@@ -16734,7 +16797,7 @@
       <c r="C337" t="s">
         <v>935</v>
       </c>
-      <c r="D337" s="52">
+      <c r="D337" s="42">
         <v>80430</v>
       </c>
     </row>
@@ -16745,7 +16808,7 @@
       <c r="C338" t="s">
         <v>937</v>
       </c>
-      <c r="D338" s="52">
+      <c r="D338" s="42">
         <v>120074</v>
       </c>
     </row>
@@ -16756,7 +16819,7 @@
       <c r="C339" t="s">
         <v>939</v>
       </c>
-      <c r="D339" s="52">
+      <c r="D339" s="42">
         <v>27110</v>
       </c>
     </row>
@@ -16767,7 +16830,7 @@
       <c r="C340" t="s">
         <v>941</v>
       </c>
-      <c r="D340" s="52">
+      <c r="D340" s="42">
         <v>29340</v>
       </c>
     </row>
@@ -16778,7 +16841,7 @@
       <c r="C341" t="s">
         <v>943</v>
       </c>
-      <c r="D341" s="52">
+      <c r="D341" s="42">
         <v>38375</v>
       </c>
     </row>
@@ -16789,7 +16852,7 @@
       <c r="C342" t="s">
         <v>945</v>
       </c>
-      <c r="D342" s="52">
+      <c r="D342" s="42">
         <v>14438</v>
       </c>
     </row>
@@ -16800,7 +16863,7 @@
       <c r="C343" t="s">
         <v>947</v>
       </c>
-      <c r="D343" s="52">
+      <c r="D343" s="42">
         <v>212383</v>
       </c>
     </row>
@@ -16811,7 +16874,7 @@
       <c r="C344" t="s">
         <v>949</v>
       </c>
-      <c r="D344" s="52">
+      <c r="D344" s="42">
         <v>126697</v>
       </c>
     </row>
@@ -16822,7 +16885,7 @@
       <c r="C345" t="s">
         <v>951</v>
       </c>
-      <c r="D345" s="52">
+      <c r="D345" s="42">
         <v>16643</v>
       </c>
     </row>
@@ -16833,7 +16896,7 @@
       <c r="C346" t="s">
         <v>953</v>
       </c>
-      <c r="D346" s="52">
+      <c r="D346" s="42">
         <v>83920</v>
       </c>
     </row>
@@ -16844,7 +16907,7 @@
       <c r="C347" t="s">
         <v>955</v>
       </c>
-      <c r="D347" s="52">
+      <c r="D347" s="42">
         <v>97373</v>
       </c>
     </row>
@@ -16855,7 +16918,7 @@
       <c r="C348" t="s">
         <v>957</v>
       </c>
-      <c r="D348" s="52">
+      <c r="D348" s="42">
         <v>334092</v>
       </c>
     </row>
@@ -16866,7 +16929,7 @@
       <c r="C349" t="s">
         <v>959</v>
       </c>
-      <c r="D349" s="52">
+      <c r="D349" s="42">
         <v>261627</v>
       </c>
     </row>
@@ -16877,7 +16940,7 @@
       <c r="C350" t="s">
         <v>961</v>
       </c>
-      <c r="D350" s="52">
+      <c r="D350" s="42">
         <v>45066</v>
       </c>
     </row>
@@ -16888,7 +16951,7 @@
       <c r="C351" t="s">
         <v>963</v>
       </c>
-      <c r="D351" s="52">
+      <c r="D351" s="42">
         <v>148620</v>
       </c>
     </row>
@@ -16899,7 +16962,7 @@
       <c r="C352" t="s">
         <v>965</v>
       </c>
-      <c r="D352" s="52">
+      <c r="D352" s="42">
         <v>132937</v>
       </c>
     </row>
@@ -16910,7 +16973,7 @@
       <c r="C353" t="s">
         <v>967</v>
       </c>
-      <c r="D353" s="52">
+      <c r="D353" s="42">
         <v>9245</v>
       </c>
     </row>
@@ -16921,7 +16984,7 @@
       <c r="C354" t="s">
         <v>969</v>
       </c>
-      <c r="D354" s="52">
+      <c r="D354" s="42">
         <v>296293</v>
       </c>
     </row>
@@ -16932,7 +16995,7 @@
       <c r="C355" t="s">
         <v>971</v>
       </c>
-      <c r="D355" s="52">
+      <c r="D355" s="42">
         <v>520425</v>
       </c>
     </row>
@@ -16943,7 +17006,7 @@
       <c r="C356" t="s">
         <v>973</v>
       </c>
-      <c r="D356" s="52">
+      <c r="D356" s="42">
         <v>349439</v>
       </c>
     </row>
@@ -16954,7 +17017,7 @@
       <c r="C357" t="s">
         <v>975</v>
       </c>
-      <c r="D357" s="52">
+      <c r="D357" s="42">
         <v>218793</v>
       </c>
     </row>
@@ -16965,7 +17028,7 @@
       <c r="C358" t="s">
         <v>977</v>
       </c>
-      <c r="D358" s="52">
+      <c r="D358" s="42">
         <v>88034</v>
       </c>
     </row>
@@ -16976,7 +17039,7 @@
       <c r="C359" t="s">
         <v>979</v>
       </c>
-      <c r="D359" s="52">
+      <c r="D359" s="42">
         <v>586732</v>
       </c>
     </row>
@@ -16987,7 +17050,7 @@
       <c r="C360" t="s">
         <v>981</v>
       </c>
-      <c r="D360" s="52">
+      <c r="D360" s="42">
         <v>344723</v>
       </c>
     </row>
@@ -16998,7 +17061,7 @@
       <c r="C361" t="s">
         <v>983</v>
       </c>
-      <c r="D361" s="52">
+      <c r="D361" s="42">
         <v>163544</v>
       </c>
     </row>
@@ -17009,7 +17072,7 @@
       <c r="C362" t="s">
         <v>985</v>
       </c>
-      <c r="D362" s="52">
+      <c r="D362" s="42">
         <v>1416584</v>
       </c>
     </row>
@@ -17020,7 +17083,7 @@
       <c r="C363" t="s">
         <v>987</v>
       </c>
-      <c r="D363" s="52">
+      <c r="D363" s="42">
         <v>530391</v>
       </c>
     </row>
@@ -17031,7 +17094,7 @@
       <c r="C364" t="s">
         <v>989</v>
       </c>
-      <c r="D364" s="52">
+      <c r="D364" s="42">
         <v>1123901</v>
       </c>
     </row>
@@ -17042,7 +17105,7 @@
       <c r="C365" t="s">
         <v>991</v>
       </c>
-      <c r="D365" s="52">
+      <c r="D365" s="42">
         <v>61256</v>
       </c>
     </row>
@@ -17053,7 +17116,7 @@
       <c r="C366" t="s">
         <v>993</v>
       </c>
-      <c r="D366" s="52">
+      <c r="D366" s="42">
         <v>77621</v>
       </c>
     </row>
@@ -17064,7 +17127,7 @@
       <c r="C367" t="s">
         <v>995</v>
       </c>
-      <c r="D367" s="52">
+      <c r="D367" s="42">
         <v>29242</v>
       </c>
     </row>
@@ -17075,7 +17138,7 @@
       <c r="C368" t="s">
         <v>997</v>
       </c>
-      <c r="D368" s="52">
+      <c r="D368" s="42">
         <v>161188</v>
       </c>
     </row>
@@ -17086,7 +17149,7 @@
       <c r="C369" t="s">
         <v>999</v>
       </c>
-      <c r="D369" s="52">
+      <c r="D369" s="42">
         <v>331383</v>
       </c>
     </row>
@@ -17097,7 +17160,7 @@
       <c r="C370" t="s">
         <v>1001</v>
       </c>
-      <c r="D370" s="52">
+      <c r="D370" s="42">
         <v>155017</v>
       </c>
     </row>
@@ -17108,7 +17171,7 @@
       <c r="C371" t="s">
         <v>1003</v>
       </c>
-      <c r="D371" s="52">
+      <c r="D371" s="42">
         <v>163308</v>
       </c>
     </row>
@@ -17119,7 +17182,7 @@
       <c r="C372" t="s">
         <v>1005</v>
       </c>
-      <c r="D372" s="52">
+      <c r="D372" s="42">
         <v>63364</v>
       </c>
     </row>
@@ -17130,7 +17193,7 @@
       <c r="C373" t="s">
         <v>1007</v>
       </c>
-      <c r="D373" s="52">
+      <c r="D373" s="42">
         <v>193482</v>
       </c>
     </row>
@@ -17141,7 +17204,7 @@
       <c r="C374" t="s">
         <v>1009</v>
       </c>
-      <c r="D374" s="52">
+      <c r="D374" s="42">
         <v>311584</v>
       </c>
     </row>
@@ -17152,7 +17215,7 @@
       <c r="C375" t="s">
         <v>1011</v>
       </c>
-      <c r="D375" s="52">
+      <c r="D375" s="42">
         <v>232966</v>
       </c>
     </row>
@@ -17163,7 +17226,7 @@
       <c r="C376" t="s">
         <v>1013</v>
       </c>
-      <c r="D376" s="52">
+      <c r="D376" s="42">
         <v>49844</v>
       </c>
     </row>
@@ -17174,7 +17237,7 @@
       <c r="C377" t="s">
         <v>1015</v>
       </c>
-      <c r="D377" s="52">
+      <c r="D377" s="42">
         <v>202086</v>
       </c>
     </row>
@@ -17185,7 +17248,7 @@
       <c r="C378" t="s">
         <v>1017</v>
       </c>
-      <c r="D378" s="52">
+      <c r="D378" s="42">
         <v>125875</v>
       </c>
     </row>
@@ -17196,7 +17259,7 @@
       <c r="C379" t="s">
         <v>1019</v>
       </c>
-      <c r="D379" s="52">
+      <c r="D379" s="42">
         <v>33044</v>
       </c>
     </row>
@@ -17207,7 +17270,7 @@
       <c r="C380" t="s">
         <v>1021</v>
       </c>
-      <c r="D380" s="52">
+      <c r="D380" s="42">
         <v>11848</v>
       </c>
     </row>
@@ -17218,7 +17281,7 @@
       <c r="C381" t="s">
         <v>1023</v>
       </c>
-      <c r="D381" s="52">
+      <c r="D381" s="42">
         <v>36577</v>
       </c>
     </row>
@@ -17229,7 +17292,7 @@
       <c r="C382" t="s">
         <v>1025</v>
       </c>
-      <c r="D382" s="52">
+      <c r="D382" s="42">
         <v>88795</v>
       </c>
     </row>
@@ -17240,7 +17303,7 @@
       <c r="C383" t="s">
         <v>1027</v>
       </c>
-      <c r="D383" s="52">
+      <c r="D383" s="42">
         <v>561730</v>
       </c>
     </row>
@@ -17251,183 +17314,186 @@
       <c r="C384" t="s">
         <v>1029</v>
       </c>
-      <c r="D384" s="52">
+      <c r="D384" s="42">
         <v>330772</v>
       </c>
     </row>
-    <row r="385" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B385" t="s">
         <v>1030</v>
       </c>
       <c r="C385" t="s">
         <v>1031</v>
       </c>
-      <c r="D385" s="52">
+      <c r="D385" s="42">
         <v>171767</v>
       </c>
     </row>
-    <row r="386" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B386" t="s">
         <v>1032</v>
       </c>
       <c r="C386" t="s">
         <v>1033</v>
       </c>
-      <c r="D386" s="52">
+      <c r="D386" s="42">
         <v>56592</v>
       </c>
     </row>
-    <row r="387" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B387" t="s">
         <v>1034</v>
       </c>
       <c r="C387" t="s">
         <v>1035</v>
       </c>
-      <c r="D387" s="52">
+      <c r="D387" s="42">
         <v>28243</v>
       </c>
     </row>
-    <row r="388" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B388" t="s">
         <v>1036</v>
       </c>
       <c r="C388" t="s">
         <v>1037</v>
       </c>
-      <c r="D388" s="52">
+      <c r="D388" s="42">
         <v>71905</v>
       </c>
     </row>
-    <row r="389" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B389" t="s">
         <v>1038</v>
       </c>
       <c r="C389" t="s">
         <v>1039</v>
       </c>
-      <c r="D389" s="52">
+      <c r="D389" s="42">
         <v>44806</v>
       </c>
     </row>
-    <row r="390" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B390" t="s">
         <v>1040</v>
       </c>
       <c r="C390" t="s">
         <v>1041</v>
       </c>
-      <c r="D390" s="52">
+      <c r="D390" s="42">
         <v>56610</v>
       </c>
     </row>
-    <row r="391" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B391" t="s">
         <v>1042</v>
       </c>
       <c r="C391" t="s">
         <v>1043</v>
       </c>
-      <c r="D391" s="52">
+      <c r="D391" s="42">
         <v>47162</v>
       </c>
     </row>
-    <row r="392" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B392" t="s">
         <v>1044</v>
       </c>
-      <c r="C392" t="s">
+      <c r="C392" s="18" t="s">
         <v>1045</v>
       </c>
-      <c r="D392" s="52">
+      <c r="D392" s="42">
         <v>89811</v>
       </c>
-    </row>
-    <row r="393" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E392" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="393" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B393" t="s">
         <v>1046</v>
       </c>
       <c r="C393" t="s">
         <v>1047</v>
       </c>
-      <c r="D393" s="52">
+      <c r="D393" s="42">
         <v>43618</v>
       </c>
     </row>
-    <row r="394" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B394" t="s">
         <v>1048</v>
       </c>
       <c r="C394" t="s">
         <v>1049</v>
       </c>
-      <c r="D394" s="52">
+      <c r="D394" s="42">
         <v>225344</v>
       </c>
     </row>
-    <row r="395" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B395" t="s">
         <v>1050</v>
       </c>
       <c r="C395" t="s">
         <v>1051</v>
       </c>
-      <c r="D395" s="52">
+      <c r="D395" s="42">
         <v>72133</v>
       </c>
     </row>
-    <row r="396" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B396" t="s">
         <v>1052</v>
       </c>
       <c r="C396" t="s">
         <v>1053</v>
       </c>
-      <c r="D396" s="52">
+      <c r="D396" s="42">
         <v>465471</v>
       </c>
     </row>
-    <row r="397" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B397" t="s">
         <v>1054</v>
       </c>
       <c r="C397" t="s">
         <v>1055</v>
       </c>
-      <c r="D397" s="52">
+      <c r="D397" s="42">
         <v>116720</v>
       </c>
     </row>
-    <row r="398" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B398" t="s">
         <v>1056</v>
       </c>
       <c r="C398" t="s">
         <v>1057</v>
       </c>
-      <c r="D398" s="52">
+      <c r="D398" s="42">
         <v>99000</v>
       </c>
     </row>
-    <row r="399" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B399" t="s">
         <v>1058</v>
       </c>
       <c r="C399" t="s">
         <v>1059</v>
       </c>
-      <c r="D399" s="52">
+      <c r="D399" s="42">
         <v>110970</v>
       </c>
     </row>
-    <row r="400" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B400" t="s">
         <v>1060</v>
       </c>
       <c r="C400" t="s">
         <v>1061</v>
       </c>
-      <c r="D400" s="52">
+      <c r="D400" s="42">
         <v>53964</v>
       </c>
     </row>
@@ -17438,7 +17504,7 @@
       <c r="C401" t="s">
         <v>1063</v>
       </c>
-      <c r="D401" s="52">
+      <c r="D401" s="42">
         <v>75155</v>
       </c>
     </row>
@@ -17449,7 +17515,7 @@
       <c r="C402" t="s">
         <v>1065</v>
       </c>
-      <c r="D402" s="52">
+      <c r="D402" s="42">
         <v>35396</v>
       </c>
     </row>
@@ -17460,7 +17526,7 @@
       <c r="C403" t="s">
         <v>1067</v>
       </c>
-      <c r="D403" s="52">
+      <c r="D403" s="42">
         <v>813054</v>
       </c>
     </row>
@@ -17471,7 +17537,7 @@
       <c r="C404" t="s">
         <v>1069</v>
       </c>
-      <c r="D404" s="52">
+      <c r="D404" s="42">
         <v>184319</v>
       </c>
     </row>
@@ -17482,7 +17548,7 @@
       <c r="C405" t="s">
         <v>1071</v>
       </c>
-      <c r="D405" s="52">
+      <c r="D405" s="42">
         <v>46401</v>
       </c>
     </row>
@@ -17493,7 +17559,7 @@
       <c r="C406" t="s">
         <v>1073</v>
       </c>
-      <c r="D406" s="52">
+      <c r="D406" s="42">
         <v>93433</v>
       </c>
     </row>
@@ -17504,7 +17570,7 @@
       <c r="C407" t="s">
         <v>1075</v>
       </c>
-      <c r="D407" s="52">
+      <c r="D407" s="42">
         <v>48681</v>
       </c>
     </row>
@@ -17515,7 +17581,7 @@
       <c r="C408" t="s">
         <v>1077</v>
       </c>
-      <c r="D408" s="52">
+      <c r="D408" s="42">
         <v>45458</v>
       </c>
     </row>
@@ -17526,7 +17592,7 @@
       <c r="C409" t="s">
         <v>1079</v>
       </c>
-      <c r="D409" s="52">
+      <c r="D409" s="42">
         <v>22884</v>
       </c>
     </row>
@@ -17537,7 +17603,7 @@
       <c r="C410" t="s">
         <v>1081</v>
       </c>
-      <c r="D410" s="52">
+      <c r="D410" s="42">
         <v>45096</v>
       </c>
     </row>
@@ -17548,7 +17614,7 @@
       <c r="C411" t="s">
         <v>1083</v>
       </c>
-      <c r="D411" s="52">
+      <c r="D411" s="42">
         <v>41997</v>
       </c>
     </row>
@@ -17559,7 +17625,7 @@
       <c r="C412" t="s">
         <v>1085</v>
       </c>
-      <c r="D412" s="52">
+      <c r="D412" s="42">
         <v>44265</v>
       </c>
     </row>
@@ -17570,7 +17636,7 @@
       <c r="C413" t="s">
         <v>1087</v>
       </c>
-      <c r="D413" s="52">
+      <c r="D413" s="42">
         <v>14730</v>
       </c>
     </row>
@@ -17581,7 +17647,7 @@
       <c r="C414" t="s">
         <v>1089</v>
       </c>
-      <c r="D414" s="52">
+      <c r="D414" s="42">
         <v>18301</v>
       </c>
     </row>
@@ -17592,7 +17658,7 @@
       <c r="C415" t="s">
         <v>1091</v>
       </c>
-      <c r="D415" s="52">
+      <c r="D415" s="42">
         <v>35926</v>
       </c>
     </row>
@@ -17603,7 +17669,7 @@
       <c r="C416" t="s">
         <v>1093</v>
       </c>
-      <c r="D416" s="52">
+      <c r="D416" s="42">
         <v>81758</v>
       </c>
     </row>
@@ -17614,7 +17680,7 @@
       <c r="C417" t="s">
         <v>1095</v>
       </c>
-      <c r="D417" s="52">
+      <c r="D417" s="42">
         <v>258628</v>
       </c>
     </row>
@@ -17625,7 +17691,7 @@
       <c r="C418" t="s">
         <v>1097</v>
       </c>
-      <c r="D418" s="52">
+      <c r="D418" s="42">
         <v>336211</v>
       </c>
     </row>
@@ -17636,7 +17702,7 @@
       <c r="C419" t="s">
         <v>1099</v>
       </c>
-      <c r="D419" s="52">
+      <c r="D419" s="42">
         <v>303694</v>
       </c>
     </row>
@@ -17647,7 +17713,7 @@
       <c r="C420" t="s">
         <v>1101</v>
       </c>
-      <c r="D420" s="52">
+      <c r="D420" s="42">
         <v>98573</v>
       </c>
     </row>
@@ -17658,7 +17724,7 @@
       <c r="C421" t="s">
         <v>1103</v>
       </c>
-      <c r="D421" s="52">
+      <c r="D421" s="42">
         <v>120747</v>
       </c>
     </row>
@@ -17669,7 +17735,7 @@
       <c r="C422" t="s">
         <v>1105</v>
       </c>
-      <c r="D422" s="52">
+      <c r="D422" s="42">
         <v>22166</v>
       </c>
     </row>
@@ -17680,7 +17746,7 @@
       <c r="C423" t="s">
         <v>1107</v>
       </c>
-      <c r="D423" s="52">
+      <c r="D423" s="42">
         <v>37604</v>
       </c>
     </row>
@@ -17691,7 +17757,7 @@
       <c r="C424" t="s">
         <v>1109</v>
       </c>
-      <c r="D424" s="52">
+      <c r="D424" s="42">
         <v>22329</v>
       </c>
     </row>
@@ -17702,7 +17768,7 @@
       <c r="C425" t="s">
         <v>1111</v>
       </c>
-      <c r="D425" s="52">
+      <c r="D425" s="42">
         <v>80111</v>
       </c>
     </row>
@@ -17713,7 +17779,7 @@
       <c r="C426" t="s">
         <v>1113</v>
       </c>
-      <c r="D426" s="52">
+      <c r="D426" s="42">
         <v>20088</v>
       </c>
     </row>
@@ -17724,7 +17790,7 @@
       <c r="C427" t="s">
         <v>1115</v>
       </c>
-      <c r="D427" s="52">
+      <c r="D427" s="42">
         <v>28962</v>
       </c>
     </row>
@@ -17735,7 +17801,7 @@
       <c r="C428" t="s">
         <v>1117</v>
       </c>
-      <c r="D428" s="52">
+      <c r="D428" s="42">
         <v>62899</v>
       </c>
     </row>
@@ -17746,7 +17812,7 @@
       <c r="C429" t="s">
         <v>1119</v>
       </c>
-      <c r="D429" s="52">
+      <c r="D429" s="42">
         <v>93020</v>
       </c>
     </row>
@@ -17757,7 +17823,7 @@
       <c r="C430" t="s">
         <v>1121</v>
       </c>
-      <c r="D430" s="52">
+      <c r="D430" s="42">
         <v>57520</v>
       </c>
     </row>
@@ -17768,7 +17834,7 @@
       <c r="C431" t="s">
         <v>1123</v>
       </c>
-      <c r="D431" s="52">
+      <c r="D431" s="42">
         <v>75682</v>
       </c>
     </row>
@@ -17779,7 +17845,7 @@
       <c r="C432" t="s">
         <v>1125</v>
       </c>
-      <c r="D432" s="52">
+      <c r="D432" s="42">
         <v>21314</v>
       </c>
     </row>
@@ -17790,7 +17856,7 @@
       <c r="C433" t="s">
         <v>1127</v>
       </c>
-      <c r="D433" s="52">
+      <c r="D433" s="42">
         <v>613306</v>
       </c>
     </row>
@@ -17801,7 +17867,7 @@
       <c r="C434" t="s">
         <v>1129</v>
       </c>
-      <c r="D434" s="52">
+      <c r="D434" s="42">
         <v>390322</v>
       </c>
     </row>
@@ -17812,7 +17878,7 @@
       <c r="C435" t="s">
         <v>1131</v>
       </c>
-      <c r="D435" s="52">
+      <c r="D435" s="42">
         <v>62768</v>
       </c>
     </row>
@@ -17823,7 +17889,7 @@
       <c r="C436" t="s">
         <v>1133</v>
       </c>
-      <c r="D436" s="52">
+      <c r="D436" s="42">
         <v>13843</v>
       </c>
     </row>
@@ -17834,7 +17900,7 @@
       <c r="C437" t="s">
         <v>1135</v>
       </c>
-      <c r="D437" s="52">
+      <c r="D437" s="42">
         <v>17451</v>
       </c>
     </row>
@@ -17845,7 +17911,7 @@
       <c r="C438" t="s">
         <v>1137</v>
       </c>
-      <c r="D438" s="52">
+      <c r="D438" s="42">
         <v>974593</v>
       </c>
     </row>
@@ -17856,7 +17922,7 @@
       <c r="C439" t="s">
         <v>1139</v>
       </c>
-      <c r="D439" s="52">
+      <c r="D439" s="42">
         <v>286138</v>
       </c>
     </row>
@@ -17867,7 +17933,7 @@
       <c r="C440" t="s">
         <v>1141</v>
       </c>
-      <c r="D440" s="52">
+      <c r="D440" s="42">
         <v>879668</v>
       </c>
     </row>
@@ -17878,7 +17944,7 @@
       <c r="C441" t="s">
         <v>1143</v>
       </c>
-      <c r="D441" s="52">
+      <c r="D441" s="42">
         <v>16399</v>
       </c>
     </row>
@@ -17889,7 +17955,7 @@
       <c r="C442" t="s">
         <v>1145</v>
       </c>
-      <c r="D442" s="52">
+      <c r="D442" s="42">
         <v>62898</v>
       </c>
     </row>
@@ -17900,7 +17966,7 @@
       <c r="C443" t="s">
         <v>1147</v>
       </c>
-      <c r="D443" s="52">
+      <c r="D443" s="42">
         <v>248131</v>
       </c>
     </row>
@@ -17923,8 +17989,8 @@
   </sheetPr>
   <dimension ref="A1:AQ2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AB2" sqref="AB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17942,10 +18008,10 @@
       <c r="B1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="50" t="s">
         <v>175</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="51" t="s">
         <v>176</v>
       </c>
       <c r="E1" s="4" t="s">
@@ -17969,25 +18035,25 @@
       <c r="K1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="60" t="s">
+      <c r="L1" s="50" t="s">
         <v>146</v>
       </c>
-      <c r="M1" s="61" t="s">
+      <c r="M1" s="51" t="s">
         <v>147</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="60" t="s">
+      <c r="O1" s="50" t="s">
         <v>1148</v>
       </c>
-      <c r="P1" s="61" t="s">
+      <c r="P1" s="51" t="s">
         <v>1149</v>
       </c>
-      <c r="Q1" s="60" t="s">
+      <c r="Q1" s="50" t="s">
         <v>1150</v>
       </c>
-      <c r="R1" s="61" t="s">
+      <c r="R1" s="51" t="s">
         <v>1151</v>
       </c>
       <c r="S1" s="4" t="s">
@@ -18011,13 +18077,13 @@
       <c r="Y1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" s="60" t="s">
+      <c r="Z1" s="50" t="s">
         <v>1152</v>
       </c>
-      <c r="AA1" s="64" t="s">
+      <c r="AA1" s="54" t="s">
         <v>1153</v>
       </c>
-      <c r="AB1" s="61" t="s">
+      <c r="AB1" s="51" t="s">
         <v>1154</v>
       </c>
       <c r="AC1" s="4" t="s">
@@ -18074,11 +18140,11 @@
         <f>'OECD TTL'!C48*10^6*About!$A$36</f>
         <v>187808079924.22485</v>
       </c>
-      <c r="C2" s="62">
+      <c r="C2" s="52">
         <f>'OECD TTL'!D48*10^6*About!$A$36*('U.S. Data for ISIC Splits'!D9/SUM('U.S. Data for ISIC Splits'!D9:E9))</f>
         <v>23194951866.592281</v>
       </c>
-      <c r="D2" s="63">
+      <c r="D2" s="53">
         <f>'OECD TTL'!D48*10^6*About!$A$36*('U.S. Data for ISIC Splits'!E9/SUM('U.S. Data for ISIC Splits'!D9:E9))</f>
         <v>194233182542.33197</v>
       </c>
@@ -18110,11 +18176,11 @@
         <f>'OECD TTL'!K48*10^6*About!$A$36</f>
         <v>153507743559.32275</v>
       </c>
-      <c r="L2" s="62">
+      <c r="L2" s="52">
         <f>'OECD TTL'!L48*10^6*About!$A$36*('U.S. Data for ISIC Splits'!G9/SUM('U.S. Data for ISIC Splits'!G9:H9))</f>
         <v>239208645625.53159</v>
       </c>
-      <c r="M2" s="63">
+      <c r="M2" s="53">
         <f>'OECD TTL'!L48*10^6*About!$A$36*('U.S. Data for ISIC Splits'!H9/SUM('U.S. Data for ISIC Splits'!G9:H9))</f>
         <v>125000513774.84894</v>
       </c>
@@ -18122,19 +18188,19 @@
         <f>'OECD TTL'!M48*10^6*About!$A$36</f>
         <v>77354066881.278564</v>
       </c>
-      <c r="O2" s="62">
+      <c r="O2" s="52">
         <f>'OECD TTL'!N48*10^6*About!$A$36*('U.S. Data for ISIC Splits'!J9/SUM('U.S. Data for ISIC Splits'!J9:K9))</f>
         <v>10821226552.481733</v>
       </c>
-      <c r="P2" s="63">
+      <c r="P2" s="53">
         <f>'OECD TTL'!N48*10^6*About!$A$36*('U.S. Data for ISIC Splits'!K9/SUM('U.S. Data for ISIC Splits'!J9:K9))</f>
         <v>38974140227.960175</v>
       </c>
-      <c r="Q2" s="62">
+      <c r="Q2" s="52">
         <f>'OECD TTL'!O48*10^6*About!$A$36*('U.S. Data for ISIC Splits'!M9/SUM('U.S. Data for ISIC Splits'!M9:N9))</f>
         <v>30145257379.80682</v>
       </c>
-      <c r="R2" s="63">
+      <c r="R2" s="53">
         <f>'OECD TTL'!O48*10^6*About!$A$36*('U.S. Data for ISIC Splits'!N9/SUM('U.S. Data for ISIC Splits'!M9:N9))</f>
         <v>23754994427.447514</v>
       </c>
@@ -18166,17 +18232,17 @@
         <f>'OECD TTL'!V48*10^6*About!$A$36</f>
         <v>109595276829.93204</v>
       </c>
-      <c r="Z2" s="62">
+      <c r="Z2" s="52">
         <f>'OECD TTL'!W48*10^6*About!$A$36*('U.S. Data for ISIC Splits'!P9/SUM('U.S. Data for ISIC Splits'!P9:R9))</f>
-        <v>238198650059.92285</v>
-      </c>
-      <c r="AA2" s="65">
+        <v>202754893622.36157</v>
+      </c>
+      <c r="AA2" s="55">
         <f>'OECD TTL'!W48*10^6*About!$A$36*('U.S. Data for ISIC Splits'!Q9/SUM('U.S. Data for ISIC Splits'!P9:R9))</f>
-        <v>49603749810.278786</v>
-      </c>
-      <c r="AB2" s="63">
+        <v>42222754048.031776</v>
+      </c>
+      <c r="AB2" s="53">
         <f>'OECD TTL'!W48*10^6*About!$A$36*('U.S. Data for ISIC Splits'!R9/SUM('U.S. Data for ISIC Splits'!P9:R9))</f>
-        <v>8363369308.3804903</v>
+        <v>51188121508.188766</v>
       </c>
       <c r="AC2">
         <f>'OECD TTL'!X48*10^6*About!$A$36</f>

--- a/InputData/io-model/BVAbIC/BAU Value Added by ISIC Code.xlsx
+++ b/InputData/io-model/BVAbIC/BAU Value Added by ISIC Code.xlsx
@@ -5,12 +5,13 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\io-model\BVAbIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mary Francis Swint\Vensim\eps-us\InputData\io-model\BVAbIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D1E8C3-B9E6-4F78-BE54-658960BDB971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEAD525A-0B90-4B2D-A9D0-6B43F691331D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="1" xr2:uid="{5EF2576B-993B-4CC3-A792-3E4B00343B75}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="11370" activeTab="1" xr2:uid="{5EF2576B-993B-4CC3-A792-3E4B00343B75}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{1C8C795B-FBC9-4F02-959E-06AC8995FF66}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,6 @@
     <sheet name="BVAbIC" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="740">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="742">
   <si>
     <t>Source:</t>
   </si>
@@ -2249,25 +2249,35 @@
     <t>ISIC 58T60; ISIC 61</t>
   </si>
   <si>
-    <t>ISIC 45T47; ISIC 31T33; ISIC 86T88</t>
-  </si>
-  <si>
     <t>ISIC 26; ISIC 27</t>
   </si>
   <si>
     <t>US Data</t>
+  </si>
+  <si>
+    <t>ISIC 45T47; ISIC 31T33; ISIC 86T88; ISIC 97T98</t>
+  </si>
+  <si>
+    <t>ISIC 351; ISIC 352T353; ISIC 36T39</t>
+  </si>
+  <si>
+    <t>ISIC 241; ISIC 25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="7">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000E+00"/>
-    <numFmt numFmtId="168" formatCode="0.00000E+00"/>
+    <numFmt numFmtId="166" formatCode="0.00000E+00"/>
+    <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2319,6 +2329,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2477,13 +2494,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2566,19 +2585,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2590,13 +2597,45 @@
     <xf numFmtId="11" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="6">
+    <cellStyle name="Comma" xfId="5" builtinId="3"/>
+    <cellStyle name="Currency" xfId="4" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{3ADF3FF5-E4D2-4BC8-9960-7408DCCB591E}"/>
@@ -2880,100 +2919,101 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="77.5703125" customWidth="1"/>
+    <col min="2" max="2" width="77.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" s="2">
         <v>2021</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B11" s="2">
         <v>2021</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B13" s="3" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B14" s="41" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B15" s="41" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B16" s="41" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>0.84730412960844359</v>
       </c>
@@ -2988,42 +3028,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD066558-DDB4-469E-A78A-47CFC97B3CEE}">
   <dimension ref="A1:S455"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B8" sqref="A8:XFD8"/>
+    <sheetView tabSelected="1" topLeftCell="I87" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
+    <sheetView tabSelected="1" workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="48.28515625" customWidth="1"/>
-    <col min="2" max="2" width="36.28515625" customWidth="1"/>
-    <col min="3" max="3" width="40.140625" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" customWidth="1"/>
-    <col min="7" max="8" width="20.85546875" customWidth="1"/>
-    <col min="9" max="9" width="48.140625" customWidth="1"/>
-    <col min="10" max="10" width="19.85546875" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" customWidth="1"/>
-    <col min="12" max="12" width="22.42578125" customWidth="1"/>
-    <col min="13" max="13" width="20.28515625" customWidth="1"/>
-    <col min="14" max="15" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="48.26953125" customWidth="1"/>
+    <col min="2" max="2" width="36.26953125" customWidth="1"/>
+    <col min="3" max="3" width="40.1796875" customWidth="1"/>
+    <col min="4" max="4" width="20.26953125" customWidth="1"/>
+    <col min="5" max="5" width="24.1796875" customWidth="1"/>
+    <col min="6" max="6" width="21.453125" customWidth="1"/>
+    <col min="7" max="8" width="20.81640625" customWidth="1"/>
+    <col min="9" max="9" width="48.1796875" customWidth="1"/>
+    <col min="10" max="10" width="19.81640625" customWidth="1"/>
+    <col min="11" max="11" width="23.453125" customWidth="1"/>
+    <col min="12" max="12" width="22.453125" customWidth="1"/>
+    <col min="13" max="13" width="20.26953125" customWidth="1"/>
+    <col min="14" max="15" width="18.453125" customWidth="1"/>
     <col min="16" max="16" width="23" customWidth="1"/>
-    <col min="17" max="17" width="20.85546875" customWidth="1"/>
-    <col min="18" max="18" width="19.140625" customWidth="1"/>
-    <col min="19" max="19" width="16.5703125" customWidth="1"/>
+    <col min="17" max="17" width="20.81640625" customWidth="1"/>
+    <col min="18" max="18" width="19.1796875" customWidth="1"/>
+    <col min="19" max="19" width="16.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="17" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" s="17" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="13" t="s">
         <v>60</v>
       </c>
@@ -3082,7 +3123,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A4" s="18" t="s">
         <v>47</v>
       </c>
@@ -3115,7 +3156,7 @@
       <c r="O4" s="18"/>
       <c r="S4" s="18"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
         <v>50</v>
       </c>
@@ -3169,7 +3210,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="s">
         <v>53</v>
       </c>
@@ -3222,7 +3263,7 @@
       </c>
       <c r="S6" s="18"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="21" t="s">
         <v>85</v>
       </c>
@@ -3264,7 +3305,7 @@
         <f>SUM(D76,D78:D87)*10^6</f>
         <v>88102000000</v>
       </c>
-      <c r="L7" s="53">
+      <c r="L7" s="49">
         <f>SUM(J7:K7)</f>
         <v>111213000000</v>
       </c>
@@ -3276,7 +3317,7 @@
         <f>SUM(D90:D95,D97)*10^6</f>
         <v>99282000000</v>
       </c>
-      <c r="O7" s="53">
+      <c r="O7" s="49">
         <f>SUM(M7:N7)</f>
         <v>215535000000</v>
       </c>
@@ -3289,15 +3330,15 @@
         <v>92955000000</v>
       </c>
       <c r="R7" s="22">
-        <f>SUM(D59,D392)*10^6</f>
-        <v>112027000000</v>
-      </c>
-      <c r="S7" s="53">
+        <f>SUM(D59)*10^6</f>
+        <v>12745000000</v>
+      </c>
+      <c r="S7" s="49">
         <f>SUM(P7:R7)</f>
-        <v>599213000000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+        <v>499931000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="21" t="s">
         <v>54</v>
       </c>
@@ -3308,10 +3349,10 @@
         <v>42</v>
       </c>
       <c r="D8" s="9"/>
-      <c r="E8" s="50">
+      <c r="E8" s="46">
         <v>455730000000</v>
       </c>
-      <c r="F8" s="51">
+      <c r="F8" s="47">
         <v>108964000000</v>
       </c>
       <c r="G8" s="10"/>
@@ -3329,7 +3370,7 @@
         <v>643958000000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="21" t="s">
         <v>34</v>
       </c>
@@ -3390,22 +3431,22 @@
       </c>
       <c r="P9" s="25">
         <f>$S9*(P$7/$S$7)</f>
-        <v>248978581432.64584</v>
+        <v>298423587887.12842</v>
       </c>
       <c r="Q9" s="25">
         <f t="shared" ref="Q9:R9" si="0">$S9*(Q$7/$S$7)</f>
-        <v>58706200266.015587</v>
+        <v>70364747095.099121</v>
       </c>
       <c r="R9" s="25">
         <f t="shared" si="0"/>
-        <v>70751218301.338577</v>
+        <v>9647665017.7724514</v>
       </c>
       <c r="S9" s="24">
         <f>K36*10^6</f>
         <v>378436000000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="26" t="s">
         <v>55</v>
       </c>
@@ -3426,11 +3467,11 @@
         <v>18055000000</v>
       </c>
       <c r="G10" s="25">
-        <f>$I10*(G$7/$I$8)</f>
+        <f t="shared" ref="G10:H12" si="3">$I10*(G$7/$I$8)</f>
         <v>55217046093.163567</v>
       </c>
       <c r="H10" s="25">
-        <f>$I10*(H$7/$I$8)</f>
+        <f t="shared" si="3"/>
         <v>28572862492.38744</v>
       </c>
       <c r="I10" s="23">
@@ -3438,11 +3479,11 @@
         <v>100482000000</v>
       </c>
       <c r="J10" s="25">
-        <f>$L10*(J$7/$L$8)</f>
+        <f t="shared" ref="J10:K12" si="4">$L10*(J$7/$L$8)</f>
         <v>4277299306.9888878</v>
       </c>
       <c r="K10" s="25">
-        <f>$L10*(K$7/$L$8)</f>
+        <f t="shared" si="4"/>
         <v>16305595757.186401</v>
       </c>
       <c r="L10" s="24">
@@ -3450,11 +3491,11 @@
         <v>27080000000</v>
       </c>
       <c r="M10" s="25">
-        <f>$O10*(M$7/$O$8)</f>
+        <f t="shared" ref="M10:N12" si="5">$O10*(M$7/$O$8)</f>
         <v>14008562219.564405</v>
       </c>
       <c r="N10" s="25">
-        <f>$O10*(N$7/$O$8)</f>
+        <f t="shared" si="5"/>
         <v>11963545665.770288</v>
       </c>
       <c r="O10" s="24">
@@ -3462,23 +3503,23 @@
         <v>31636000000</v>
       </c>
       <c r="P10" s="25">
-        <f>$S10*(P$7/$S$8)</f>
+        <f t="shared" ref="P10:R12" si="6">$S10*(P$7/$S$8)</f>
         <v>47523851039.974663</v>
       </c>
       <c r="Q10" s="25">
-        <f>$S10*(Q$7/$S$8)</f>
+        <f t="shared" si="6"/>
         <v>11205561139.080498</v>
       </c>
       <c r="R10" s="25">
-        <f>$S10*(R$7/$S$8)</f>
-        <v>13504657067.696962</v>
+        <f t="shared" si="6"/>
+        <v>1536387248.8578448</v>
       </c>
       <c r="S10" s="24">
         <f>L36*10^6</f>
         <v>77628000000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="26" t="s">
         <v>87</v>
       </c>
@@ -3499,11 +3540,11 @@
         <v>4968000000</v>
       </c>
       <c r="G11" s="25">
-        <f>$I11*(G$7/$I$8)</f>
+        <f t="shared" si="3"/>
         <v>8952808611.9884243</v>
       </c>
       <c r="H11" s="25">
-        <f>$I11*(H$7/$I$8)</f>
+        <f t="shared" si="3"/>
         <v>4632760849.9629402</v>
       </c>
       <c r="I11" s="23">
@@ -3511,11 +3552,11 @@
         <v>16292000000</v>
       </c>
       <c r="J11" s="25">
-        <f>$L11*(J$7/$L$8)</f>
+        <f t="shared" si="4"/>
         <v>228396410.55782613</v>
       </c>
       <c r="K11" s="25">
-        <f>$L11*(K$7/$L$8)</f>
+        <f t="shared" si="4"/>
         <v>870675460.29880118</v>
       </c>
       <c r="L11" s="24">
@@ -3523,11 +3564,11 @@
         <v>1446000000</v>
       </c>
       <c r="M11" s="25">
-        <f>$O11*(M$7/$O$8)</f>
+        <f t="shared" si="5"/>
         <v>1099483499.5314963</v>
       </c>
       <c r="N11" s="25">
-        <f>$O11*(N$7/$O$8)</f>
+        <f t="shared" si="5"/>
         <v>938977237.58084536</v>
       </c>
       <c r="O11" s="24">
@@ -3535,23 +3576,23 @@
         <v>2483000000</v>
       </c>
       <c r="P11" s="25">
-        <f>$S11*(P$7/$S$8)</f>
+        <f t="shared" si="6"/>
         <v>36126526172.514359</v>
       </c>
       <c r="Q11" s="25">
-        <f>$S11*(Q$7/$S$8)</f>
+        <f t="shared" si="6"/>
         <v>8518206940.5147533</v>
       </c>
       <c r="R11" s="25">
-        <f>$S11*(R$7/$S$8)</f>
-        <v>10265926189.285637</v>
+        <f t="shared" si="6"/>
+        <v>1167925850.7542417</v>
       </c>
       <c r="S11" s="24">
         <f>M36*10^6</f>
         <v>59011000000</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="26" t="s">
         <v>56</v>
       </c>
@@ -3572,11 +3613,11 @@
         <v>26971000000</v>
       </c>
       <c r="G12" s="25">
-        <f>$I12*(G$7/$I$8)</f>
+        <f t="shared" si="3"/>
         <v>118809902943.99516</v>
       </c>
       <c r="H12" s="25">
-        <f>$I12*(H$7/$I$8)</f>
+        <f t="shared" si="3"/>
         <v>61479909914.503288</v>
       </c>
       <c r="I12" s="23">
@@ -3584,11 +3625,11 @@
         <v>216206000000</v>
       </c>
       <c r="J12" s="25">
-        <f>$L12*(J$7/$L$8)</f>
+        <f t="shared" si="4"/>
         <v>4128036092.6201839</v>
       </c>
       <c r="K12" s="25">
-        <f>$L12*(K$7/$L$8)</f>
+        <f t="shared" si="4"/>
         <v>15736585860.933035</v>
       </c>
       <c r="L12" s="24">
@@ -3596,11 +3637,11 @@
         <v>26135000000</v>
       </c>
       <c r="M12" s="25">
-        <f>$O12*(M$7/$O$8)</f>
+        <f t="shared" si="5"/>
         <v>11489447588.539564</v>
       </c>
       <c r="N12" s="25">
-        <f>$O12*(N$7/$O$8)</f>
+        <f t="shared" si="5"/>
         <v>9812179775.8800621</v>
       </c>
       <c r="O12" s="24">
@@ -3608,55 +3649,55 @@
         <v>25947000000</v>
       </c>
       <c r="P12" s="25">
-        <f>$S12*(P$7/$S$8)</f>
+        <f t="shared" si="6"/>
         <v>99539412481.869949</v>
       </c>
       <c r="Q12" s="25">
-        <f>$S12*(Q$7/$S$8)</f>
+        <f t="shared" si="6"/>
         <v>23470214385.099648</v>
       </c>
       <c r="R12" s="25">
-        <f>$S12*(R$7/$S$8)</f>
-        <v>28285704985.418304</v>
+        <f t="shared" si="6"/>
+        <v>3217985932.3123555</v>
       </c>
       <c r="S12" s="24">
         <f>N36*10^6</f>
         <v>162593000000</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="K19" s="49"/>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="K19" s="45"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>724</v>
       </c>
-      <c r="D21" s="49"/>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D21" s="45"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.35">
       <c r="H25" s="1" t="s">
         <v>720</v>
       </c>
@@ -3664,7 +3705,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="2:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B26" s="6" t="s">
         <v>90</v>
       </c>
@@ -3698,7 +3739,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>1</v>
       </c>
@@ -3730,7 +3771,7 @@
         <v>7310806</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B28">
         <v>2</v>
       </c>
@@ -3763,7 +3804,7 @@
       </c>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B29">
         <v>3</v>
       </c>
@@ -3785,7 +3826,7 @@
       <c r="J29" t="s">
         <v>2</v>
       </c>
-      <c r="K29" s="48">
+      <c r="K29" s="44">
         <v>206568</v>
       </c>
       <c r="L29" s="31">
@@ -3799,7 +3840,7 @@
       </c>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>4</v>
       </c>
@@ -3818,7 +3859,7 @@
       <c r="I30" t="s">
         <v>628</v>
       </c>
-      <c r="K30" s="48">
+      <c r="K30" s="44">
         <v>164706</v>
       </c>
       <c r="L30" s="31">
@@ -3832,7 +3873,7 @@
       </c>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B31">
         <v>5</v>
       </c>
@@ -3851,7 +3892,7 @@
       <c r="I31" t="s">
         <v>629</v>
       </c>
-      <c r="K31" s="48">
+      <c r="K31" s="44">
         <v>41862</v>
       </c>
       <c r="L31" s="31">
@@ -3864,7 +3905,7 @@
         <v>9964</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B32">
         <v>6</v>
       </c>
@@ -3883,7 +3924,7 @@
       <c r="I32" t="s">
         <v>630</v>
       </c>
-      <c r="K32" s="48">
+      <c r="K32" s="44">
         <v>333935</v>
       </c>
       <c r="L32" s="31">
@@ -3896,7 +3937,7 @@
         <v>129835</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B33">
         <v>7</v>
       </c>
@@ -3918,7 +3959,7 @@
       <c r="J33" t="s">
         <v>58</v>
       </c>
-      <c r="K33" s="48">
+      <c r="K33" s="44">
         <v>239216</v>
       </c>
       <c r="L33" s="31">
@@ -3931,7 +3972,7 @@
         <v>86727</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B34">
         <v>8</v>
       </c>
@@ -3953,7 +3994,7 @@
       <c r="J34" t="s">
         <v>727</v>
       </c>
-      <c r="K34" s="48">
+      <c r="K34" s="44">
         <v>61242</v>
       </c>
       <c r="L34" s="31">
@@ -3966,7 +4007,7 @@
         <v>26971</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B35">
         <v>9</v>
       </c>
@@ -3985,7 +4026,10 @@
       <c r="I35" t="s">
         <v>633</v>
       </c>
-      <c r="K35" s="48">
+      <c r="J35" t="s">
+        <v>4</v>
+      </c>
+      <c r="K35" s="44">
         <v>33477</v>
       </c>
       <c r="L35" s="31">
@@ -3998,7 +4042,7 @@
         <v>16137</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B36">
         <v>10</v>
       </c>
@@ -4018,9 +4062,9 @@
         <v>634</v>
       </c>
       <c r="J36" t="s">
-        <v>620</v>
-      </c>
-      <c r="K36" s="48">
+        <v>740</v>
+      </c>
+      <c r="K36" s="44">
         <v>378436</v>
       </c>
       <c r="L36" s="31">
@@ -4033,7 +4077,7 @@
         <v>162593</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B37">
         <v>11</v>
       </c>
@@ -4055,7 +4099,7 @@
       <c r="J37" t="s">
         <v>18</v>
       </c>
-      <c r="K37" s="48">
+      <c r="K37" s="44">
         <v>945303</v>
       </c>
       <c r="L37" s="31">
@@ -4068,7 +4112,7 @@
         <v>227490</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B38">
         <v>12</v>
       </c>
@@ -4100,7 +4144,7 @@
         <v>1037641</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B39">
         <v>13</v>
       </c>
@@ -4132,7 +4176,7 @@
         <v>490800</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B40">
         <v>14</v>
       </c>
@@ -4157,7 +4201,7 @@
       <c r="J40" t="s">
         <v>7</v>
       </c>
-      <c r="K40" s="48">
+      <c r="K40" s="44">
         <v>61811</v>
       </c>
       <c r="L40" s="31">
@@ -4170,7 +4214,7 @@
         <v>11353</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B41">
         <v>15</v>
       </c>
@@ -4195,7 +4239,7 @@
       <c r="J41" t="s">
         <v>732</v>
       </c>
-      <c r="K41" s="48">
+      <c r="K41" s="44">
         <v>70225</v>
       </c>
       <c r="L41" s="31">
@@ -4208,7 +4252,7 @@
         <v>26135</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B42">
         <v>16</v>
       </c>
@@ -4228,9 +4272,9 @@
         <v>640</v>
       </c>
       <c r="J42" t="s">
-        <v>618</v>
-      </c>
-      <c r="K42" s="48">
+        <v>741</v>
+      </c>
+      <c r="K42" s="44">
         <v>77086</v>
       </c>
       <c r="L42" s="31">
@@ -4243,7 +4287,7 @@
         <v>25947</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B43">
         <v>17</v>
       </c>
@@ -4265,7 +4309,7 @@
       <c r="J43" t="s">
         <v>733</v>
       </c>
-      <c r="K43" s="54">
+      <c r="K43" s="50">
         <v>162141</v>
       </c>
       <c r="L43" s="31">
@@ -4278,7 +4322,7 @@
         <v>46896</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B44">
         <v>18</v>
       </c>
@@ -4300,7 +4344,7 @@
       <c r="J44" t="s">
         <v>734</v>
       </c>
-      <c r="K44" s="54">
+      <c r="K44" s="50">
         <v>174610</v>
       </c>
       <c r="L44" s="31">
@@ -4313,7 +4357,7 @@
         <v>54260</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B45">
         <v>19</v>
       </c>
@@ -4348,7 +4392,7 @@
         <v>121224</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B46">
         <v>20</v>
       </c>
@@ -4368,7 +4412,7 @@
         <v>644</v>
       </c>
       <c r="J46" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="K46" s="31">
         <v>67654</v>
@@ -4383,7 +4427,7 @@
         <v>28080</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B47">
         <v>21</v>
       </c>
@@ -4418,7 +4462,7 @@
         <v>72921</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B48">
         <v>22</v>
       </c>
@@ -4456,7 +4500,7 @@
         <v>68800</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B49">
         <v>23</v>
       </c>
@@ -4494,7 +4538,7 @@
         <v>8477</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B50">
         <v>24</v>
       </c>
@@ -4532,7 +4576,7 @@
         <v>26708</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B51">
         <v>25</v>
       </c>
@@ -4567,7 +4611,7 @@
         <v>546841</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B52">
         <v>26</v>
       </c>
@@ -4605,7 +4649,7 @@
         <v>128122</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B53">
         <v>27</v>
       </c>
@@ -4643,7 +4687,7 @@
         <v>5348</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B54">
         <v>28</v>
       </c>
@@ -4681,7 +4725,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B55">
         <v>29</v>
       </c>
@@ -4719,7 +4763,7 @@
         <v>27760</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B56">
         <v>30</v>
       </c>
@@ -4757,7 +4801,7 @@
         <v>13421</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B57">
         <v>31</v>
       </c>
@@ -4795,7 +4839,7 @@
         <v>121879</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B58">
         <v>32</v>
       </c>
@@ -4833,7 +4877,7 @@
         <v>216206</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B59">
         <v>33</v>
       </c>
@@ -4871,7 +4915,7 @@
         <v>32875</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B60">
         <v>34</v>
       </c>
@@ -4906,7 +4950,7 @@
         <v>422674</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B61">
         <v>35</v>
       </c>
@@ -4938,7 +4982,7 @@
         <v>229589</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B62">
         <v>36</v>
       </c>
@@ -4973,7 +5017,7 @@
         <v>210828</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B63">
         <v>37</v>
       </c>
@@ -5008,7 +5052,7 @@
         <v>47193</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B64">
         <v>38</v>
       </c>
@@ -5043,7 +5087,7 @@
         <v>19867</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B65">
         <v>39</v>
       </c>
@@ -5078,7 +5122,7 @@
         <v>7603</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B66">
         <v>40</v>
       </c>
@@ -5110,7 +5154,7 @@
         <v>52871</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B67">
         <v>41</v>
       </c>
@@ -5145,7 +5189,7 @@
         <v>20673</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B68">
         <v>42</v>
       </c>
@@ -5180,7 +5224,7 @@
         <v>26712</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B69">
         <v>43</v>
       </c>
@@ -5215,7 +5259,7 @@
         <v>28010</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B70">
         <v>44</v>
       </c>
@@ -5250,7 +5294,7 @@
         <v>7898</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B71">
         <v>45</v>
       </c>
@@ -5285,7 +5329,7 @@
         <v>532970</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B72">
         <v>46</v>
       </c>
@@ -5320,7 +5364,7 @@
         <v>103343</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B73">
         <v>47</v>
       </c>
@@ -5355,7 +5399,7 @@
         <v>46882</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B74">
         <v>48</v>
       </c>
@@ -5390,7 +5434,7 @@
         <v>273993</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B75">
         <v>49</v>
       </c>
@@ -5422,7 +5466,7 @@
         <v>108752</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B76">
         <v>50</v>
       </c>
@@ -5460,7 +5504,7 @@
         <v>2577118</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B77">
         <v>51</v>
       </c>
@@ -5498,7 +5542,7 @@
         <v>583890</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B78">
         <v>52</v>
       </c>
@@ -5536,7 +5580,7 @@
         <v>306900</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B79">
         <v>53</v>
       </c>
@@ -5574,7 +5618,7 @@
         <v>-1604</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B80">
         <v>54</v>
       </c>
@@ -5596,9 +5640,6 @@
       <c r="I80" t="s">
         <v>678</v>
       </c>
-      <c r="J80" t="s">
-        <v>25</v>
-      </c>
       <c r="K80" s="31">
         <v>4885647</v>
       </c>
@@ -5612,7 +5653,7 @@
         <v>263076</v>
       </c>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B81">
         <v>55</v>
       </c>
@@ -5634,6 +5675,9 @@
       <c r="I81" t="s">
         <v>679</v>
       </c>
+      <c r="J81" t="s">
+        <v>25</v>
+      </c>
       <c r="K81" s="31">
         <v>1958988</v>
       </c>
@@ -5647,7 +5691,7 @@
         <v>15519</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B82">
         <v>56</v>
       </c>
@@ -5682,7 +5726,7 @@
         <v>1993228</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B83">
         <v>57</v>
       </c>
@@ -5717,7 +5761,7 @@
         <v>1840595</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B84">
         <v>58</v>
       </c>
@@ -5752,7 +5796,7 @@
         <v>152633</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B85">
         <v>59</v>
       </c>
@@ -5787,7 +5831,7 @@
         <v>571091</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B86">
         <v>60</v>
       </c>
@@ -5825,7 +5869,7 @@
         <v>404035</v>
       </c>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B87">
         <v>61</v>
       </c>
@@ -5860,7 +5904,7 @@
         <v>99788</v>
       </c>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B88">
         <v>62</v>
       </c>
@@ -5895,7 +5939,7 @@
         <v>44213</v>
       </c>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B89">
         <v>63</v>
       </c>
@@ -5930,7 +5974,7 @@
         <v>260034</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B90">
         <v>64</v>
       </c>
@@ -5965,7 +6009,7 @@
         <v>37122</v>
       </c>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B91">
         <v>65</v>
       </c>
@@ -6000,7 +6044,7 @@
         <v>129933</v>
       </c>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B92">
         <v>66</v>
       </c>
@@ -6035,7 +6079,7 @@
         <v>111954</v>
       </c>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B93">
         <v>67</v>
       </c>
@@ -6073,7 +6117,7 @@
         <v>17979</v>
       </c>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B94">
         <v>68</v>
       </c>
@@ -6111,7 +6155,7 @@
         <v>269876</v>
       </c>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B95">
         <v>69</v>
       </c>
@@ -6149,7 +6193,7 @@
         <v>44604</v>
       </c>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B96">
         <v>70</v>
       </c>
@@ -6187,7 +6231,7 @@
         <v>225272</v>
       </c>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B97">
         <v>71</v>
       </c>
@@ -6209,9 +6253,6 @@
       <c r="I97" t="s">
         <v>695</v>
       </c>
-      <c r="J97" t="s">
-        <v>27</v>
-      </c>
       <c r="K97" s="31">
         <v>745689</v>
       </c>
@@ -6225,7 +6266,7 @@
         <v>140714</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B98">
         <v>72</v>
       </c>
@@ -6260,7 +6301,7 @@
         <v>74709</v>
       </c>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B99">
         <v>73</v>
       </c>
@@ -6295,7 +6336,7 @@
         <v>9849</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B100">
         <v>74</v>
       </c>
@@ -6327,7 +6368,7 @@
         <v>208314</v>
       </c>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B101">
         <v>75</v>
       </c>
@@ -6362,7 +6403,7 @@
         <v>73075</v>
       </c>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B102">
         <v>76</v>
       </c>
@@ -6397,7 +6438,7 @@
         <v>52602</v>
       </c>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B103">
         <v>77</v>
       </c>
@@ -6429,7 +6470,7 @@
         <v>20473</v>
       </c>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B104">
         <v>78</v>
       </c>
@@ -6461,7 +6502,7 @@
         <v>135239</v>
       </c>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B105">
         <v>79</v>
       </c>
@@ -6493,7 +6534,7 @@
         <v>53331</v>
       </c>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B106">
         <v>80</v>
       </c>
@@ -6525,7 +6566,7 @@
         <v>81908</v>
       </c>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B107">
         <v>81</v>
       </c>
@@ -6557,7 +6598,7 @@
         <v>83782</v>
       </c>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B108">
         <v>82</v>
       </c>
@@ -6592,7 +6633,7 @@
         <v>517651</v>
       </c>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B109">
         <v>83</v>
       </c>
@@ -6624,7 +6665,7 @@
         <v>268250</v>
       </c>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B110">
         <v>84</v>
       </c>
@@ -6656,7 +6697,7 @@
         <v>263735</v>
       </c>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B111">
         <v>85</v>
       </c>
@@ -6691,7 +6732,7 @@
         <v>4515</v>
       </c>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B112">
         <v>86</v>
       </c>
@@ -6723,7 +6764,7 @@
         <v>249400</v>
       </c>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B113">
         <v>87</v>
       </c>
@@ -6755,7 +6796,7 @@
         <v>192044</v>
       </c>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B114">
         <v>88</v>
       </c>
@@ -6775,7 +6816,7 @@
         <v>712</v>
       </c>
       <c r="J114" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="K114" s="31">
         <v>469851</v>
@@ -6790,7 +6831,7 @@
         <v>57356</v>
       </c>
     </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B115">
         <v>89</v>
       </c>
@@ -6816,7 +6857,7 @@
         <v>2812880</v>
       </c>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B116">
         <v>90</v>
       </c>
@@ -6839,7 +6880,7 @@
         <v>887513</v>
       </c>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B117">
         <v>91</v>
       </c>
@@ -6862,7 +6903,7 @@
         <v>819341</v>
       </c>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B118">
         <v>92</v>
       </c>
@@ -6885,7 +6926,7 @@
         <v>469774</v>
       </c>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B119">
         <v>93</v>
       </c>
@@ -6908,7 +6949,7 @@
         <v>349566</v>
       </c>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B120">
         <v>94</v>
       </c>
@@ -6931,7 +6972,7 @@
         <v>68172</v>
       </c>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B121">
         <v>95</v>
       </c>
@@ -6954,7 +6995,7 @@
         <v>1925367</v>
       </c>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B122">
         <v>96</v>
       </c>
@@ -6977,7 +7018,7 @@
         <v>1766596</v>
       </c>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B123">
         <v>97</v>
       </c>
@@ -7000,7 +7041,7 @@
         <v>158772</v>
       </c>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B124">
         <v>98</v>
       </c>
@@ -7014,7 +7055,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B125">
         <v>99</v>
       </c>
@@ -7028,7 +7069,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B126">
         <v>100</v>
       </c>
@@ -7042,7 +7083,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B127">
         <v>101</v>
       </c>
@@ -7056,7 +7097,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B128">
         <v>102</v>
       </c>
@@ -7070,7 +7111,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B129">
         <v>103</v>
       </c>
@@ -7084,7 +7125,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B130">
         <v>104</v>
       </c>
@@ -7098,7 +7139,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B131">
         <v>105</v>
       </c>
@@ -7112,7 +7153,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B132">
         <v>106</v>
       </c>
@@ -7126,7 +7167,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B133">
         <v>107</v>
       </c>
@@ -7140,7 +7181,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B134">
         <v>108</v>
       </c>
@@ -7154,7 +7195,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B135">
         <v>109</v>
       </c>
@@ -7168,7 +7209,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B136">
         <v>110</v>
       </c>
@@ -7182,7 +7223,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B137">
         <v>111</v>
       </c>
@@ -7196,7 +7237,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B138">
         <v>112</v>
       </c>
@@ -7210,7 +7251,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B139">
         <v>113</v>
       </c>
@@ -7224,7 +7265,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B140">
         <v>114</v>
       </c>
@@ -7238,7 +7279,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B141">
         <v>115</v>
       </c>
@@ -7252,7 +7293,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B142">
         <v>116</v>
       </c>
@@ -7266,7 +7307,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B143">
         <v>117</v>
       </c>
@@ -7280,7 +7321,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B144">
         <v>118</v>
       </c>
@@ -7294,7 +7335,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B145">
         <v>119</v>
       </c>
@@ -7308,7 +7349,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B146">
         <v>120</v>
       </c>
@@ -7322,7 +7363,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B147">
         <v>121</v>
       </c>
@@ -7336,7 +7377,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B148">
         <v>122</v>
       </c>
@@ -7350,7 +7391,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B149">
         <v>123</v>
       </c>
@@ -7364,7 +7405,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B150">
         <v>124</v>
       </c>
@@ -7378,7 +7419,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B151">
         <v>125</v>
       </c>
@@ -7392,7 +7433,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B152">
         <v>126</v>
       </c>
@@ -7406,7 +7447,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B153">
         <v>127</v>
       </c>
@@ -7420,7 +7461,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B154">
         <v>128</v>
       </c>
@@ -7434,7 +7475,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B155">
         <v>129</v>
       </c>
@@ -7448,7 +7489,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B156">
         <v>130</v>
       </c>
@@ -7462,7 +7503,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B157">
         <v>131</v>
       </c>
@@ -7476,7 +7517,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B158">
         <v>132</v>
       </c>
@@ -7490,7 +7531,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B159">
         <v>133</v>
       </c>
@@ -7504,7 +7545,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B160">
         <v>134</v>
       </c>
@@ -7518,7 +7559,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B161">
         <v>135</v>
       </c>
@@ -7532,7 +7573,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B162">
         <v>136</v>
       </c>
@@ -7546,7 +7587,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B163">
         <v>137</v>
       </c>
@@ -7560,7 +7601,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B164">
         <v>138</v>
       </c>
@@ -7574,7 +7615,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B165">
         <v>139</v>
       </c>
@@ -7588,7 +7629,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B166">
         <v>140</v>
       </c>
@@ -7602,7 +7643,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B167">
         <v>141</v>
       </c>
@@ -7616,7 +7657,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B168">
         <v>142</v>
       </c>
@@ -7630,7 +7671,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B169">
         <v>143</v>
       </c>
@@ -7644,7 +7685,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B170">
         <v>144</v>
       </c>
@@ -7658,7 +7699,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B171">
         <v>145</v>
       </c>
@@ -7672,7 +7713,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B172">
         <v>146</v>
       </c>
@@ -7686,7 +7727,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B173">
         <v>147</v>
       </c>
@@ -7700,7 +7741,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="174" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B174">
         <v>148</v>
       </c>
@@ -7714,7 +7755,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="175" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B175">
         <v>149</v>
       </c>
@@ -7728,7 +7769,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="176" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B176">
         <v>150</v>
       </c>
@@ -7742,7 +7783,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="177" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B177">
         <v>151</v>
       </c>
@@ -7756,7 +7797,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="178" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B178">
         <v>152</v>
       </c>
@@ -7770,7 +7811,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="179" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B179">
         <v>153</v>
       </c>
@@ -7784,7 +7825,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="180" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B180">
         <v>154</v>
       </c>
@@ -7798,7 +7839,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="181" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B181">
         <v>155</v>
       </c>
@@ -7812,7 +7853,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="182" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B182">
         <v>156</v>
       </c>
@@ -7826,7 +7867,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="183" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B183">
         <v>157</v>
       </c>
@@ -7840,7 +7881,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="184" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B184">
         <v>158</v>
       </c>
@@ -7854,7 +7895,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="185" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B185">
         <v>159</v>
       </c>
@@ -7868,7 +7909,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="186" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B186">
         <v>160</v>
       </c>
@@ -7882,7 +7923,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="187" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B187">
         <v>161</v>
       </c>
@@ -7896,7 +7937,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="188" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B188">
         <v>162</v>
       </c>
@@ -7910,7 +7951,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="189" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B189">
         <v>163</v>
       </c>
@@ -7924,7 +7965,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="190" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B190">
         <v>164</v>
       </c>
@@ -7938,7 +7979,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="191" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B191">
         <v>165</v>
       </c>
@@ -7952,7 +7993,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="192" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B192">
         <v>166</v>
       </c>
@@ -7966,7 +8007,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B193">
         <v>167</v>
       </c>
@@ -7980,7 +8021,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="194" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B194">
         <v>168</v>
       </c>
@@ -7994,7 +8035,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="195" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B195">
         <v>169</v>
       </c>
@@ -8008,7 +8049,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="196" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B196">
         <v>170</v>
       </c>
@@ -8022,7 +8063,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="197" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B197">
         <v>171</v>
       </c>
@@ -8036,7 +8077,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="198" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B198">
         <v>172</v>
       </c>
@@ -8050,7 +8091,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="199" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B199">
         <v>173</v>
       </c>
@@ -8064,7 +8105,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="200" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B200">
         <v>174</v>
       </c>
@@ -8078,7 +8119,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="201" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B201">
         <v>175</v>
       </c>
@@ -8092,7 +8133,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="202" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B202">
         <v>176</v>
       </c>
@@ -8106,7 +8147,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="203" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B203">
         <v>177</v>
       </c>
@@ -8120,7 +8161,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="204" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B204">
         <v>178</v>
       </c>
@@ -8134,7 +8175,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="205" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B205">
         <v>179</v>
       </c>
@@ -8148,7 +8189,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="206" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B206">
         <v>180</v>
       </c>
@@ -8162,7 +8203,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="207" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B207">
         <v>181</v>
       </c>
@@ -8176,7 +8217,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="208" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B208">
         <v>182</v>
       </c>
@@ -8190,7 +8231,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="209" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B209">
         <v>183</v>
       </c>
@@ -8204,7 +8245,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="210" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B210">
         <v>184</v>
       </c>
@@ -8218,7 +8259,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="211" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B211">
         <v>185</v>
       </c>
@@ -8232,7 +8273,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="212" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B212">
         <v>186</v>
       </c>
@@ -8246,7 +8287,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="213" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B213">
         <v>187</v>
       </c>
@@ -8260,7 +8301,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="214" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B214">
         <v>188</v>
       </c>
@@ -8274,7 +8315,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="215" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B215">
         <v>189</v>
       </c>
@@ -8288,7 +8329,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="216" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B216">
         <v>190</v>
       </c>
@@ -8302,7 +8343,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="217" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B217">
         <v>191</v>
       </c>
@@ -8316,7 +8357,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="218" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B218">
         <v>192</v>
       </c>
@@ -8330,7 +8371,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="219" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B219">
         <v>193</v>
       </c>
@@ -8344,7 +8385,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="220" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B220">
         <v>194</v>
       </c>
@@ -8358,7 +8399,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="221" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B221">
         <v>195</v>
       </c>
@@ -8372,7 +8413,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="222" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B222">
         <v>196</v>
       </c>
@@ -8386,7 +8427,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="223" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B223">
         <v>197</v>
       </c>
@@ -8400,7 +8441,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="224" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B224">
         <v>198</v>
       </c>
@@ -8414,7 +8455,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="225" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B225">
         <v>199</v>
       </c>
@@ -8428,7 +8469,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="226" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B226">
         <v>200</v>
       </c>
@@ -8442,7 +8483,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="227" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B227">
         <v>201</v>
       </c>
@@ -8456,7 +8497,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="228" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B228">
         <v>202</v>
       </c>
@@ -8470,7 +8511,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="229" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B229">
         <v>203</v>
       </c>
@@ -8484,7 +8525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="230" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B230">
         <v>204</v>
       </c>
@@ -8498,7 +8539,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="231" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B231">
         <v>205</v>
       </c>
@@ -8512,7 +8553,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="232" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B232">
         <v>206</v>
       </c>
@@ -8526,7 +8567,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="233" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B233">
         <v>207</v>
       </c>
@@ -8540,7 +8581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B234">
         <v>208</v>
       </c>
@@ -8554,7 +8595,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="235" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B235">
         <v>209</v>
       </c>
@@ -8568,7 +8609,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B236">
         <v>210</v>
       </c>
@@ -8582,7 +8623,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="237" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B237">
         <v>211</v>
       </c>
@@ -8596,7 +8637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="238" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B238">
         <v>212</v>
       </c>
@@ -8610,7 +8651,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="239" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B239">
         <v>213</v>
       </c>
@@ -8624,7 +8665,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="240" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B240">
         <v>214</v>
       </c>
@@ -8638,7 +8679,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="241" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B241">
         <v>215</v>
       </c>
@@ -8652,7 +8693,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="242" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B242">
         <v>216</v>
       </c>
@@ -8666,7 +8707,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="243" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B243">
         <v>217</v>
       </c>
@@ -8680,7 +8721,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="244" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B244">
         <v>218</v>
       </c>
@@ -8694,7 +8735,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="245" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B245">
         <v>219</v>
       </c>
@@ -8708,7 +8749,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="246" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B246">
         <v>220</v>
       </c>
@@ -8722,7 +8763,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B247">
         <v>221</v>
       </c>
@@ -8736,7 +8777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="248" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B248">
         <v>222</v>
       </c>
@@ -8750,7 +8791,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="249" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B249">
         <v>223</v>
       </c>
@@ -8764,7 +8805,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B250">
         <v>224</v>
       </c>
@@ -8778,7 +8819,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="251" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B251">
         <v>225</v>
       </c>
@@ -8792,7 +8833,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="252" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B252">
         <v>226</v>
       </c>
@@ -8806,7 +8847,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="253" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B253">
         <v>227</v>
       </c>
@@ -8820,7 +8861,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="254" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B254">
         <v>228</v>
       </c>
@@ -8834,7 +8875,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="255" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B255">
         <v>229</v>
       </c>
@@ -8848,7 +8889,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="256" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B256">
         <v>230</v>
       </c>
@@ -8862,7 +8903,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="257" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B257">
         <v>231</v>
       </c>
@@ -8876,7 +8917,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="258" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B258">
         <v>232</v>
       </c>
@@ -8890,7 +8931,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="259" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B259">
         <v>233</v>
       </c>
@@ -8904,7 +8945,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="260" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B260">
         <v>234</v>
       </c>
@@ -8918,7 +8959,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="261" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B261">
         <v>235</v>
       </c>
@@ -8932,7 +8973,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="262" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B262">
         <v>236</v>
       </c>
@@ -8946,7 +8987,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="263" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B263">
         <v>237</v>
       </c>
@@ -8960,7 +9001,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="264" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B264">
         <v>238</v>
       </c>
@@ -8974,7 +9015,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="265" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B265">
         <v>239</v>
       </c>
@@ -8988,7 +9029,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="266" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B266">
         <v>240</v>
       </c>
@@ -9002,7 +9043,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="267" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B267">
         <v>241</v>
       </c>
@@ -9016,7 +9057,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="268" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B268">
         <v>242</v>
       </c>
@@ -9030,7 +9071,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="269" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B269">
         <v>243</v>
       </c>
@@ -9044,7 +9085,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="270" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B270">
         <v>244</v>
       </c>
@@ -9058,7 +9099,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="271" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B271">
         <v>245</v>
       </c>
@@ -9072,7 +9113,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="272" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B272">
         <v>246</v>
       </c>
@@ -9086,7 +9127,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="273" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B273">
         <v>247</v>
       </c>
@@ -9100,7 +9141,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="274" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B274">
         <v>248</v>
       </c>
@@ -9114,7 +9155,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="275" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B275">
         <v>249</v>
       </c>
@@ -9128,7 +9169,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="276" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B276">
         <v>250</v>
       </c>
@@ -9142,7 +9183,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="277" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B277">
         <v>251</v>
       </c>
@@ -9156,7 +9197,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="278" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B278">
         <v>252</v>
       </c>
@@ -9173,7 +9214,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="279" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B279">
         <v>253</v>
       </c>
@@ -9190,7 +9231,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="280" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B280">
         <v>254</v>
       </c>
@@ -9207,7 +9248,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="281" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B281">
         <v>255</v>
       </c>
@@ -9224,7 +9265,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="282" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B282">
         <v>256</v>
       </c>
@@ -9241,7 +9282,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="283" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B283">
         <v>257</v>
       </c>
@@ -9258,7 +9299,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="284" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B284">
         <v>258</v>
       </c>
@@ -9275,7 +9316,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="285" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B285">
         <v>259</v>
       </c>
@@ -9292,7 +9333,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="286" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B286">
         <v>260</v>
       </c>
@@ -9309,7 +9350,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="287" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B287">
         <v>261</v>
       </c>
@@ -9326,7 +9367,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="288" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B288">
         <v>262</v>
       </c>
@@ -9343,7 +9384,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="289" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B289">
         <v>263</v>
       </c>
@@ -9360,7 +9401,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="290" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B290">
         <v>264</v>
       </c>
@@ -9377,7 +9418,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="291" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B291">
         <v>265</v>
       </c>
@@ -9394,7 +9435,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="292" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B292">
         <v>266</v>
       </c>
@@ -9411,7 +9452,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="293" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B293">
         <v>267</v>
       </c>
@@ -9428,7 +9469,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="294" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B294">
         <v>268</v>
       </c>
@@ -9445,7 +9486,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="295" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B295">
         <v>269</v>
       </c>
@@ -9462,7 +9503,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="296" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B296">
         <v>270</v>
       </c>
@@ -9479,7 +9520,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="297" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B297">
         <v>271</v>
       </c>
@@ -9493,7 +9534,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="298" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B298">
         <v>272</v>
       </c>
@@ -9507,7 +9548,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="299" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B299">
         <v>273</v>
       </c>
@@ -9521,7 +9562,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="300" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B300">
         <v>274</v>
       </c>
@@ -9535,7 +9576,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="301" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B301">
         <v>275</v>
       </c>
@@ -9549,7 +9590,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="302" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B302">
         <v>276</v>
       </c>
@@ -9563,7 +9604,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="303" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B303">
         <v>277</v>
       </c>
@@ -9577,7 +9618,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="304" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B304">
         <v>278</v>
       </c>
@@ -9591,7 +9632,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="305" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B305">
         <v>279</v>
       </c>
@@ -9605,7 +9646,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="306" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B306">
         <v>280</v>
       </c>
@@ -9619,7 +9660,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="307" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B307">
         <v>281</v>
       </c>
@@ -9633,7 +9674,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="308" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B308">
         <v>282</v>
       </c>
@@ -9647,7 +9688,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="309" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B309">
         <v>283</v>
       </c>
@@ -9661,7 +9702,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="310" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B310">
         <v>284</v>
       </c>
@@ -9675,7 +9716,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="311" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B311">
         <v>285</v>
       </c>
@@ -9689,7 +9730,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="312" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B312">
         <v>286</v>
       </c>
@@ -9703,7 +9744,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="313" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B313">
         <v>287</v>
       </c>
@@ -9717,7 +9758,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="314" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B314">
         <v>288</v>
       </c>
@@ -9731,7 +9772,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="315" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B315">
         <v>289</v>
       </c>
@@ -9745,7 +9786,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="316" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B316">
         <v>290</v>
       </c>
@@ -9759,7 +9800,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="317" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B317">
         <v>291</v>
       </c>
@@ -9773,7 +9814,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="318" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B318">
         <v>292</v>
       </c>
@@ -9787,7 +9828,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="319" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B319">
         <v>293</v>
       </c>
@@ -9801,7 +9842,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="320" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B320">
         <v>294</v>
       </c>
@@ -9815,7 +9856,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="321" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B321">
         <v>295</v>
       </c>
@@ -9829,7 +9870,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="322" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B322">
         <v>296</v>
       </c>
@@ -9843,7 +9884,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="323" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B323">
         <v>297</v>
       </c>
@@ -9857,7 +9898,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="324" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B324">
         <v>298</v>
       </c>
@@ -9871,7 +9912,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="325" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B325">
         <v>299</v>
       </c>
@@ -9885,7 +9926,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="326" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B326">
         <v>300</v>
       </c>
@@ -9899,7 +9940,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="327" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B327">
         <v>301</v>
       </c>
@@ -9913,7 +9954,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="328" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B328">
         <v>302</v>
       </c>
@@ -9927,7 +9968,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="329" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B329">
         <v>303</v>
       </c>
@@ -9941,7 +9982,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="330" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B330">
         <v>304</v>
       </c>
@@ -9955,7 +9996,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="331" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B331">
         <v>305</v>
       </c>
@@ -9969,7 +10010,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="332" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B332">
         <v>306</v>
       </c>
@@ -9983,7 +10024,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="333" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B333">
         <v>307</v>
       </c>
@@ -9997,7 +10038,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="334" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B334">
         <v>308</v>
       </c>
@@ -10011,7 +10052,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="335" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B335">
         <v>309</v>
       </c>
@@ -10025,7 +10066,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="336" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B336">
         <v>310</v>
       </c>
@@ -10039,7 +10080,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="337" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B337">
         <v>311</v>
       </c>
@@ -10053,7 +10094,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="338" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B338">
         <v>312</v>
       </c>
@@ -10067,7 +10108,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="339" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B339">
         <v>313</v>
       </c>
@@ -10081,7 +10122,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="340" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B340">
         <v>314</v>
       </c>
@@ -10095,7 +10136,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="341" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B341">
         <v>315</v>
       </c>
@@ -10109,7 +10150,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="342" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B342">
         <v>316</v>
       </c>
@@ -10123,7 +10164,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="343" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B343">
         <v>317</v>
       </c>
@@ -10137,7 +10178,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="344" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B344">
         <v>318</v>
       </c>
@@ -10151,7 +10192,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="345" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B345">
         <v>319</v>
       </c>
@@ -10165,7 +10206,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="346" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B346">
         <v>320</v>
       </c>
@@ -10179,7 +10220,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="347" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B347">
         <v>321</v>
       </c>
@@ -10193,7 +10234,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="348" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B348">
         <v>322</v>
       </c>
@@ -10207,7 +10248,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="349" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B349">
         <v>323</v>
       </c>
@@ -10221,7 +10262,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="350" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B350">
         <v>324</v>
       </c>
@@ -10235,7 +10276,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="351" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B351">
         <v>325</v>
       </c>
@@ -10249,7 +10290,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="352" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B352">
         <v>326</v>
       </c>
@@ -10263,7 +10304,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="353" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B353">
         <v>327</v>
       </c>
@@ -10277,7 +10318,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="354" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B354">
         <v>328</v>
       </c>
@@ -10291,7 +10332,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="355" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B355">
         <v>329</v>
       </c>
@@ -10305,7 +10346,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="356" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B356">
         <v>330</v>
       </c>
@@ -10319,7 +10360,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="357" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B357">
         <v>331</v>
       </c>
@@ -10333,7 +10374,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="358" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B358">
         <v>332</v>
       </c>
@@ -10347,7 +10388,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="359" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B359">
         <v>333</v>
       </c>
@@ -10361,7 +10402,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="360" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B360">
         <v>334</v>
       </c>
@@ -10375,7 +10416,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="361" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B361">
         <v>335</v>
       </c>
@@ -10389,7 +10430,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="362" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B362">
         <v>336</v>
       </c>
@@ -10403,7 +10444,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="363" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B363">
         <v>337</v>
       </c>
@@ -10417,7 +10458,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="364" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B364">
         <v>338</v>
       </c>
@@ -10431,7 +10472,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="365" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B365">
         <v>339</v>
       </c>
@@ -10445,7 +10486,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="366" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B366">
         <v>340</v>
       </c>
@@ -10459,7 +10500,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="367" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B367">
         <v>341</v>
       </c>
@@ -10473,7 +10514,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="368" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B368">
         <v>342</v>
       </c>
@@ -10487,7 +10528,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="369" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B369">
         <v>343</v>
       </c>
@@ -10501,7 +10542,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="370" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B370">
         <v>344</v>
       </c>
@@ -10515,7 +10556,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="371" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B371">
         <v>345</v>
       </c>
@@ -10529,7 +10570,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="372" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B372">
         <v>346</v>
       </c>
@@ -10543,7 +10584,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="373" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B373">
         <v>347</v>
       </c>
@@ -10557,7 +10598,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="374" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B374">
         <v>348</v>
       </c>
@@ -10571,7 +10612,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="375" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B375">
         <v>349</v>
       </c>
@@ -10585,7 +10626,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="376" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B376">
         <v>350</v>
       </c>
@@ -10599,7 +10640,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="377" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B377">
         <v>351</v>
       </c>
@@ -10613,7 +10654,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="378" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B378">
         <v>352</v>
       </c>
@@ -10627,7 +10668,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="379" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B379">
         <v>353</v>
       </c>
@@ -10641,7 +10682,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="380" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B380">
         <v>354</v>
       </c>
@@ -10655,7 +10696,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="381" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B381">
         <v>355</v>
       </c>
@@ -10669,7 +10710,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="382" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B382">
         <v>356</v>
       </c>
@@ -10683,7 +10724,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="383" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B383">
         <v>357</v>
       </c>
@@ -10697,7 +10738,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="384" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B384">
         <v>358</v>
       </c>
@@ -10711,7 +10752,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="385" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B385">
         <v>359</v>
       </c>
@@ -10725,7 +10766,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="386" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B386">
         <v>360</v>
       </c>
@@ -10739,7 +10780,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="387" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B387">
         <v>361</v>
       </c>
@@ -10753,7 +10794,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="388" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B388">
         <v>362</v>
       </c>
@@ -10767,7 +10808,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="389" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B389">
         <v>363</v>
       </c>
@@ -10781,7 +10822,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="390" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B390">
         <v>364</v>
       </c>
@@ -10795,7 +10836,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="391" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B391">
         <v>365</v>
       </c>
@@ -10809,7 +10850,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="392" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B392">
         <v>366</v>
       </c>
@@ -10826,7 +10867,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="393" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B393">
         <v>367</v>
       </c>
@@ -10840,7 +10881,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="394" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B394">
         <v>368</v>
       </c>
@@ -10854,7 +10895,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="395" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B395">
         <v>369</v>
       </c>
@@ -10868,7 +10909,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="396" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B396">
         <v>370</v>
       </c>
@@ -10882,7 +10923,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="397" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B397">
         <v>371</v>
       </c>
@@ -10896,7 +10937,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="398" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B398">
         <v>372</v>
       </c>
@@ -10910,7 +10951,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="399" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B399">
         <v>373</v>
       </c>
@@ -10924,7 +10965,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="400" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B400">
         <v>374</v>
       </c>
@@ -10938,7 +10979,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="401" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B401">
         <v>375</v>
       </c>
@@ -10952,7 +10993,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="402" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B402">
         <v>376</v>
       </c>
@@ -10966,7 +11007,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="403" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B403">
         <v>377</v>
       </c>
@@ -10980,7 +11021,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="404" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B404">
         <v>378</v>
       </c>
@@ -10994,7 +11035,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="405" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="405" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B405">
         <v>379</v>
       </c>
@@ -11008,7 +11049,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="406" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="406" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B406">
         <v>380</v>
       </c>
@@ -11022,7 +11063,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="407" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="407" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B407">
         <v>381</v>
       </c>
@@ -11036,7 +11077,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="408" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="408" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B408">
         <v>382</v>
       </c>
@@ -11050,7 +11091,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="409" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="409" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B409">
         <v>383</v>
       </c>
@@ -11064,7 +11105,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="410" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="410" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B410">
         <v>384</v>
       </c>
@@ -11078,7 +11119,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="411" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="411" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B411">
         <v>385</v>
       </c>
@@ -11092,7 +11133,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="412" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="412" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B412">
         <v>386</v>
       </c>
@@ -11106,7 +11147,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="413" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="413" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B413">
         <v>387</v>
       </c>
@@ -11120,7 +11161,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="414" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="414" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B414">
         <v>388</v>
       </c>
@@ -11134,7 +11175,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="415" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="415" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B415">
         <v>389</v>
       </c>
@@ -11148,7 +11189,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="416" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="416" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B416">
         <v>390</v>
       </c>
@@ -11162,7 +11203,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="417" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="417" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B417">
         <v>391</v>
       </c>
@@ -11176,7 +11217,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="418" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="418" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B418">
         <v>392</v>
       </c>
@@ -11190,7 +11231,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="419" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="419" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B419">
         <v>393</v>
       </c>
@@ -11204,7 +11245,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="420" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="420" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B420">
         <v>394</v>
       </c>
@@ -11218,7 +11259,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="421" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="421" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B421">
         <v>395</v>
       </c>
@@ -11232,7 +11273,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="422" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="422" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B422">
         <v>396</v>
       </c>
@@ -11246,7 +11287,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="423" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="423" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B423">
         <v>397</v>
       </c>
@@ -11260,7 +11301,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="424" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="424" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B424">
         <v>398</v>
       </c>
@@ -11274,7 +11315,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="425" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="425" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B425">
         <v>399</v>
       </c>
@@ -11288,7 +11329,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="426" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="426" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B426">
         <v>400</v>
       </c>
@@ -11302,7 +11343,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="427" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="427" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B427">
         <v>401</v>
       </c>
@@ -11316,7 +11357,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="428" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="428" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B428">
         <v>402</v>
       </c>
@@ -11330,7 +11371,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="429" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="429" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B429">
         <v>403</v>
       </c>
@@ -11344,7 +11385,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="430" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="430" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B430">
         <v>404</v>
       </c>
@@ -11358,7 +11399,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="431" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="431" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B431">
         <v>405</v>
       </c>
@@ -11372,7 +11413,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="432" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="432" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B432">
         <v>406</v>
       </c>
@@ -11386,7 +11427,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="433" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="433" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B433">
         <v>407</v>
       </c>
@@ -11400,7 +11441,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="434" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="434" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B434">
         <v>408</v>
       </c>
@@ -11414,7 +11455,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="435" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="435" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B435">
         <v>409</v>
       </c>
@@ -11428,7 +11469,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="436" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="436" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B436">
         <v>410</v>
       </c>
@@ -11442,7 +11483,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="437" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="437" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B437">
         <v>411</v>
       </c>
@@ -11456,7 +11497,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="438" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="438" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B438">
         <v>412</v>
       </c>
@@ -11470,7 +11511,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="439" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="439" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B439">
         <v>413</v>
       </c>
@@ -11484,7 +11525,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="440" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="440" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B440">
         <v>414</v>
       </c>
@@ -11498,7 +11539,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="441" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="441" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B441">
         <v>415</v>
       </c>
@@ -11512,7 +11553,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="442" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="442" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B442">
         <v>416</v>
       </c>
@@ -11526,7 +11567,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="443" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="443" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B443">
         <v>417</v>
       </c>
@@ -11540,40 +11581,40 @@
         <v>28</v>
       </c>
     </row>
-    <row r="444" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="444" spans="2:5" x14ac:dyDescent="0.35">
       <c r="E444" s="31"/>
     </row>
-    <row r="445" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="445" spans="2:5" x14ac:dyDescent="0.35">
       <c r="E445" s="31"/>
     </row>
-    <row r="446" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="446" spans="2:5" x14ac:dyDescent="0.35">
       <c r="E446" s="31"/>
     </row>
-    <row r="447" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="447" spans="2:5" x14ac:dyDescent="0.35">
       <c r="E447" s="31"/>
     </row>
-    <row r="448" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="448" spans="2:5" x14ac:dyDescent="0.35">
       <c r="E448" s="31"/>
     </row>
-    <row r="449" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="449" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E449" s="31"/>
     </row>
-    <row r="450" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="450" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E450" s="31"/>
     </row>
-    <row r="451" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="451" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E451" s="31"/>
     </row>
-    <row r="452" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="452" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E452" s="31"/>
     </row>
-    <row r="453" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="453" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E453" s="31"/>
     </row>
-    <row r="454" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="454" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E454" s="31"/>
     </row>
-    <row r="455" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="455" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E455" s="31"/>
     </row>
   </sheetData>
@@ -11591,31 +11632,40 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AQ7"/>
+  <dimension ref="A1:AQ10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="1">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.140625" customWidth="1"/>
-    <col min="2" max="26" width="10.140625" customWidth="1"/>
-    <col min="27" max="27" width="13.28515625" customWidth="1"/>
-    <col min="28" max="43" width="10.140625" customWidth="1"/>
+    <col min="1" max="1" width="20.1796875" customWidth="1"/>
+    <col min="2" max="2" width="18.90625" customWidth="1"/>
+    <col min="3" max="6" width="10.1796875" customWidth="1"/>
+    <col min="7" max="7" width="14.26953125" customWidth="1"/>
+    <col min="8" max="8" width="13.90625" customWidth="1"/>
+    <col min="9" max="16" width="10.1796875" customWidth="1"/>
+    <col min="17" max="17" width="13.90625" customWidth="1"/>
+    <col min="18" max="26" width="10.1796875" customWidth="1"/>
+    <col min="27" max="27" width="13.26953125" customWidth="1"/>
+    <col min="28" max="43" width="10.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="52" t="s">
         <v>33</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="54" t="s">
         <v>58</v>
       </c>
       <c r="E1" s="4" t="s">
@@ -11639,37 +11689,37 @@
       <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="42" t="s">
+      <c r="L1" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="43" t="s">
+      <c r="M1" s="54" t="s">
         <v>37</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="42" t="s">
+      <c r="O1" s="53" t="s">
         <v>616</v>
       </c>
-      <c r="P1" s="43" t="s">
+      <c r="P1" s="54" t="s">
         <v>617</v>
       </c>
-      <c r="Q1" s="42" t="s">
+      <c r="Q1" s="57" t="s">
         <v>618</v>
       </c>
-      <c r="R1" s="43" t="s">
+      <c r="R1" s="58" t="s">
         <v>619</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="59" t="s">
         <v>14</v>
       </c>
       <c r="W1" s="4" t="s">
@@ -11681,13 +11731,13 @@
       <c r="Y1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="Z1" s="42" t="s">
+      <c r="Z1" s="53" t="s">
         <v>620</v>
       </c>
-      <c r="AA1" s="46" t="s">
+      <c r="AA1" s="55" t="s">
         <v>621</v>
       </c>
-      <c r="AB1" s="43" t="s">
+      <c r="AB1" s="54" t="s">
         <v>622</v>
       </c>
       <c r="AC1" s="4" t="s">
@@ -11736,7 +11786,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -11748,11 +11798,11 @@
         <f>Data!D9*About!$A$20</f>
         <v>14453150608.091772</v>
       </c>
-      <c r="D2" s="44">
+      <c r="D2" s="42">
         <f>Data!K33*10^6*About!$A$20</f>
         <v>202688704668.41345</v>
       </c>
-      <c r="E2" s="47">
+      <c r="E2" s="43">
         <f>(Data!F9-Data!D9)*About!$A$20</f>
         <v>37437448897.388535</v>
       </c>
@@ -11801,28 +11851,28 @@
         <v>47136928751.759583</v>
       </c>
       <c r="Q2" s="39">
-        <f>Data!M9*About!$A$20</f>
-        <v>35229071654.495766</v>
+        <f>((Data!K42*((Data!D88)/SUM(Data!D88:D89)))+(Data!K43*((Data!D96)/SUM(Data!D90:D97))))*10^6*About!$A$20</f>
+        <v>67574257744.973152</v>
       </c>
       <c r="R2" s="40">
-        <f>Data!N9*About!$A$20</f>
-        <v>30086214480.500706</v>
+        <f>Data!K43*((SUM(Data!D90:D95,Data!D97)/SUM(Data!D90:D97)))*10^6*About!$A$20</f>
+        <v>121418183675.48477</v>
       </c>
       <c r="S2" s="7">
-        <f>Data!K44*(SUM(Data!D98:D117)/SUM(Data!D98:D145)*10^6*About!$A$20)</f>
-        <v>71069405878.446579</v>
+        <f>((Data!K42*(Data!D89)/SUM(Data!D88:D89))+(Data!K44*(SUM(Data!D98:D117)/SUM(Data!D98:D145))))*10^6*About!$A$20</f>
+        <v>84774989471.827805</v>
       </c>
       <c r="T2" s="7">
         <f>(Data!K45+(Data!K46*(SUM(Data!D155:D165)/SUM(Data!D155:D182))))*10^6*About!$A$20</f>
         <v>316646953318.95026</v>
       </c>
       <c r="U2" s="7">
-        <f>Data!K46*(SUM(Data!D165:D182)/SUM(Data!D155:D182))*10^6*About!$A$20</f>
-        <v>24035341219.481464</v>
+        <f>Data!K46*(SUM(Data!D166:D182)/SUM(Data!D155:D182))*10^6*About!$A$20</f>
+        <v>23704100591.076611</v>
       </c>
       <c r="V2" s="7">
-        <f>Data!K44*(SUM(Data!D117:D145)/SUM(Data!D98:D145))*10^6*About!$A$20</f>
-        <v>79871632616.31076</v>
+        <f>Data!K44*(SUM(Data!D118:D145)/SUM(Data!D98:D145))*10^6*About!$A$20</f>
+        <v>76878368192.483749</v>
       </c>
       <c r="W2">
         <f>Data!K47*10^6*About!$A$20</f>
@@ -11833,20 +11883,20 @@
         <v>132875928213.45534</v>
       </c>
       <c r="Y2" s="7">
-        <f>SUM(Data!K49:K50)+(Data!K114*(SUM(Data!D422:D424)/SUM(Data!D421:D432)))*10^6*About!$A$20</f>
-        <v>50127717148.414276</v>
+        <f>(SUM(Data!K49:K50)+(Data!K114*(SUM(Data!D422:D424)/SUM(Data!D421:D432))))*10^6*About!$A$20</f>
+        <v>161900556793.84174</v>
       </c>
       <c r="Z2" s="39">
         <f>Data!P9*About!$A$20</f>
-        <v>210960580231.93298</v>
+        <v>252855538389.33221</v>
       </c>
       <c r="AA2" s="39">
         <f>Data!Q9*About!$A$20</f>
-        <v>49742005919.01532</v>
+        <v>59620340792.531219</v>
       </c>
       <c r="AB2" s="39">
-        <f>Data!R9*About!$A$20</f>
-        <v>59947799441.552666</v>
+        <f>(Data!R9+(Data!K99*10^6))*About!$A$20</f>
+        <v>63711055585.822945</v>
       </c>
       <c r="AC2">
         <f>Data!K37*10^6*About!$A$20</f>
@@ -11873,20 +11923,20 @@
         <v>315297161298.12354</v>
       </c>
       <c r="AI2">
-        <f>Data!K94*10^6*About!$A$20</f>
-        <v>359750929261.54181</v>
+        <f>(Data!K94+Data!K79)*10^6*About!$A$20</f>
+        <v>653362145469.97815</v>
       </c>
       <c r="AJ2">
-        <f>Data!K80*10^6*About!$A$20</f>
-        <v>4139628878909.1035</v>
+        <f>Data!K81*10^6*About!$A$20</f>
+        <v>1659858622253.3857</v>
       </c>
       <c r="AK2">
         <f>Data!K86*10^6*About!$A$20</f>
         <v>2479769409351.5884</v>
       </c>
       <c r="AL2">
-        <f>SUM(Data!K93,Data!K95:K98)*10^6*About!$A$20</f>
-        <v>2790233504697.9365</v>
+        <f>SUM(Data!K93,Data!K95:K96,Data!K98)*10^6*About!$A$20</f>
+        <v>2158408135594.3459</v>
       </c>
       <c r="AM2">
         <f>Data!K115*10^6*About!$A$20</f>
@@ -11897,8 +11947,8 @@
         <v>228539953662.76706</v>
       </c>
       <c r="AO2">
-        <f>(Data!K102+(Data!K114*(SUM(Data!D425:D431)/SUM(Data!D421:D432)))*10^6*About!$A$20)</f>
-        <v>246440246926.88205</v>
+        <f>(Data!K102+(Data!K114*(SUM(Data!D425:D431)/SUM(Data!D421:D432))))*10^6*About!$A$20</f>
+        <v>1717212743788.8474</v>
       </c>
       <c r="AP2">
         <f>Data!K108*10^6*About!$A$20</f>
@@ -11909,21 +11959,47 @@
         <v>12639797014.323402</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <f>SUM(B2:AQ2)/About!A20</f>
-        <v>24549397830973.781</v>
-      </c>
-    </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="C5" s="52"/>
-      <c r="O5" s="9">
-        <f>SUM(Q2:R2)/About!A20</f>
-        <v>77085999999.999985</v>
-      </c>
-    </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="B4" s="51"/>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="B5" s="56"/>
+      <c r="C5" s="48"/>
+      <c r="O5" s="9"/>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="F6" s="31"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="45"/>
+      <c r="O6" s="60"/>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="62"/>
+      <c r="R6" s="63"/>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="O7" s="60"/>
+      <c r="P7" s="63"/>
+      <c r="Q7" s="63"/>
+      <c r="R7" s="63"/>
       <c r="Z7" s="9"/>
+    </row>
+    <row r="8" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="O8" s="60"/>
+      <c r="P8" s="63"/>
+      <c r="Q8" s="63"/>
+      <c r="R8" s="63"/>
+    </row>
+    <row r="9" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="O9" s="63"/>
+      <c r="P9" s="63"/>
+      <c r="Q9" s="63"/>
+      <c r="R9" s="63"/>
+    </row>
+    <row r="10" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="O10" s="63"/>
+      <c r="P10" s="63"/>
+      <c r="Q10" s="63"/>
+      <c r="R10" s="63"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/InputData/io-model/BVAbIC/BAU Value Added by ISIC Code.xlsx
+++ b/InputData/io-model/BVAbIC/BAU Value Added by ISIC Code.xlsx
@@ -8,10 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mary Francis Swint\Vensim\eps-us\InputData\io-model\BVAbIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEAD525A-0B90-4B2D-A9D0-6B43F691331D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BA974B-8891-4A44-AFF6-E02047A120CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="11370" activeTab="1" xr2:uid="{5EF2576B-993B-4CC3-A792-3E4B00343B75}"/>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{1C8C795B-FBC9-4F02-959E-06AC8995FF66}"/>
+    <workbookView xWindow="-38505" yWindow="-5760" windowWidth="19410" windowHeight="20985" xr2:uid="{5EF2576B-993B-4CC3-A792-3E4B00343B75}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="742">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="742">
   <si>
     <t>Source:</t>
   </si>
@@ -2502,7 +2501,7 @@
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2616,21 +2615,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
@@ -2919,10 +2904,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -3019,8 +3003,11 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B13" r:id="rId1" xr:uid="{F9B77A65-569C-4A22-B18C-D0094C015602}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3028,10 +3015,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD066558-DDB4-469E-A78A-47CFC97B3CEE}">
   <dimension ref="A1:S455"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I87" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -3044,7 +3030,7 @@
     <col min="7" max="8" width="20.81640625" customWidth="1"/>
     <col min="9" max="9" width="48.1796875" customWidth="1"/>
     <col min="10" max="10" width="19.81640625" customWidth="1"/>
-    <col min="11" max="11" width="23.453125" customWidth="1"/>
+    <col min="11" max="11" width="23.453125" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="22.453125" customWidth="1"/>
     <col min="13" max="13" width="20.26953125" customWidth="1"/>
     <col min="14" max="15" width="18.453125" customWidth="1"/>
@@ -3455,68 +3441,68 @@
         <v>Compensation of employees</v>
       </c>
       <c r="D10" s="11">
-        <f t="shared" ref="D10:D12" si="2">$F10*($D$7/$F$7)</f>
-        <v>5028880697.3898449</v>
+        <f>$F10*($D$7/$F$7)</f>
+        <v>5162297139.0431118</v>
       </c>
       <c r="E10" s="10">
         <f>L33*10^6</f>
-        <v>38814000000</v>
+        <v>24826000000</v>
       </c>
       <c r="F10" s="23">
         <f>L34*10^6</f>
-        <v>18055000000</v>
+        <v>18534000000</v>
       </c>
       <c r="G10" s="25">
-        <f t="shared" ref="G10:H12" si="3">$I10*(G$7/$I$8)</f>
-        <v>55217046093.163567</v>
+        <f>$I10*(G$7/$I$7)</f>
+        <v>78457188349.305695</v>
       </c>
       <c r="H10" s="25">
-        <f t="shared" si="3"/>
-        <v>28572862492.38744</v>
+        <f>$I10*(H$7/$I$7)</f>
+        <v>40598811650.694305</v>
       </c>
       <c r="I10" s="23">
         <f>L58*10^6</f>
-        <v>100482000000</v>
+        <v>119056000000</v>
       </c>
       <c r="J10" s="25">
-        <f t="shared" ref="J10:K12" si="4">$L10*(J$7/$L$8)</f>
-        <v>4277299306.9888878</v>
+        <f>$L10*(J$7/$L$7)</f>
+        <v>6897162112.3429813</v>
       </c>
       <c r="K10" s="25">
-        <f t="shared" si="4"/>
-        <v>16305595757.186401</v>
+        <f t="shared" ref="J10:K12" si="2">$L10*(K$7/$L$8)</f>
+        <v>19984590959.41716</v>
       </c>
       <c r="L10" s="24">
         <f>L41*10^6</f>
-        <v>27080000000</v>
+        <v>33190000000</v>
       </c>
       <c r="M10" s="25">
-        <f t="shared" ref="M10:N12" si="5">$O10*(M$7/$O$8)</f>
-        <v>14008562219.564405</v>
+        <f>$O10*(M$7/$O$7)</f>
+        <v>18278692170.645138</v>
       </c>
       <c r="N10" s="25">
-        <f t="shared" si="5"/>
-        <v>11963545665.770288</v>
+        <f>$O10*(N$7/$O$7)</f>
+        <v>15610307829.35486</v>
       </c>
       <c r="O10" s="24">
         <f>L42*10^6</f>
-        <v>31636000000</v>
+        <v>33889000000</v>
       </c>
       <c r="P10" s="25">
-        <f t="shared" ref="P10:R12" si="6">$S10*(P$7/$S$8)</f>
-        <v>47523851039.974663</v>
+        <f>$S10*(P$7/$S$7)</f>
+        <v>73568926339.8349</v>
       </c>
       <c r="Q10" s="25">
-        <f t="shared" si="6"/>
-        <v>11205561139.080498</v>
+        <f>$S10*(Q$7/$S$7)</f>
+        <v>17346681382.03072</v>
       </c>
       <c r="R10" s="25">
-        <f t="shared" si="6"/>
-        <v>1536387248.8578448</v>
+        <f>$S10*(R$7/$S$7)</f>
+        <v>2378392278.1343822</v>
       </c>
       <c r="S10" s="24">
         <f>L36*10^6</f>
-        <v>77628000000</v>
+        <v>93294000000</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
@@ -3528,68 +3514,68 @@
         <v>Taxes on production and imports, less subsidies</v>
       </c>
       <c r="D11" s="11">
-        <f t="shared" si="2"/>
-        <v>1383742968.9633205</v>
+        <f>$F11*($D$7/$F$7)</f>
+        <v>1580943053.9121995</v>
       </c>
       <c r="E11" s="10">
         <f>M33*10^6</f>
-        <v>32690000000</v>
+        <v>37895000000</v>
       </c>
       <c r="F11" s="23">
         <f>M34*10^6</f>
-        <v>4968000000</v>
+        <v>5676000000</v>
       </c>
       <c r="G11" s="25">
-        <f t="shared" si="3"/>
-        <v>8952808611.9884243</v>
+        <f>$I11*(G$7/$I$7)</f>
+        <v>12514295850.299988</v>
       </c>
       <c r="H11" s="25">
-        <f t="shared" si="3"/>
-        <v>4632760849.9629402</v>
+        <f>$I11*(H$7/$I$7)</f>
+        <v>6475704149.7000141</v>
       </c>
       <c r="I11" s="23">
         <f>M58*10^6</f>
-        <v>16292000000</v>
+        <v>18990000000</v>
       </c>
       <c r="J11" s="25">
-        <f t="shared" si="4"/>
-        <v>228396410.55782613</v>
+        <f>$L11*(J$7/$L$7)</f>
+        <v>232537643.98046991</v>
       </c>
       <c r="K11" s="25">
-        <f t="shared" si="4"/>
-        <v>870675460.29880118</v>
+        <f t="shared" si="2"/>
+        <v>673779972.38890624</v>
       </c>
       <c r="L11" s="24">
         <f>M41*10^6</f>
-        <v>1446000000</v>
+        <v>1119000000</v>
       </c>
       <c r="M11" s="25">
-        <f t="shared" si="5"/>
-        <v>1099483499.5314963</v>
+        <f>$O11*(M$7/$O$7)</f>
+        <v>1186612847.1013987</v>
       </c>
       <c r="N11" s="25">
-        <f t="shared" si="5"/>
-        <v>938977237.58084536</v>
+        <f>$O11*(N$7/$O$7)</f>
+        <v>1013387152.8986012</v>
       </c>
       <c r="O11" s="24">
         <f>M42*10^6</f>
-        <v>2483000000</v>
+        <v>2200000000</v>
       </c>
       <c r="P11" s="25">
-        <f t="shared" si="6"/>
-        <v>36126526172.514359</v>
+        <f>$S11*(P$7/$S$7)</f>
+        <v>55477534523.764282</v>
       </c>
       <c r="Q11" s="25">
-        <f t="shared" si="6"/>
-        <v>8518206940.5147533</v>
+        <f>$S11*(Q$7/$S$7)</f>
+        <v>13080945490.477686</v>
       </c>
       <c r="R11" s="25">
-        <f t="shared" si="6"/>
-        <v>1167925850.7542417</v>
+        <f>$S11*(R$7/$S$7)</f>
+        <v>1793519985.7580345</v>
       </c>
       <c r="S11" s="24">
         <f>M36*10^6</f>
-        <v>59011000000</v>
+        <v>70352000000</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
@@ -3601,68 +3587,68 @@
         <v>Gross operating surplus</v>
       </c>
       <c r="D12" s="11">
-        <f t="shared" si="2"/>
-        <v>7512264818.0172529</v>
+        <f>$F12*($D$7/$F$7)</f>
+        <v>10314567155.122723</v>
       </c>
       <c r="E12" s="10">
         <f>N33*10^6</f>
-        <v>86727000000</v>
+        <v>176495000000</v>
       </c>
       <c r="F12" s="23">
         <f>N34*10^6</f>
-        <v>26971000000</v>
+        <v>37032000000</v>
       </c>
       <c r="G12" s="25">
-        <f t="shared" si="3"/>
-        <v>118809902943.99516</v>
+        <f>$I12*(G$7/$I$7)</f>
+        <v>198717001394.13165</v>
       </c>
       <c r="H12" s="25">
-        <f t="shared" si="3"/>
-        <v>61479909914.503288</v>
+        <f>$I12*(H$7/$I$7)</f>
+        <v>102828998605.86838</v>
       </c>
       <c r="I12" s="23">
         <f>N58*10^6</f>
-        <v>216206000000</v>
+        <v>301546000000</v>
       </c>
       <c r="J12" s="25">
-        <f t="shared" si="4"/>
-        <v>4128036092.6201839</v>
+        <f>$L12*(J$7/$L$7)</f>
+        <v>7463647918.858407</v>
       </c>
       <c r="K12" s="25">
-        <f t="shared" si="4"/>
-        <v>15736585860.933035</v>
+        <f t="shared" si="2"/>
+        <v>21625988818.873959</v>
       </c>
       <c r="L12" s="24">
         <f>N41*10^6</f>
-        <v>26135000000</v>
+        <v>35916000000</v>
       </c>
       <c r="M12" s="25">
-        <f t="shared" si="5"/>
-        <v>11489447588.539564</v>
+        <f>$O12*(M$7/$O$7)</f>
+        <v>22113069775.210522</v>
       </c>
       <c r="N12" s="25">
-        <f t="shared" si="5"/>
-        <v>9812179775.8800621</v>
+        <f>$O12*(N$7/$O$7)</f>
+        <v>18884930224.789478</v>
       </c>
       <c r="O12" s="24">
         <f>N42*10^6</f>
-        <v>25947000000</v>
+        <v>40998000000</v>
       </c>
       <c r="P12" s="25">
-        <f t="shared" si="6"/>
-        <v>99539412481.869949</v>
+        <f>$S12*(P$7/$S$7)</f>
+        <v>169377127023.52924</v>
       </c>
       <c r="Q12" s="25">
-        <f t="shared" si="6"/>
-        <v>23470214385.099648</v>
+        <f>$S12*(Q$7/$S$7)</f>
+        <v>39937120222.590714</v>
       </c>
       <c r="R12" s="25">
-        <f t="shared" si="6"/>
-        <v>3217985932.3123555</v>
+        <f>$S12*(R$7/$S$7)</f>
+        <v>5475752753.8800354</v>
       </c>
       <c r="S12" s="24">
         <f>N36*10^6</f>
-        <v>162593000000</v>
+        <v>214790000000</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.35">
@@ -3762,13 +3748,13 @@
         <v>23315081</v>
       </c>
       <c r="L27" s="31">
-        <v>9709535</v>
+        <v>12549140</v>
       </c>
       <c r="M27" s="31">
-        <v>1217959</v>
+        <v>1181454</v>
       </c>
       <c r="N27" s="31">
-        <v>7310806</v>
+        <v>9584486</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.35">
@@ -3794,13 +3780,13 @@
         <v>20502200</v>
       </c>
       <c r="L28" s="31">
-        <v>7863213</v>
+        <v>10338235</v>
       </c>
       <c r="M28" s="31">
-        <v>1242490</v>
+        <v>1228623</v>
       </c>
       <c r="N28" s="31">
-        <v>6793156</v>
+        <v>8935342</v>
       </c>
       <c r="P28" s="9"/>
     </row>
@@ -3830,13 +3816,13 @@
         <v>206568</v>
       </c>
       <c r="L29" s="31">
-        <v>50616</v>
+        <v>61364</v>
       </c>
       <c r="M29" s="31">
-        <v>2314</v>
+        <v>-13408</v>
       </c>
       <c r="N29" s="31">
-        <v>129354</v>
+        <v>158612</v>
       </c>
       <c r="P29" s="9"/>
     </row>
@@ -3863,13 +3849,13 @@
         <v>164706</v>
       </c>
       <c r="L30" s="31">
-        <v>27205</v>
+        <v>31511</v>
       </c>
       <c r="M30" s="31">
-        <v>789</v>
+        <v>-14489</v>
       </c>
       <c r="N30" s="31">
-        <v>119390</v>
+        <v>147685</v>
       </c>
       <c r="P30" s="9"/>
     </row>
@@ -3896,13 +3882,13 @@
         <v>41862</v>
       </c>
       <c r="L31" s="31">
-        <v>23410</v>
+        <v>29853</v>
       </c>
       <c r="M31" s="31">
-        <v>1525</v>
+        <v>1081</v>
       </c>
       <c r="N31" s="31">
-        <v>9964</v>
+        <v>10928</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.35">
@@ -3928,13 +3914,13 @@
         <v>333935</v>
       </c>
       <c r="L32" s="31">
-        <v>91867</v>
+        <v>67307</v>
       </c>
       <c r="M32" s="31">
-        <v>40072</v>
+        <v>43668</v>
       </c>
       <c r="N32" s="31">
-        <v>129835</v>
+        <v>222959</v>
       </c>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.35">
@@ -3963,13 +3949,13 @@
         <v>239216</v>
       </c>
       <c r="L33" s="31">
-        <v>38814</v>
+        <v>24826</v>
       </c>
       <c r="M33" s="31">
-        <v>32690</v>
+        <v>37895</v>
       </c>
       <c r="N33" s="31">
-        <v>86727</v>
+        <v>176495</v>
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.35">
@@ -3998,13 +3984,13 @@
         <v>61242</v>
       </c>
       <c r="L34" s="31">
-        <v>18055</v>
+        <v>18534</v>
       </c>
       <c r="M34" s="31">
-        <v>4968</v>
+        <v>5676</v>
       </c>
       <c r="N34" s="31">
-        <v>26971</v>
+        <v>37032</v>
       </c>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.35">
@@ -4033,13 +4019,13 @@
         <v>33477</v>
       </c>
       <c r="L35" s="31">
-        <v>34998</v>
+        <v>23948</v>
       </c>
       <c r="M35" s="31">
-        <v>2415</v>
+        <v>98</v>
       </c>
       <c r="N35" s="31">
-        <v>16137</v>
+        <v>9432</v>
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.35">
@@ -4068,13 +4054,13 @@
         <v>378436</v>
       </c>
       <c r="L36" s="31">
-        <v>77628</v>
+        <v>93294</v>
       </c>
       <c r="M36" s="31">
-        <v>59011</v>
+        <v>70352</v>
       </c>
       <c r="N36" s="31">
-        <v>162593</v>
+        <v>214790</v>
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.35">
@@ -4103,13 +4089,13 @@
         <v>945303</v>
       </c>
       <c r="L37" s="31">
-        <v>458477</v>
+        <v>635566</v>
       </c>
       <c r="M37" s="31">
-        <v>8976</v>
+        <v>-21700</v>
       </c>
       <c r="N37" s="31">
-        <v>227490</v>
+        <v>331437</v>
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.35">
@@ -4135,13 +4121,13 @@
         <v>2496804</v>
       </c>
       <c r="L38" s="31">
-        <v>1006425</v>
+        <v>1183656</v>
       </c>
       <c r="M38" s="31">
-        <v>85526</v>
+        <v>66392</v>
       </c>
       <c r="N38" s="31">
-        <v>1037641</v>
+        <v>1246756</v>
       </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.35">
@@ -4167,13 +4153,13 @@
         <v>1394985</v>
       </c>
       <c r="L39" s="31">
-        <v>662696</v>
+        <v>778644</v>
       </c>
       <c r="M39" s="31">
-        <v>30260</v>
+        <v>14922</v>
       </c>
       <c r="N39" s="31">
-        <v>490800</v>
+        <v>601419</v>
       </c>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.35">
@@ -4205,13 +4191,13 @@
         <v>61811</v>
       </c>
       <c r="L40" s="31">
-        <v>20428</v>
+        <v>28148</v>
       </c>
       <c r="M40" s="31">
-        <v>704</v>
+        <v>68</v>
       </c>
       <c r="N40" s="31">
-        <v>11353</v>
+        <v>33594</v>
       </c>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.35">
@@ -4243,13 +4229,13 @@
         <v>70225</v>
       </c>
       <c r="L41" s="31">
-        <v>27080</v>
+        <v>33190</v>
       </c>
       <c r="M41" s="31">
-        <v>1446</v>
+        <v>1119</v>
       </c>
       <c r="N41" s="31">
-        <v>26135</v>
+        <v>35916</v>
       </c>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.35">
@@ -4278,13 +4264,13 @@
         <v>77086</v>
       </c>
       <c r="L42" s="31">
-        <v>31636</v>
+        <v>33889</v>
       </c>
       <c r="M42" s="31">
-        <v>2483</v>
+        <v>2200</v>
       </c>
       <c r="N42" s="31">
-        <v>25947</v>
+        <v>40998</v>
       </c>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.35">
@@ -4313,13 +4299,13 @@
         <v>162141</v>
       </c>
       <c r="L43" s="31">
-        <v>97092</v>
+        <v>107966</v>
       </c>
       <c r="M43" s="31">
-        <v>3374</v>
+        <v>-2241</v>
       </c>
       <c r="N43" s="31">
-        <v>46896</v>
+        <v>56416</v>
       </c>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.35">
@@ -4348,13 +4334,13 @@
         <v>174610</v>
       </c>
       <c r="L44" s="31">
-        <v>94664</v>
+        <v>101965</v>
       </c>
       <c r="M44" s="31">
-        <v>3548</v>
+        <v>953</v>
       </c>
       <c r="N44" s="31">
-        <v>54260</v>
+        <v>71692</v>
       </c>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.35">
@@ -4383,13 +4369,13 @@
         <v>334033</v>
       </c>
       <c r="L45" s="31">
-        <v>137529</v>
+        <v>183744</v>
       </c>
       <c r="M45" s="31">
-        <v>8570</v>
+        <v>8444</v>
       </c>
       <c r="N45" s="31">
-        <v>121224</v>
+        <v>141845</v>
       </c>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.35">
@@ -4418,13 +4404,13 @@
         <v>67654</v>
       </c>
       <c r="L46" s="31">
-        <v>34671</v>
+        <v>40560</v>
       </c>
       <c r="M46" s="31">
-        <v>879</v>
+        <v>378</v>
       </c>
       <c r="N46" s="31">
-        <v>28080</v>
+        <v>26716</v>
       </c>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.35">
@@ -4453,13 +4439,13 @@
         <v>158687</v>
       </c>
       <c r="L47" s="31">
-        <v>69905</v>
+        <v>80207</v>
       </c>
       <c r="M47" s="31">
-        <v>3414</v>
+        <v>3063</v>
       </c>
       <c r="N47" s="31">
-        <v>72921</v>
+        <v>75417</v>
       </c>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.35">
@@ -4491,13 +4477,13 @@
         <v>156822</v>
       </c>
       <c r="L48" s="31">
-        <v>77790</v>
+        <v>84679</v>
       </c>
       <c r="M48" s="31">
-        <v>2485</v>
+        <v>2333</v>
       </c>
       <c r="N48" s="31">
-        <v>68800</v>
+        <v>69809</v>
       </c>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.35">
@@ -4529,13 +4515,13 @@
         <v>31513</v>
       </c>
       <c r="L49" s="31">
-        <v>20277</v>
+        <v>23500</v>
       </c>
       <c r="M49" s="31">
-        <v>387</v>
+        <v>-824</v>
       </c>
       <c r="N49" s="31">
-        <v>8477</v>
+        <v>8837</v>
       </c>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.35">
@@ -4567,13 +4553,13 @@
         <v>100403</v>
       </c>
       <c r="L50" s="31">
-        <v>51622</v>
+        <v>60795</v>
       </c>
       <c r="M50" s="31">
-        <v>2969</v>
+        <v>-571</v>
       </c>
       <c r="N50" s="31">
-        <v>26708</v>
+        <v>40179</v>
       </c>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.35">
@@ -4602,13 +4588,13 @@
         <v>1101819</v>
       </c>
       <c r="L51" s="31">
-        <v>343730</v>
+        <v>405012</v>
       </c>
       <c r="M51" s="31">
-        <v>55266</v>
+        <v>51469</v>
       </c>
       <c r="N51" s="31">
-        <v>546841</v>
+        <v>645337</v>
       </c>
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.35">
@@ -4640,13 +4626,13 @@
         <v>322576</v>
       </c>
       <c r="L52" s="31">
-        <v>103480</v>
+        <v>134314</v>
       </c>
       <c r="M52" s="31">
-        <v>30122</v>
+        <v>26683</v>
       </c>
       <c r="N52" s="31">
-        <v>128122</v>
+        <v>161579</v>
       </c>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.35">
@@ -4678,13 +4664,13 @@
         <v>17689</v>
       </c>
       <c r="L53" s="31">
-        <v>12017</v>
+        <v>12358</v>
       </c>
       <c r="M53" s="31">
-        <v>571</v>
+        <v>234</v>
       </c>
       <c r="N53" s="31">
-        <v>5348</v>
+        <v>5098</v>
       </c>
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.35">
@@ -4716,13 +4702,13 @@
         <v>8310</v>
       </c>
       <c r="L54" s="31">
-        <v>8174</v>
+        <v>7262</v>
       </c>
       <c r="M54" s="31">
-        <v>290</v>
+        <v>-577</v>
       </c>
       <c r="N54" s="31">
-        <v>1230</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.35">
@@ -4754,13 +4740,13 @@
         <v>62260</v>
       </c>
       <c r="L55" s="31">
-        <v>30172</v>
+        <v>32368</v>
       </c>
       <c r="M55" s="31">
-        <v>1736</v>
+        <v>1830</v>
       </c>
       <c r="N55" s="31">
-        <v>27760</v>
+        <v>28062</v>
       </c>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.35">
@@ -4792,13 +4778,13 @@
         <v>36946</v>
       </c>
       <c r="L56" s="31">
-        <v>26028</v>
+        <v>24722</v>
       </c>
       <c r="M56" s="31">
-        <v>762</v>
+        <v>-1115</v>
       </c>
       <c r="N56" s="31">
-        <v>13421</v>
+        <v>13338</v>
       </c>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.35">
@@ -4830,13 +4816,13 @@
         <v>129339</v>
       </c>
       <c r="L57" s="31">
-        <v>19815</v>
+        <v>20164</v>
       </c>
       <c r="M57" s="31">
-        <v>3677</v>
+        <v>4344</v>
       </c>
       <c r="N57" s="31">
-        <v>121879</v>
+        <v>104831</v>
       </c>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.35">
@@ -4868,13 +4854,13 @@
         <v>439593</v>
       </c>
       <c r="L58" s="31">
-        <v>100482</v>
+        <v>119056</v>
       </c>
       <c r="M58" s="31">
-        <v>16292</v>
+        <v>18990</v>
       </c>
       <c r="N58" s="31">
-        <v>216206</v>
+        <v>301546</v>
       </c>
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.35">
@@ -4906,13 +4892,13 @@
         <v>85107</v>
       </c>
       <c r="L59" s="31">
-        <v>43560</v>
+        <v>54768</v>
       </c>
       <c r="M59" s="31">
-        <v>1817</v>
+        <v>1081</v>
       </c>
       <c r="N59" s="31">
-        <v>32875</v>
+        <v>29258</v>
       </c>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.35">
@@ -4941,13 +4927,13 @@
         <v>1444497</v>
       </c>
       <c r="L60" s="31">
-        <v>509809</v>
+        <v>605994</v>
       </c>
       <c r="M60" s="31">
-        <v>210383</v>
+        <v>291032</v>
       </c>
       <c r="N60" s="31">
-        <v>422674</v>
+        <v>547472</v>
       </c>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.35">
@@ -4969,17 +4955,20 @@
       <c r="I61" t="s">
         <v>659</v>
       </c>
+      <c r="J61" t="s">
+        <v>19</v>
+      </c>
       <c r="K61" s="31">
         <v>1391128</v>
       </c>
       <c r="L61" s="31">
-        <v>573627</v>
+        <v>745483</v>
       </c>
       <c r="M61" s="31">
-        <v>216863</v>
+        <v>271713</v>
       </c>
       <c r="N61" s="31">
-        <v>229589</v>
+        <v>373931</v>
       </c>
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.35">
@@ -5001,21 +4990,12 @@
       <c r="I62" t="s">
         <v>660</v>
       </c>
-      <c r="J62" t="s">
-        <v>19</v>
-      </c>
       <c r="K62" s="31">
         <v>280758</v>
       </c>
-      <c r="L62" s="31">
-        <v>320031</v>
-      </c>
-      <c r="M62" s="31">
-        <v>34977</v>
-      </c>
-      <c r="N62" s="31">
-        <v>210828</v>
-      </c>
+      <c r="L62" s="31"/>
+      <c r="M62" s="31"/>
+      <c r="N62" s="31"/>
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B63">
@@ -5036,21 +5016,12 @@
       <c r="I63" t="s">
         <v>661</v>
       </c>
-      <c r="J63" t="s">
-        <v>19</v>
-      </c>
       <c r="K63" s="31">
         <v>184632</v>
       </c>
-      <c r="L63" s="31">
-        <v>48445</v>
-      </c>
-      <c r="M63" s="31">
-        <v>22055</v>
-      </c>
-      <c r="N63" s="31">
-        <v>47193</v>
-      </c>
+      <c r="L63" s="31"/>
+      <c r="M63" s="31"/>
+      <c r="N63" s="31"/>
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B64">
@@ -5071,21 +5042,12 @@
       <c r="I64" t="s">
         <v>662</v>
       </c>
-      <c r="J64" t="s">
-        <v>19</v>
-      </c>
       <c r="K64" s="31">
         <v>174777</v>
       </c>
-      <c r="L64" s="31">
-        <v>24226</v>
-      </c>
-      <c r="M64" s="31">
-        <v>208</v>
-      </c>
-      <c r="N64" s="31">
-        <v>19867</v>
-      </c>
+      <c r="L64" s="31"/>
+      <c r="M64" s="31"/>
+      <c r="N64" s="31"/>
     </row>
     <row r="65" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B65">
@@ -5106,21 +5068,12 @@
       <c r="I65" t="s">
         <v>663</v>
       </c>
-      <c r="J65" t="s">
-        <v>19</v>
-      </c>
       <c r="K65" s="31">
         <v>750960</v>
       </c>
-      <c r="L65" s="31">
-        <v>7322</v>
-      </c>
-      <c r="M65" s="31">
-        <v>867</v>
-      </c>
-      <c r="N65" s="31">
-        <v>7603</v>
-      </c>
+      <c r="L65" s="31"/>
+      <c r="M65" s="31"/>
+      <c r="N65" s="31"/>
     </row>
     <row r="66" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B66">
@@ -5145,13 +5098,13 @@
         <v>688237</v>
       </c>
       <c r="L66" s="31">
-        <v>92014</v>
+        <v>457113</v>
       </c>
       <c r="M66" s="31">
-        <v>4144</v>
+        <v>3238</v>
       </c>
       <c r="N66" s="31">
-        <v>52871</v>
+        <v>227885</v>
       </c>
     </row>
     <row r="67" spans="2:14" x14ac:dyDescent="0.35">
@@ -5180,13 +5133,13 @@
         <v>84025</v>
       </c>
       <c r="L67" s="31">
-        <v>19815</v>
+        <v>58505</v>
       </c>
       <c r="M67" s="31">
-        <v>1708</v>
+        <v>-788</v>
       </c>
       <c r="N67" s="31">
-        <v>20673</v>
+        <v>26309</v>
       </c>
     </row>
     <row r="68" spans="2:14" x14ac:dyDescent="0.35">
@@ -5215,13 +5168,13 @@
         <v>42153</v>
       </c>
       <c r="L68" s="31">
-        <v>7146</v>
+        <v>20227</v>
       </c>
       <c r="M68" s="31">
-        <v>2951</v>
+        <v>-2702</v>
       </c>
       <c r="N68" s="31">
-        <v>26712</v>
+        <v>24628</v>
       </c>
     </row>
     <row r="69" spans="2:14" x14ac:dyDescent="0.35">
@@ -5250,13 +5203,13 @@
         <v>12846</v>
       </c>
       <c r="L69" s="31">
-        <v>77801</v>
+        <v>7297</v>
       </c>
       <c r="M69" s="31">
-        <v>2263</v>
+        <v>606</v>
       </c>
       <c r="N69" s="31">
-        <v>28010</v>
+        <v>4944</v>
       </c>
     </row>
     <row r="70" spans="2:14" x14ac:dyDescent="0.35">
@@ -5285,13 +5238,13 @@
         <v>192517</v>
       </c>
       <c r="L70" s="31">
-        <v>43261</v>
+        <v>118572</v>
       </c>
       <c r="M70" s="31">
-        <v>781</v>
+        <v>1252</v>
       </c>
       <c r="N70" s="31">
-        <v>7898</v>
+        <v>72694</v>
       </c>
     </row>
     <row r="71" spans="2:14" x14ac:dyDescent="0.35">
@@ -5320,13 +5273,13 @@
         <v>42858</v>
       </c>
       <c r="L71" s="31">
-        <v>318675</v>
+        <v>24464</v>
       </c>
       <c r="M71" s="31">
-        <v>55293</v>
+        <v>-1234</v>
       </c>
       <c r="N71" s="31">
-        <v>532970</v>
+        <v>19629</v>
       </c>
     </row>
     <row r="72" spans="2:14" x14ac:dyDescent="0.35">
@@ -5355,13 +5308,13 @@
         <v>45129</v>
       </c>
       <c r="L72" s="31">
-        <v>114787</v>
+        <v>8254</v>
       </c>
       <c r="M72" s="31">
-        <v>5467</v>
+        <v>4183</v>
       </c>
       <c r="N72" s="31">
-        <v>103343</v>
+        <v>32692</v>
       </c>
     </row>
     <row r="73" spans="2:14" x14ac:dyDescent="0.35">
@@ -5390,13 +5343,13 @@
         <v>170002</v>
       </c>
       <c r="L73" s="31">
-        <v>34244</v>
+        <v>126402</v>
       </c>
       <c r="M73" s="31">
-        <v>6467</v>
+        <v>1135</v>
       </c>
       <c r="N73" s="31">
-        <v>46882</v>
+        <v>42465</v>
       </c>
     </row>
     <row r="74" spans="2:14" x14ac:dyDescent="0.35">
@@ -5425,13 +5378,13 @@
         <v>98706</v>
       </c>
       <c r="L74" s="31">
-        <v>112649</v>
+        <v>93393</v>
       </c>
       <c r="M74" s="31">
-        <v>39472</v>
+        <v>788</v>
       </c>
       <c r="N74" s="31">
-        <v>273993</v>
+        <v>4525</v>
       </c>
     </row>
     <row r="75" spans="2:14" x14ac:dyDescent="0.35">
@@ -5457,13 +5410,13 @@
         <v>1313256</v>
       </c>
       <c r="L75" s="31">
-        <v>56995</v>
+        <v>507857</v>
       </c>
       <c r="M75" s="31">
-        <v>3888</v>
+        <v>56799</v>
       </c>
       <c r="N75" s="31">
-        <v>108752</v>
+        <v>748600</v>
       </c>
     </row>
     <row r="76" spans="2:14" x14ac:dyDescent="0.35">
@@ -5495,13 +5448,13 @@
         <v>395124</v>
       </c>
       <c r="L76" s="31">
-        <v>852412</v>
+        <v>221340</v>
       </c>
       <c r="M76" s="31">
-        <v>319509</v>
+        <v>5630</v>
       </c>
       <c r="N76" s="31">
-        <v>2577118</v>
+        <v>168154</v>
       </c>
     </row>
     <row r="77" spans="2:14" x14ac:dyDescent="0.35">
@@ -5533,13 +5486,13 @@
         <v>88008</v>
       </c>
       <c r="L77" s="31">
-        <v>715705</v>
+        <v>42938</v>
       </c>
       <c r="M77" s="31">
-        <v>63497</v>
+        <v>2213</v>
       </c>
       <c r="N77" s="31">
-        <v>583890</v>
+        <v>42857</v>
       </c>
     </row>
     <row r="78" spans="2:14" x14ac:dyDescent="0.35">
@@ -5571,13 +5524,13 @@
         <v>483601</v>
       </c>
       <c r="L78" s="31">
-        <v>236473</v>
+        <v>117427</v>
       </c>
       <c r="M78" s="31">
-        <v>17390</v>
+        <v>42469</v>
       </c>
       <c r="N78" s="31">
-        <v>306900</v>
+        <v>323705</v>
       </c>
     </row>
     <row r="79" spans="2:14" x14ac:dyDescent="0.35">
@@ -5609,13 +5562,13 @@
         <v>346524</v>
       </c>
       <c r="L79" s="31">
-        <v>227418</v>
+        <v>126152</v>
       </c>
       <c r="M79" s="31">
-        <v>5065</v>
+        <v>6487</v>
       </c>
       <c r="N79" s="31">
-        <v>-1604</v>
+        <v>213884</v>
       </c>
     </row>
     <row r="80" spans="2:14" x14ac:dyDescent="0.35">
@@ -5644,13 +5597,13 @@
         <v>4885647</v>
       </c>
       <c r="L80" s="31">
-        <v>250693</v>
+        <v>1179563</v>
       </c>
       <c r="M80" s="31">
-        <v>40312</v>
+        <v>392028</v>
       </c>
       <c r="N80" s="31">
-        <v>263076</v>
+        <v>3314056</v>
       </c>
     </row>
     <row r="81" spans="2:14" x14ac:dyDescent="0.35">
@@ -5682,13 +5635,13 @@
         <v>1958988</v>
       </c>
       <c r="L81" s="31">
-        <v>1121</v>
+        <v>991937</v>
       </c>
       <c r="M81" s="31">
-        <v>731</v>
+        <v>65266</v>
       </c>
       <c r="N81" s="31">
-        <v>15519</v>
+        <v>901786</v>
       </c>
     </row>
     <row r="82" spans="2:14" x14ac:dyDescent="0.35">
@@ -5717,13 +5670,13 @@
         <v>890417</v>
       </c>
       <c r="L82" s="31">
-        <v>136707</v>
+        <v>347745</v>
       </c>
       <c r="M82" s="31">
-        <v>256012</v>
+        <v>21451</v>
       </c>
       <c r="N82" s="31">
-        <v>1993228</v>
+        <v>521221</v>
       </c>
     </row>
     <row r="83" spans="2:14" x14ac:dyDescent="0.35">
@@ -5752,13 +5705,13 @@
         <v>399849</v>
       </c>
       <c r="L83" s="31">
-        <v>102208</v>
+        <v>316460</v>
       </c>
       <c r="M83" s="31">
-        <v>237200</v>
+        <v>6255</v>
       </c>
       <c r="N83" s="31">
-        <v>1840595</v>
+        <v>77135</v>
       </c>
     </row>
     <row r="84" spans="2:14" x14ac:dyDescent="0.35">
@@ -5787,13 +5740,13 @@
         <v>637302</v>
       </c>
       <c r="L84" s="31">
-        <v>34499</v>
+        <v>323673</v>
       </c>
       <c r="M84" s="31">
-        <v>18812</v>
+        <v>36960</v>
       </c>
       <c r="N84" s="31">
-        <v>152633</v>
+        <v>276669</v>
       </c>
     </row>
     <row r="85" spans="2:14" x14ac:dyDescent="0.35">
@@ -5822,13 +5775,13 @@
         <v>31420</v>
       </c>
       <c r="L85" s="31">
-        <v>1609923</v>
+        <v>4060</v>
       </c>
       <c r="M85" s="31">
-        <v>55918</v>
+        <v>600</v>
       </c>
       <c r="N85" s="31">
-        <v>571091</v>
+        <v>26760</v>
       </c>
     </row>
     <row r="86" spans="2:14" x14ac:dyDescent="0.35">
@@ -5860,13 +5813,13 @@
         <v>2926658</v>
       </c>
       <c r="L86" s="31">
-        <v>909431</v>
+        <v>187626</v>
       </c>
       <c r="M86" s="31">
-        <v>35128</v>
+        <v>326762</v>
       </c>
       <c r="N86" s="31">
-        <v>404035</v>
+        <v>2412270</v>
       </c>
     </row>
     <row r="87" spans="2:14" x14ac:dyDescent="0.35">
@@ -5895,13 +5848,13 @@
         <v>2670879</v>
       </c>
       <c r="L87" s="31">
-        <v>122863</v>
+        <v>147851</v>
       </c>
       <c r="M87" s="31">
-        <v>15945</v>
+        <v>303383</v>
       </c>
       <c r="N87" s="31">
-        <v>99788</v>
+        <v>2219644</v>
       </c>
     </row>
     <row r="88" spans="2:14" x14ac:dyDescent="0.35">
@@ -5929,15 +5882,9 @@
       <c r="K88" s="31">
         <v>2114490</v>
       </c>
-      <c r="L88" s="31">
-        <v>234630</v>
-      </c>
-      <c r="M88" s="31">
-        <v>5942</v>
-      </c>
-      <c r="N88" s="31">
-        <v>44213</v>
-      </c>
+      <c r="L88" s="31"/>
+      <c r="M88" s="31"/>
+      <c r="N88" s="31"/>
     </row>
     <row r="89" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B89">
@@ -5964,15 +5911,9 @@
       <c r="K89" s="31">
         <v>556388</v>
       </c>
-      <c r="L89" s="31">
-        <v>551939</v>
-      </c>
-      <c r="M89" s="31">
-        <v>13242</v>
-      </c>
-      <c r="N89" s="31">
-        <v>260034</v>
-      </c>
+      <c r="L89" s="31"/>
+      <c r="M89" s="31"/>
+      <c r="N89" s="31"/>
     </row>
     <row r="90" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B90">
@@ -6000,13 +5941,13 @@
         <v>255780</v>
       </c>
       <c r="L90" s="31">
-        <v>302345</v>
+        <v>39775</v>
       </c>
       <c r="M90" s="31">
-        <v>8494</v>
+        <v>23379</v>
       </c>
       <c r="N90" s="31">
-        <v>37122</v>
+        <v>192626</v>
       </c>
     </row>
     <row r="91" spans="2:14" x14ac:dyDescent="0.35">
@@ -6035,13 +5976,13 @@
         <v>3037512</v>
       </c>
       <c r="L91" s="31">
-        <v>398148</v>
+        <v>2242330</v>
       </c>
       <c r="M91" s="31">
-        <v>12295</v>
+        <v>39040</v>
       </c>
       <c r="N91" s="31">
-        <v>129933</v>
+        <v>756142</v>
       </c>
     </row>
     <row r="92" spans="2:14" x14ac:dyDescent="0.35">
@@ -6070,13 +6011,13 @@
         <v>1843498</v>
       </c>
       <c r="L92" s="31">
-        <v>371539</v>
+        <v>1307639</v>
       </c>
       <c r="M92" s="31">
-        <v>8972</v>
+        <v>22551</v>
       </c>
       <c r="N92" s="31">
-        <v>111954</v>
+        <v>513308</v>
       </c>
     </row>
     <row r="93" spans="2:14" x14ac:dyDescent="0.35">
@@ -6108,13 +6049,13 @@
         <v>303191</v>
       </c>
       <c r="L93" s="31">
-        <v>26608</v>
+        <v>157836</v>
       </c>
       <c r="M93" s="31">
-        <v>3323</v>
+        <v>18115</v>
       </c>
       <c r="N93" s="31">
-        <v>17979</v>
+        <v>127240</v>
       </c>
     </row>
     <row r="94" spans="2:14" x14ac:dyDescent="0.35">
@@ -6146,13 +6087,13 @@
         <v>424583</v>
       </c>
       <c r="L94" s="31">
-        <v>1265582</v>
+        <v>374959</v>
       </c>
       <c r="M94" s="31">
-        <v>35545</v>
+        <v>4582</v>
       </c>
       <c r="N94" s="31">
-        <v>269876</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="95" spans="2:14" x14ac:dyDescent="0.35">
@@ -6184,13 +6125,13 @@
         <v>1115723</v>
       </c>
       <c r="L95" s="31">
-        <v>180447</v>
+        <v>774844</v>
       </c>
       <c r="M95" s="31">
-        <v>8387</v>
+        <v>-146</v>
       </c>
       <c r="N95" s="31">
-        <v>44604</v>
+        <v>341025</v>
       </c>
     </row>
     <row r="96" spans="2:14" x14ac:dyDescent="0.35">
@@ -6222,13 +6163,13 @@
         <v>448324</v>
       </c>
       <c r="L96" s="31">
-        <v>1085134</v>
+        <v>392407</v>
       </c>
       <c r="M96" s="31">
-        <v>27158</v>
+        <v>10322</v>
       </c>
       <c r="N96" s="31">
-        <v>225272</v>
+        <v>45595</v>
       </c>
     </row>
     <row r="97" spans="2:14" x14ac:dyDescent="0.35">
@@ -6257,13 +6198,13 @@
         <v>745689</v>
       </c>
       <c r="L97" s="31">
-        <v>494895</v>
+        <v>542284</v>
       </c>
       <c r="M97" s="31">
-        <v>8566</v>
+        <v>6167</v>
       </c>
       <c r="N97" s="31">
-        <v>140714</v>
+        <v>197239</v>
       </c>
     </row>
     <row r="98" spans="2:14" x14ac:dyDescent="0.35">
@@ -6292,13 +6233,13 @@
         <v>680145</v>
       </c>
       <c r="L98" s="31">
-        <v>489855</v>
+        <v>504904</v>
       </c>
       <c r="M98" s="31">
-        <v>16768</v>
+        <v>2445</v>
       </c>
       <c r="N98" s="31">
-        <v>74709</v>
+        <v>172795</v>
       </c>
     </row>
     <row r="99" spans="2:14" x14ac:dyDescent="0.35">
@@ -6327,13 +6268,13 @@
         <v>65545</v>
       </c>
       <c r="L99" s="31">
-        <v>100385</v>
+        <v>37380</v>
       </c>
       <c r="M99" s="31">
-        <v>1824</v>
+        <v>3721</v>
       </c>
       <c r="N99" s="31">
-        <v>9849</v>
+        <v>24443</v>
       </c>
     </row>
     <row r="100" spans="2:14" x14ac:dyDescent="0.35">
@@ -6359,13 +6300,13 @@
         <v>2005555</v>
       </c>
       <c r="L100" s="31">
-        <v>441746</v>
+        <v>1670227</v>
       </c>
       <c r="M100" s="31">
-        <v>96713</v>
+        <v>-7893</v>
       </c>
       <c r="N100" s="31">
-        <v>208314</v>
+        <v>343221</v>
       </c>
     </row>
     <row r="101" spans="2:14" x14ac:dyDescent="0.35">
@@ -6394,13 +6335,13 @@
         <v>269726</v>
       </c>
       <c r="L101" s="31">
-        <v>100888</v>
+        <v>225927</v>
       </c>
       <c r="M101" s="31">
-        <v>19506</v>
+        <v>6071</v>
       </c>
       <c r="N101" s="31">
-        <v>73075</v>
+        <v>37728</v>
       </c>
     </row>
     <row r="102" spans="2:14" x14ac:dyDescent="0.35">
@@ -6429,13 +6370,13 @@
         <v>1735828</v>
       </c>
       <c r="L102" s="31">
-        <v>52218</v>
+        <v>1444300</v>
       </c>
       <c r="M102" s="31">
-        <v>8029</v>
+        <v>-13964</v>
       </c>
       <c r="N102" s="31">
-        <v>52602</v>
+        <v>305492</v>
       </c>
     </row>
     <row r="103" spans="2:14" x14ac:dyDescent="0.35">
@@ -6461,13 +6402,13 @@
         <v>849505</v>
       </c>
       <c r="L103" s="31">
-        <v>48669</v>
+        <v>674729</v>
       </c>
       <c r="M103" s="31">
-        <v>11476</v>
+        <v>-22310</v>
       </c>
       <c r="N103" s="31">
-        <v>20473</v>
+        <v>197086</v>
       </c>
     </row>
     <row r="104" spans="2:14" x14ac:dyDescent="0.35">
@@ -6493,13 +6434,13 @@
         <v>560762</v>
       </c>
       <c r="L104" s="31">
-        <v>340858</v>
+        <v>620943</v>
       </c>
       <c r="M104" s="31">
-        <v>77207</v>
+        <v>15824</v>
       </c>
       <c r="N104" s="31">
-        <v>135239</v>
+        <v>92095</v>
       </c>
     </row>
     <row r="105" spans="2:14" x14ac:dyDescent="0.35">
@@ -6524,15 +6465,9 @@
       <c r="K105" s="31">
         <v>168100</v>
       </c>
-      <c r="L105" s="31">
-        <v>77673</v>
-      </c>
-      <c r="M105" s="31">
-        <v>26513</v>
-      </c>
-      <c r="N105" s="31">
-        <v>53331</v>
-      </c>
+      <c r="L105" s="31"/>
+      <c r="M105" s="31"/>
+      <c r="N105" s="31"/>
     </row>
     <row r="106" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B106">
@@ -6557,13 +6492,13 @@
         <v>157461</v>
       </c>
       <c r="L106" s="31">
-        <v>263185</v>
+        <v>148628</v>
       </c>
       <c r="M106" s="31">
-        <v>50694</v>
+        <v>-7478</v>
       </c>
       <c r="N106" s="31">
-        <v>81908</v>
+        <v>16311</v>
       </c>
     </row>
     <row r="107" spans="2:14" x14ac:dyDescent="0.35">
@@ -6589,13 +6524,13 @@
         <v>905472</v>
       </c>
       <c r="L107" s="31">
-        <v>286397</v>
+        <v>538307</v>
       </c>
       <c r="M107" s="31">
-        <v>21390</v>
+        <v>28273</v>
       </c>
       <c r="N107" s="31">
-        <v>83782</v>
+        <v>338892</v>
       </c>
     </row>
     <row r="108" spans="2:14" x14ac:dyDescent="0.35">
@@ -6624,13 +6559,13 @@
         <v>219014</v>
       </c>
       <c r="L108" s="31">
-        <v>1846322</v>
+        <v>119061</v>
       </c>
       <c r="M108" s="31">
-        <v>-24531</v>
+        <v>9928</v>
       </c>
       <c r="N108" s="31">
-        <v>517651</v>
+        <v>90024</v>
       </c>
     </row>
     <row r="109" spans="2:14" x14ac:dyDescent="0.35">
@@ -6656,13 +6591,13 @@
         <v>130571</v>
       </c>
       <c r="L109" s="31">
-        <v>469030</v>
+        <v>61598</v>
       </c>
       <c r="M109" s="31">
-        <v>-6001</v>
+        <v>-5597</v>
       </c>
       <c r="N109" s="31">
-        <v>268250</v>
+        <v>74571</v>
       </c>
     </row>
     <row r="110" spans="2:14" x14ac:dyDescent="0.35">
@@ -6688,13 +6623,13 @@
         <v>88443</v>
       </c>
       <c r="L110" s="31">
-        <v>409923</v>
-      </c>
-      <c r="M110" s="31" t="s">
-        <v>269</v>
+        <v>57464</v>
+      </c>
+      <c r="M110" s="31">
+        <v>15526</v>
       </c>
       <c r="N110" s="31">
-        <v>263735</v>
+        <v>15453</v>
       </c>
     </row>
     <row r="111" spans="2:14" x14ac:dyDescent="0.35">
@@ -6723,13 +6658,13 @@
         <v>686458</v>
       </c>
       <c r="L111" s="31">
-        <v>59107</v>
+        <v>419246</v>
       </c>
       <c r="M111" s="31">
-        <v>-6001</v>
+        <v>18345</v>
       </c>
       <c r="N111" s="31">
-        <v>4515</v>
+        <v>248867</v>
       </c>
     </row>
     <row r="112" spans="2:14" x14ac:dyDescent="0.35">
@@ -6755,13 +6690,13 @@
         <v>162428</v>
       </c>
       <c r="L112" s="31">
-        <v>1377292</v>
+        <v>78099</v>
       </c>
       <c r="M112" s="31">
-        <v>-18530</v>
+        <v>22408</v>
       </c>
       <c r="N112" s="31">
-        <v>249400</v>
+        <v>61921</v>
       </c>
     </row>
     <row r="113" spans="2:14" x14ac:dyDescent="0.35">
@@ -6787,13 +6722,13 @@
         <v>524030</v>
       </c>
       <c r="L113" s="31">
-        <v>1275273</v>
-      </c>
-      <c r="M113" s="31" t="s">
-        <v>269</v>
+        <v>341147</v>
+      </c>
+      <c r="M113" s="31">
+        <v>-4063</v>
       </c>
       <c r="N113" s="31">
-        <v>192044</v>
+        <v>186947</v>
       </c>
     </row>
     <row r="114" spans="2:14" x14ac:dyDescent="0.35">
@@ -6822,13 +6757,13 @@
         <v>469851</v>
       </c>
       <c r="L114" s="31">
-        <v>102019</v>
+        <v>350173</v>
       </c>
       <c r="M114" s="31">
-        <v>-18530</v>
+        <v>9089</v>
       </c>
       <c r="N114" s="31">
-        <v>57356</v>
+        <v>110589</v>
       </c>
     </row>
     <row r="115" spans="2:14" x14ac:dyDescent="0.35">
@@ -6856,6 +6791,15 @@
       <c r="K115" s="31">
         <v>2812880</v>
       </c>
+      <c r="L115">
+        <v>2210905</v>
+      </c>
+      <c r="M115">
+        <v>-47169</v>
+      </c>
+      <c r="N115">
+        <v>649144</v>
+      </c>
     </row>
     <row r="116" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B116">
@@ -6879,6 +6823,15 @@
       <c r="K116" s="31">
         <v>887513</v>
       </c>
+      <c r="L116">
+        <v>572417</v>
+      </c>
+      <c r="M116">
+        <v>-9083</v>
+      </c>
+      <c r="N116">
+        <v>324179</v>
+      </c>
     </row>
     <row r="117" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B117">
@@ -6902,6 +6855,15 @@
       <c r="K117" s="31">
         <v>819341</v>
       </c>
+      <c r="L117">
+        <v>506804</v>
+      </c>
+      <c r="M117" t="s">
+        <v>269</v>
+      </c>
+      <c r="N117">
+        <v>312537</v>
+      </c>
     </row>
     <row r="118" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B118">
@@ -6971,6 +6933,15 @@
       <c r="K120" s="31">
         <v>68172</v>
       </c>
+      <c r="L120">
+        <v>65613</v>
+      </c>
+      <c r="M120">
+        <v>-9083</v>
+      </c>
+      <c r="N120">
+        <v>11642</v>
+      </c>
     </row>
     <row r="121" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B121">
@@ -6994,6 +6965,15 @@
       <c r="K121" s="31">
         <v>1925367</v>
       </c>
+      <c r="L121">
+        <v>1638488</v>
+      </c>
+      <c r="M121">
+        <v>-38086</v>
+      </c>
+      <c r="N121">
+        <v>324965</v>
+      </c>
     </row>
     <row r="122" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B122">
@@ -7017,6 +6997,15 @@
       <c r="K122" s="31">
         <v>1766596</v>
       </c>
+      <c r="L122">
+        <v>1519644</v>
+      </c>
+      <c r="M122" t="s">
+        <v>269</v>
+      </c>
+      <c r="N122">
+        <v>246952</v>
+      </c>
     </row>
     <row r="123" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B123">
@@ -7039,6 +7028,15 @@
       </c>
       <c r="K123" s="31">
         <v>158772</v>
+      </c>
+      <c r="L123">
+        <v>118844</v>
+      </c>
+      <c r="M123">
+        <v>-38086</v>
+      </c>
+      <c r="N123">
+        <v>78014</v>
       </c>
     </row>
     <row r="124" spans="2:14" x14ac:dyDescent="0.35">
@@ -11632,13 +11630,10 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AQ10"/>
+  <dimension ref="A1:AQ8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="1">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="AK1" workbookViewId="0">
+      <selection activeCell="AN2" sqref="AN2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11704,22 +11699,22 @@
       <c r="P1" s="54" t="s">
         <v>617</v>
       </c>
-      <c r="Q1" s="57" t="s">
+      <c r="Q1" s="53" t="s">
         <v>618</v>
       </c>
-      <c r="R1" s="58" t="s">
+      <c r="R1" s="54" t="s">
         <v>619</v>
       </c>
-      <c r="S1" s="59" t="s">
+      <c r="S1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="59" t="s">
+      <c r="T1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="U1" s="59" t="s">
+      <c r="U1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="V1" s="59" t="s">
+      <c r="V1" s="4" t="s">
         <v>14</v>
       </c>
       <c r="W1" s="4" t="s">
@@ -11969,37 +11964,18 @@
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.35">
       <c r="F6" s="31"/>
-      <c r="G6" s="64"/>
+      <c r="G6" s="58"/>
       <c r="H6" s="45"/>
-      <c r="O6" s="60"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="62"/>
-      <c r="R6" s="63"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="57"/>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="O7" s="60"/>
-      <c r="P7" s="63"/>
-      <c r="Q7" s="63"/>
-      <c r="R7" s="63"/>
+      <c r="O7" s="31"/>
       <c r="Z7" s="9"/>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="O8" s="60"/>
-      <c r="P8" s="63"/>
-      <c r="Q8" s="63"/>
-      <c r="R8" s="63"/>
-    </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="O9" s="63"/>
-      <c r="P9" s="63"/>
-      <c r="Q9" s="63"/>
-      <c r="R9" s="63"/>
-    </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="O10" s="63"/>
-      <c r="P10" s="63"/>
-      <c r="Q10" s="63"/>
-      <c r="R10" s="63"/>
+      <c r="O8" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
